--- a/fbo_solicitations.xlsx
+++ b/fbo_solicitations.xlsx
@@ -15,41 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>check_office</t>
+  </si>
+  <si>
+    <t>deadline_date</t>
+  </si>
+  <si>
+    <t>check_office_wide</t>
+  </si>
+  <si>
+    <t>announcement_type</t>
+  </si>
+  <si>
+    <t>synopsis</t>
+  </si>
+  <si>
+    <t>program_url</t>
+  </si>
+  <si>
+    <t>opportunity_title</t>
+  </si>
+  <si>
+    <t>check_date</t>
+  </si>
   <si>
     <t>sponsor_number</t>
   </si>
   <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>check_office</t>
-  </si>
-  <si>
-    <t>deadline_date</t>
-  </si>
-  <si>
-    <t>check_office_wide</t>
-  </si>
-  <si>
-    <t>announcement_type</t>
-  </si>
-  <si>
-    <t>synopsis</t>
-  </si>
-  <si>
-    <t>program_url</t>
-  </si>
-  <si>
-    <t>opportunity_title</t>
-  </si>
-  <si>
-    <t>check_date</t>
-  </si>
-  <si>
-    <t>DARPA-RA-15-32</t>
-  </si>
-  <si>
     <t>DARPA-BAA-14-50</t>
   </si>
   <si>
@@ -68,18 +65,12 @@
     <t>DARPA-BAA-13-37</t>
   </si>
   <si>
-    <t>DARPA-BAA-15-33</t>
-  </si>
-  <si>
     <t>Tactical Technology Office</t>
   </si>
   <si>
     <t>Biological Technologies Office</t>
   </si>
   <si>
-    <t>04/13/2015</t>
-  </si>
-  <si>
     <t>09/04/2015</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>09/17/2013</t>
   </si>
   <si>
-    <t>06/03/2015</t>
-  </si>
-  <si>
     <t>Presolicitation</t>
   </si>
   <si>
@@ -108,17 +96,6 @@
   </si>
   <si>
     <t>Award</t>
-  </si>
-  <si>
-    <t>Added:_x000D_
-Feb 26, 2015 1:37 pm_x000D_
-This solicitation replaces DARPA-RA-15-23._x000D_
-_x000D_
-This Research Announcement (RA) solicits ground-breaking single-investigator proposals from junior faculty for research and development in the areas of Physical Sciences, Engineering, Mathematics, Medicine, Biology, Information and Social Sciences of interest to DARPA's Defense Sciences Office (DSO), Microsystems Technology Office (MTO), and Biological Technology Office (BTO). See the full DARPA-RA-15-32 document attached._x000D_
-_x000D_
-Added:_x000D_
-Apr 09, 2015 11:33 am_x000D_
-Amendment 01: The purpose of this amendment is to make minor revisions to clarify that the Research Announcement (RA) is seeking proposals only from participants/individuals from U.S. institutions of higher education or from U.S. non-profit science and technology research institutions. Proposals are not being sought from foreign organizations.</t>
   </si>
   <si>
     <t>Added:_x000D_
@@ -243,17 +220,6 @@
 		Award Notice for HR0011-15-C-0084 (MIT).</t>
   </si>
   <si>
-    <t>Added:_x000D_
-Apr 15, 2015 12:01 pm_x000D_
-DARPA is soliciting research proposals in the development of navigation-grade inertial measurement units (IMUs) based on microelectromechanical systems (MEMS) technology. The objective of the PRIGM:NGIMU program is to develop navigation-grade inertial measurement units (NGIMU) by integrating MEMS gyroscopes and accelerometers into small form factor IMUs. PRIGM:NGIMU deliverables will provide drop-in replacements for currently deployed tactical-grade MEMS IMUs.  See the DARPA-BAA-15-33 document attached._x000D_
-Added:_x000D_
-May 06, 2015 1:06 pm_x000D_
-The purpose of Amendment No. 01 is to revise the program metrics stipulated at Table 1 (Part II, Section I, Paragraph B) of the Broad Agency Announcement (BAA). All changes made to the BAA are highlighted in yellow - see DARPA-BAA-15-33 Amendment No. 01 document attached to this notice.   All attachments to the BAA remain unchanged.  The proposal deadline remains unchanged.</t>
-  </si>
-  <si>
-    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=af2d4b77009cc0f207c81632058a4e23&amp;tab=core&amp;_cview=1</t>
-  </si>
-  <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=609d9473f9acde0ca577aae2774fb185&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
@@ -272,12 +238,6 @@
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=7610634cc3cbcbb826407a0d208c2515&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
-    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=9787bfe46edab65ace878327b1bdbfbd&amp;tab=core&amp;_cview=1</t>
-  </si>
-  <si>
-    <t>Young Faculty Award (YFA)</t>
-  </si>
-  <si>
     <t>Ground X-Vehicle Technologies (GXV-T) Program Technology Development</t>
   </si>
   <si>
@@ -296,9 +256,6 @@
     <t>Living Foundries: 1000 Molecules</t>
   </si>
   <si>
-    <t>Precise Robust Inertial Guidance for Munitions (PRIGM): Navigation-Grade Inertial Measurement Unit (NGIMU)</t>
-  </si>
-  <si>
     <t>DARPA-BAA-14-42</t>
   </si>
   <si>
@@ -311,7 +268,7 @@
     <t>09/09/2016</t>
   </si>
   <si>
-    <t>u'\n\t-\n\t\t'</t>
+    <t>u'-'</t>
   </si>
   <si>
     <t>Added:_x000D_
@@ -720,13 +677,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,258 +714,195 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="b">
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="b">
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="b">
+      <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="b">
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="b">
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="b">
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="b">
+      <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="b">
+      <c r="J7" t="b">
         <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1013,13 +910,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,75 +947,72 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="b">
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fbo_solicitations.xlsx
+++ b/fbo_solicitations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="447">
   <si>
     <t>office</t>
   </si>
@@ -65,12 +65,174 @@
     <t>DARPA-BAA-13-37</t>
   </si>
   <si>
+    <t>HR0011-14-C-0008P00022</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-13-29</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-22</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-26</t>
+  </si>
+  <si>
+    <t>DARPA-RA-15-32</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-33</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-46</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-38</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-27</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-21</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-44</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-30</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-25</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-41</t>
+  </si>
+  <si>
+    <t>BAA02-13</t>
+  </si>
+  <si>
+    <t>BAA03-36</t>
+  </si>
+  <si>
+    <t>BAA05-20</t>
+  </si>
+  <si>
+    <t>BAA06-42</t>
+  </si>
+  <si>
+    <t>BAA07-55</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-08-24</t>
+  </si>
+  <si>
+    <t>SN08-25</t>
+  </si>
+  <si>
+    <t>DARPA-SN-08-28</t>
+  </si>
+  <si>
+    <t>SN08-31</t>
+  </si>
+  <si>
+    <t>DARPA-SN-08-32</t>
+  </si>
+  <si>
+    <t>DARPASN0833</t>
+  </si>
+  <si>
+    <t>SN08-35</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-08-32</t>
+  </si>
+  <si>
+    <t>DARPASN08-45</t>
+  </si>
+  <si>
+    <t>DARPA-SN-08-55</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-11-47</t>
+  </si>
+  <si>
+    <t>BAA-11-46</t>
+  </si>
+  <si>
+    <t>DARPA-SN-12-15</t>
+  </si>
+  <si>
+    <t>DARPA-SN-12-19</t>
+  </si>
+  <si>
+    <t>DARPA-SN-13-22</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-13-06</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-13-39</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-12-02</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-13-19</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-12-39</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-24</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-05</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-07</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-14</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-06</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-22</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-28</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-43</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-46</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-38</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-52</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-41</t>
+  </si>
+  <si>
     <t>Tactical Technology Office</t>
   </si>
   <si>
     <t>Biological Technologies Office</t>
   </si>
   <si>
+    <t>Defense Sciences Office</t>
+  </si>
+  <si>
+    <t>Strategic Technologies Office</t>
+  </si>
+  <si>
+    <t>Microsystems Technology Office</t>
+  </si>
+  <si>
     <t>09/04/2015</t>
   </si>
   <si>
@@ -89,6 +251,159 @@
     <t>09/17/2013</t>
   </si>
   <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>05/14/2003</t>
+  </si>
+  <si>
+    <t>11/24/2003</t>
+  </si>
+  <si>
+    <t>04/29/2005</t>
+  </si>
+  <si>
+    <t>01/05/2007</t>
+  </si>
+  <si>
+    <t>10/05/2007</t>
+  </si>
+  <si>
+    <t>05/27/2008</t>
+  </si>
+  <si>
+    <t>04/24/2008</t>
+  </si>
+  <si>
+    <t>04/18/2008</t>
+  </si>
+  <si>
+    <t>04/30/2008</t>
+  </si>
+  <si>
+    <t>06/28/2008</t>
+  </si>
+  <si>
+    <t>05/08/2008</t>
+  </si>
+  <si>
+    <t>06/03/2008</t>
+  </si>
+  <si>
+    <t>08/13/2008</t>
+  </si>
+  <si>
+    <t>09/04/2008</t>
+  </si>
+  <si>
+    <t>10/20/2008</t>
+  </si>
+  <si>
+    <t>08/08/2011</t>
+  </si>
+  <si>
+    <t>06/08/2011</t>
+  </si>
+  <si>
+    <t>11/20/2011</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
     <t>Presolicitation</t>
   </si>
   <si>
@@ -96,6 +411,12 @@
   </si>
   <si>
     <t>Award</t>
+  </si>
+  <si>
+    <t>Combined Synopsis/Solicitation</t>
+  </si>
+  <si>
+    <t>Solicitation</t>
   </si>
   <si>
     <t>Added:_x000D_
@@ -220,6 +541,1025 @@
 		Award Notice for HR0011-15-C-0084 (MIT).</t>
   </si>
   <si>
+    <t>Added:_x000D_
+Jun 23, 2015 9:09 am</t>
+  </si>
+  <si>
+    <t>Added: Jun 19, 2013 3:21 pm_x000D_
+		_x000D_
+DARPA is seeking innovative ideas and disruptive technologies that offer the potential for significant capability improvement across the Strategic Technology Office (STO) focus areas.  This includes system and technology development related to Battle Management (BM), Command and Control (C2), Communications, Intelligence, Surveillance, and Reconnaissance (ISR), Electronic Warfare (EW), and Positioning, Navigation and Timing (PNT).  Technologies of particular interest would address challenges of operating in contested, denied, and/or austere environments._x000D_
+DARPA-BAA-13-29, entitled Strategic Technologies, is provided as an  attachment to this presolicitation notice and includes information on  the specific areas of interest, the submission process, proposal  formats, as well as all other pertinent administrative information.
+		Added: Feb 06, 2014 8:31 am_x000D_
+		The contractor shall focus on the problem of distributing information from ISR assets in an anti-access area denial (A2AD) scenario by increasing network capacity without adding network resources.  The effort will develop a model of topology control, develop analytical and simulation models for SNO algorithms and use these models to characterize the performance of SNO algorithms in mobile, dynamic A2AD scenarios and determine the effect on overall network performance.
+		Added: Mar 12, 2014 10:55 am_x000D_
+		_x000D_
+The contractor shall focus on a preliminary design for a base station for UAVs and UUVs in a F-18 fuel tank factor.  The tasks include evaluating and analysis of critical technologies required for air deployment, operation in variable  seas, define mission profile, developed base station concepts, including the energy production subsystem, communications, and ISR payloads.  The overall concept is interesting; the problem of how to provide long range persistent surveillance in forward deployed maritime areas is a challenge for both DARPA and the Navy.  This concept leverages the speed and responsiveness of aircraft with the persistence that can be provided in a maritime platform.  If successful, air delivery will force the system (payload) to survive water entry.  This mitigation will take up size, weight, and power, and will increase certification costs._x000D_
+		Added: Apr 08, 2014 3:06 pm_x000D_
+		_x000D_
+The Bobber Field Detection, Classification and Localization Algorithm is proposed as an order of magnitude leap in surveillance of mines in the littoral region.  If successful, the proposed concept is a disruptive approach to sea mine detection and localization.  BBN proposes a novel approach to detecting and locating sea mines.  The key technical innovations include use of wide band waveforms and matched filters, using temporal migration processing, re-use of existing commercial technology for the sensor units (“bobbers”), and central processing of the sensor unit results._x000D_
+		Added: Apr 23, 2014 10:43 am_x000D_
+		 _x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+This notice informs potential proposers of specific topics of interest within DARPA-BAA-13-29 and establishes a date by which proposals are requested.  The topics of interest are related to the Strategic Technology Office (STO) Advanced RF Mapping (RadioMap) program and the STO Shared Spectrum Access for Radar and Communications (SSPARC) program. Reference materials describing RadioMap are available online at http://go.usa.gov/WT44. Reference materials describing SSPARC are available online at http://go.usa.gov/2ZUx._x000D_
+ _x000D_
+DARPA STO seeks proposals under DARPA-BAA-13-29 technical areas 1.1.2 (Communications and Networks), 1.1.3 (Electronic Warfare), and/or 1.1.4 (Intelligence, Surveillance, and Reconnaissance). Efforts are sought that will assist DARPA in planning future research investments. Therefore, efforts providing systems analysis and understanding of fundamental tradeoffs are of higher interest than those focused on maturing a specific design. Given DARPA planning timelines, studies of roughly six months duration will offer highest value. Notwithstanding the above, efforts of any focus and duration will be considered for funding. _x000D_
+ _x000D_
+A full proposal must be submitted on or before 4:00 pm, local time (ET), June 6, 2014 in order to be considered in the initial round of selections associated with this amendment. However, proposals complying with the requirements specified in DARPA-BAA-13-29 but received after this deadline will still be evaluated and may be selected contingent upon the availability of funds. See DARPA-BAA-13-29 for details regarding proposal format, submission methods, and other requirements._x000D_
+ _x000D_
+Topics Related to the RadioMap Program_x000D_
+ _x000D_
+The RadioMap program intends to develop a software middleware called WALDO that enables applications to request remote radios and other RF devices to carry out transmission, reception, and signal processing functions. WALDO assures that these functions in support of remote applications are carried out without harm to the primary mission of the RF device. In prior work, the RadioMap program has investigated non-harming remote use of tactical radios and other RF devices to support mapping of spectrum usage, navigation in GPS-denied environments, and network traffic analysis. Proposals are desired that offer investigation of additional applications for this capability. Projects should evaluate performance of the proposed application given realistic assumptions about RF device performance, available network capacity, and operational scenario. _x000D_
+ _x000D_
+WALDO design and implementation is the subject of ongoing research within the RadioMap program. Information about the current WALDO design is not necessary for a successful project proposal under this Special Notice. Performers may assume a system exists that provides non-harming remote access to RF device capabilities. The remote access will be intermittent and unpredictable since the device's primary mission has priority. One desired output from the research is to identify requirements on WALDO performance or features needed for successful deployment of the application._x000D_
+ _x000D_
+Topics Related to the SSPARC Program_x000D_
+ _x000D_
+Proposals are desired that offer investigation of creative systems concepts in which radar and communications functions are co-designed or integrated into a single system offering high spectral efficiency, high performance and new synergies. Proposals addressing one of the following two topic areas are of particular interest._x000D_
+•1.Sharing in a congested spectrum environment between military communications networks or data links and high power surface level radars._x000D_
+•2.Sharing in a contested spectrum environment between military communications networks or data links and airborne radars, which improves mission success in A2AD operations. _x000D_
+ _x000D_
+Several challenges complicate spectrum sharing; it is desirable for proposed approaches to address these challenges. _x000D_
+•·Adversaries will seek to exploit the sharing mechanism and any information exchanged between the systems to support it._x000D_
+•·The spectrum shared between the radar and communications systems may also contain non-cooperative emitters, e.g. jammers._x000D_
+•·Communications devices may malfunction, for example due to software errors, misconfiguration, or miscalibrated transmitters or clocks. Malfunctioning communication devices easily cause harmful interference to sensitive radar receivers when sharing spectrum._x000D_
+ _x000D_
+The opportunity to codesign the radar and communications system is expected to enable new synergies in which the radar and communications systems assist each other's missions. Examples include using communications devices as multistatic radar receivers, using communications transmissions as radar illumination, and using radar receivers to assist in communications network rendezvous with disadvantaged communications nodes. _x000D_
+ _x000D_
+All other terms and conditions of DARPA-BAA-13-29 remain unchanged._x000D_
+ _x000D_
+ _x000D_
+		Added: May 02, 2014 11:10 am_x000D_
+		DARPA-BAA-13-29, Strategic Technologies, Amendment 2The purpose of this notice is to issue Amendment 2 to DARPA-BAA-29. Accordingly, see attached Amendment 2.
+		Added: May 09, 2014 12:21 pm_x000D_
+		The contractor shall apply Deep Learning based classification algorithms to radar automatic target recognition (ATR) and identify extensions that will be beneficial for trageting, tracking, identification and battle damage assessment in several scearios of interest.
+		Added: May 15, 2014 3:55 pm_x000D_
+		_x000D_
+The contractor  will investigate a passive interferometric imaging method that uses incoherent illumination of opportunity.  The question being addressed in the study is whether it is possible to produce target-quality information passively and incoherently using ambient RF energy from jammers or other RF sources in the environment.  The base will produce a modeling tool.  The effort will also provide ground moving target indicator (GMTI) measurements from a rooftop.  The result, if successful, could point the way to a new passive imaging mode that uses active jamming sources such as MALD-J, EA-18G or Next Gen Jammer as an illumination source.  Distributed passive receivers, either 5 gen fighters or LO penetrating platforms with SIGINT-type receivers would work in concert with main beam or sidelobe jammers to provide targeting information for ground or air objects._x000D_
+		Added: Aug 15, 2014 12:17 pm_x000D_
+		HF Passive Interferometric Tracking for Maritime Surveillance
+		Added: Sep 15, 2014 1:59 pm_x000D_
+		The contractor will study ways to incorporate EW together with radar and communications in the airborne domain.
+		Added: Sep 17, 2014 1:30 pm_x000D_
+		Added: Sep 18, 2014 10:20 am_x000D_
+		The contractor will study a novel spectrum sharing approach in which radar system derives benefits from mixing between its transmitted energy and the energy transmitted by a simultaneously operating communications system in the same channel.
+		Added: Jan 16, 2015 11:11 am_x000D_
+		The contractor will offer an innovative approach for planning maritime counter-surveillance operations based on an approximate dynamic programming (ADP) framework.
+		Added: Feb 10, 2015 2:38 pm_x000D_
+		Under DARPA Broad Agency Announcement No. DARPA-BAA-13-29, Pallas Technology, LLC. has been awarded a new contract for the performance of the Accurate Bias and Outlier Detection and Elimination (ABODE) Program.
+		Added: Feb 12, 2015 11:28 am_x000D_
+		Under the Broad Agency Announcement No. DARPA-BAA-13-29, American University has been awarded a new contract for the perofrmance of the Topological Analysis of Wireless Networks (TAWN) Program.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Mar 12, 2015 3:19 pm_x000D_
+DARPA is soliciting innovative research proposals for developing a 100 Gb/s airborne RF communications link capable of distances exceeding 100 km and 200 km for air-to-ground and air-to-air, respectively, within a single radio frequency channel.  The proposed program, 100G, seeks innovative approaches for using high-order modulation together with spatial multiplexing to achieve those goals by attaining spectral efficiencies greater than 20 bits-per-second-per hertz._x000D_
+Added:_x000D_
+Mar 27, 2015 4:00 pm_x000D_
+The purpose of this notice is to provide Questions and Answers submitting on the solicitation and from the Proposer's Day. See attached file.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Feb 24, 2015 1:52 pm_x000D_
+By the issuanace of the subject Broad Agency Announcement (DARPA-BAA-15-26), DARPA is soliciting innovative research proposals for the Squad X Core Technologies (SXCT) program.  The objective of the SXCT program is to develop and deliver new technologies that give dismounted squads increased situational awareness and enable them to dominate their battlespace.  The goal is to build combat power from the rifle squad up, allowing forces to be adaptable and flexible across the range of military operations.  This will be accomplished through research and development of novel technology solutions that advance the capabilities of the squad. Refer to the attachment, "DARPA-BAA-15-26," for complete details of the BAA._x000D_
+Added:_x000D_
+Feb 25, 2015 10:45 am_x000D_
+A SCG Request Form and an editable MS Excel Cost Proposal Spreadsheet are attached._x000D_
+Added:_x000D_
+Mar 02, 2015 11:30 am_x000D_
+The Broad Agency Announcement (BAA), DARPA-BAA-15-26, Amendment 1 has updated the times when items are due.  Refer to the attachment, "DARPA-BAA-15-26 Amendment 1 SXCT.pdf," for complete details of the amended BAA._x000D_
+Added:_x000D_
+Mar 06, 2015 10:06 am_x000D_
+See attached for a copy of the Proposers' Day Briefing Slides and also a copy of the Questions and Answers for the SXCT program._x000D_
+Added:_x000D_
+Mar 20, 2015 4:28 pm_x000D_
+The Broad Agency Announcement, DARPA-BAA-15-26, has been updated. Changes are highlighted in yellow in the attachment, "Amendment 2 - DARPA-BAA-15-26."</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Feb 26, 2015 1:37 pm_x000D_
+This solicitation replaces DARPA-RA-15-23._x000D_
+_x000D_
+This Research Announcement (RA) solicits ground-breaking single-investigator proposals from junior faculty for research and development in the areas of Physical Sciences, Engineering, Mathematics, Medicine, Biology, Information and Social Sciences of interest to DARPA's Defense Sciences Office (DSO), Microsystems Technology Office (MTO), and Biological Technology Office (BTO). See the full DARPA-RA-15-32 document attached._x000D_
+_x000D_
+Added:_x000D_
+Apr 09, 2015 11:33 am_x000D_
+Amendment 01: The purpose of this amendment is to make minor revisions to clarify that the Research Announcement (RA) is seeking proposals only from participants/individuals from U.S. institutions of higher education or from U.S. non-profit science and technology research institutions. Proposals are not being sought from foreign organizations.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 15, 2015 12:01 pm_x000D_
+DARPA is soliciting research proposals in the development of navigation-grade inertial measurement units (IMUs) based on microelectromechanical systems (MEMS) technology. The objective of the PRIGM:NGIMU program is to develop navigation-grade inertial measurement units (NGIMU) by integrating MEMS gyroscopes and accelerometers into small form factor IMUs. PRIGM:NGIMU deliverables will provide drop-in replacements for currently deployed tactical-grade MEMS IMUs.  See the DARPA-BAA-15-33 document attached._x000D_
+Added:_x000D_
+May 06, 2015 1:06 pm_x000D_
+The purpose of Amendment No. 01 is to revise the program metrics stipulated at Table 1 (Part II, Section I, Paragraph B) of the Broad Agency Announcement (BAA). All changes made to the BAA are highlighted in yellow - see DARPA-BAA-15-33 Amendment No. 01 document attached to this notice.   All attachments to the BAA remain unchanged.  The proposal deadline remains unchanged.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+May 08, 2015 12:01 pm_x000D_
+The DARPA Information Innovation Office (I2O) requests information on potential performers for classified CSO R&amp;D. Specifically, this RFI seeks information on potential performers who have the capability to rapidly develop state-of-the-art CSO technologies responsive to current and emerging cyber threats, and who have either of the following:_x000D_
+• personnel currently holding security clearances and facilities cleared to receive, store, and process CSO information at multiple levels of classification, or_x000D_
+• personnel and facilities eligible to receive clearances._x000D_
+See attached PDF, "DARPA-SN-15-46 RFI Cyberspace Operations Research and Development," for further details.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+May 11, 2015 11:13 am_x000D_
+The Defense Advanced Research Project Agency Tactical Technology Office (DARPA/TTO) is requesting information related to technologies that will enable high-resolution passive optical images of Geosynchronous Earth Orbit (GEO) satellites from a ground-based system.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 27, 2015 11:43 am_x000D_
+The Tactical Technology Office (TTO) of the Defense Advanced Research Projects Agency (DARPA) is soliciting executive summaries, white papers and proposals for advanced research, development and demonstration of innovative systems for military missions.  This solicitation seeks system and subsystem level technologies that enable revolutionary improvements to the efficiency and effectiveness of the military. Novel concepts are sought in the following focus areas: Ground Systems, Maritime Systems, Air Systems, and Space Systems.  Refer to the attachment, "DARPA-BAA-15-27," for complete details of this BAA._x000D_
+Added:_x000D_
+May 12, 2015 9:51 am_x000D_
+A copy of the TTO Proposers Day Slides for DARPA-BAA-15-27 is attached.</t>
+  </si>
+  <si>
+    <t>Added: Mar 31, 2015 4:49 pm_x000D_
+		  _x000D_
+This program strives to discover host tolerance mechanisms in order to identify a suite of interventions suitable for use in humans to mitigate the deleterious effects of infectious diseases. THoR is seeking novel methods and technologies to discover and understand these responses in hosts that are resilient when exposed to infectious diseases. Specifically, DARPA aims to discover the fundamental biological relationships that underlie host tolerance to infection in animal populations in order to provide the foundational knowledge required to develop interventions for potential transition into clinical use. This program is organized into three Technical Areas (TAs): 1) Identification and characterization of animal hosts with tolerant phenotypes; 2) Discovery of biological mechanisms that underlie tolerance; and 3) Identification of interventions that utilize tolerance mechanisms with the goal of reducing morbidity and mortality due to infection. This BAA will focus specifically on understanding tolerance mechanisms in prospective animal studies in conjunction with the analysis of retrospective pre-clinical and human clinical datasets._x000D_
+ Amendment #1 - changes the full proposal deadline from May 15, 2015 11:59 pm to June 9, 2015 4:00 pm.  Additionally, Figure 1 is set forth in the attachment to resolve the graphic display issue in original positing.
+		Added: May 18, 2015 4:23 pm_x000D_
+		 _x000D_
+The purpose of Modification 2 to DARPA-BAA-15-21, the Technologies for Host Resilience (THoR) Broad Agency Announcement, is to change the listed items that count towards the page limit._x000D_
+ _x000D_
+_x000D_
+ _x000D_
+The maximum page count for Volume 1 is 20 pages (8.5 x 11 paper, 11 point Times New Roman font, single line spacing), including all figures, tables and charts but not including the cover sheet, table of contents, statement of work, schedule and milestones, cost summary table, or appendices.  A submission letter is optional and is not included in the page count. Amended BAA Package, Section 4.3.1.1, has been updated to incorporate these changes.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+May 22, 2015 3:00 pm_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Defense Sciences Office (DSO)Revolutionary Enhancement of Visibility by Exploiting Active Light-fields (REVEAL) program  is soliciting innovative research proposals in the area of optical imaging and sensing of high dimensional degrees of freedom of light across all photon pathways.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 23, 2015 2:59 pm_x000D_
+DARPA is soliciting proposals for the Positioning System for Deep Ocean Navigation (POSYDON) program to develop an undersea system that provides omnipresent, robust positioning. DARPA envisions that the POSYDON program will distribute a small number of acoustic sources, analogous to GPS satellites, around an ocean basin.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Mar 02, 2015 3:50 pm_x000D_
+See attached DARPA-SN-15-25 document.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+May 04, 2015 3:39 pm_x000D_
+DARPA is soliciting innovative research proposals in the area of small size-weight-power-and-cost (SWaP-C) seekers for small and low-cost air-to-ground precision-guided munitions (PGMs) intended for use against targets in heavily contested environments, day or night, without reliance on the Global Positioning System (GPS) for navigation. Proposed research should investigate innovative approaches that enable revolutionary advances in devices and/or systems._x000D_
+Added:_x000D_
+Jun 05, 2015 10:17 am_x000D_
+The purpose of this notice is to provide a revised answer to Question #6 in the Questions and Answers previously posted.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 26, 2002_x000D_
+BROAD AGENCY ANNOUNCEMENT DARPA BAA 02-13: Exploitation of 3-D Data (E3D). POCs: Dr. Robert Hummel (DARPA/IXO), FAX 703/696-2201/2203; Mr. Alan Frederick (DARPA/CMO), FAX: (703) 807-1728._x000D_
+The Defense Advanced Research Projects Agency (DARPA) is soliciting proposals for the development of novel and efficient techniques for rapidly exploiting 3-D sensor data to precisely locate and recognize targets. This procurement has three separate technology areas: Modeling, Target Acquisition, and Target Recognition.  The Modeling area seeks solutions for constructing and inserting target, clutter, and decoy models into the E3D system.  The Target Acquisition area seeks solutions for detecting and segmenting targets contained in a local block of 3-D data.  The Target Recognition area seeks solutions for analyzing segmented 3-D data blocks to determine target class, identity, and fingerprint. One award is anticipated in the Modeling area.  Two awards each are anticipated in the Target Acquisition and Target Recognition areas._x000D_
+_x000D_
+BACKGROUND: Sensors that provide 3-D information provide an opportunity to achieve precision recognition in the targeting process.  Whereas identification from 2-D images requires complex inferencing of 3-D information from 2-D scenes, precise identification from 3-D data should be achievable based on measurements obtained directly from the sensor data.  Accordingly, by making use of the 3-D data rapidly becoming available from advanced sensors, the E3D project should provide a quantum leap in the military's ability to perform targeting.  Additionally, E3D exploitation technology should drive the introduction of new 3-D sensors by creating a lucrative market for the use of 3-D data._x000D_
+_x000D_
+OBJECTIVES: The E3D project will develop technology to detect and recognize vehicular targets in 3-D data.  In the context of E3D, -recognition- means the labeling of an object in terms of class type, target type, and unique identity. The primary goals of the E3D project are 1) demonstrate that 3-D shape and structure of targets, together with spatial 3-D information about the context of the targets, can permit confident recognition over broad ranges of obscuration, configuration variation, and environment complexity, 2) demonstrate that 3-D shape and structure of targets, together with spatial 3-D information about the context of the targets, can permit confident decoy mitigation, and 3) working extensively with simulation data, identify requirements for 3-D resolution and target features for the purpose of performing acquisition, classification, identification, as well as -fingerprinting,- of targets according to their 3-D features._x000D_
+_x000D_
+TECHNICAL APPROACH: Modeling, Target Acquisition, and Target Recognition technology will be developed in three phases.  A fourth phase is planned, but is not included as part of this solicitation. Phase I and Phase II will last 12 months each, and Phase III and Phase IV will last 9 months each.  In Phase I, the Modeling technology area will develop techniques for rapidly creating and inserting models of accessible targets.  These techniques will be used to build 75 target identification models and 20 target class models.  The Target Acquisition and Recognition technology areas will develop techniques to locate and recognize articulating, reconfigurable targets under partial obscuration conditions, with an identification probability of 0.85, a target rejection rate less than 5%, and a processing time of 3 minutes per target or less.  In Phase II, the Modeling technology area will develop techniques for rapidly creating and inserting models of denied targets and clutter.   The target model library will be expanded to 150 target identification models and 50 target class models. The Target Acquisition and Recognition technology areas will develop techniques to locate and recognize articulating, reconfigurable targets in close proximity under 50% obscuration conditions in clutter containing primitivedecoys, with an identification probability of 0.9, a target rejection rate less than 3%, and a processing time of 5-times real time. In Phase III, the Modeling technology area will develop techniques for rapidly creating and inserting class models of denied targets and clutter -on the fly-.   The target model library will be expanded to 300 target identification models and 100 target class models.  The Target Acquisition and Recognition technology areas will develop techniques to locate and recognize articulating, reconfigurable targets in close proximity under 50% obscuration conditions in clutter containing complex decoys, with an identification probability of 0.95, a target rejection rate less than 2%, and real-time processing speeds.  The E3D project will provide clear and unambiguous milestones with well-defined performance metrics that allow the Government to determine progress towards achieving or exceeding project objectives. The results at the conclusion of each Phase will provide the basis for Go/No-Go decision for the subsequent Phase. E3D technologies will be evaluated and tested in Government facilities. Performers will be required to provide electronic reporting via the DARPA Technical - Financial Information Management System (T-FIMS)._x000D_
+_x000D_
+GENERAL INFORMATION: Further information on the technical approach can be found in the Proposal Information Pamphlet (PIP) at the web site http://www.darpa.mil/ixo/solicitations/e3d/.  The PIP provides detailed information on program objectives, proposal submission format, evaluation and funding information. The deadline for receipt of full proposals for the initial round of evaluations will be 1600 EDT, 14 May 2002. This BAA will remain open until 1600 EDT 14 May 2003. All proposals shall be provided in electronic form, either uploaded by ZIP TM to a secure DARPA server at http://dtsn.darpa.mil under an approved account.  Alternatively, electronic proposals will be accepted by delivery of 2 CD-ROMs to the DARPA mailroom at 3701 N. Fairfax Drive, Arlington, VA 22203.  Instructions for web-based proposal format and preparation is described in the Proposal Information Pamphlet at http://www.darpa.mil/ixo/solicitations/e3d/pip.htm, and further information will be available online using approved accounts at https://dtsn.darpa.mil/.  The following criteria will be applied for the evaluation of the proposals: (1) Overall scientific and technical merit, (2) Offeror's capabilities and related experience, (3) Strength of Statement of Work and Program Plan, and (4) Cost realism. For Phase I only, the anticipated funding level for the Modeling task is $1 million, for the Target Acquisition task is $750,000, and for the Target Recognition task is $1.5 million. The Government plans to make award decisions within approximately 45 days after receipt of full proposals. Final funding determination will be based on best value to the Government. The Government reserves the right to select for award some, none or portions of the proposals received under this solicitation. The Government reserves the right to use grants, contracts or other transactions as instruments for funding the proposals selected for award. Information concerning Other Transactions can be found at URL http://www.darpa.mil/cmo/pages/845.htm.  All proprietary material submitted should be clearly marked as such and will be held in strict confidence. All proposals must reference DARPA BAA 02-13. Aside from the PIP, additional resource information is available at http://www.darpa.mil/ixo/solicitations/e3d/._x000D_
+_x000D_
+ORGANIZATIONAL CONFLICT OF INTEREST: Each cost proposal shall contain a section satisfying the requirements of the following: Awards made under this BAA are subject to the provisions of the Federal Acquisition Regulation (FAR) Subpart 9.5, Organizational Conflict of Interest. All Offerors and proposed subcontractors must affirmatively state whether they are supporting any DARPA technical office(s) through an active contract or subcontract. All affirmations must state which office(s) the Offeror supports and identify the prime contract number. Affirmations shall be furnished at the time of proposal submission, and the existence or potential existence of organizational conflicts of interest, as that term is defined in FAR 9.501, must be disclosed. This disclosure shall include a description of the action the Offeror has taken, or proposes to take, to avoid, neutralize or mitigate such conflict. If the Offeror believes that no such conflict exists, then it shall so state in this section. It is the policy of DARPA to treat all proposals as competitive information, and to disclose the contents only for the purposes of evaluation. The Government intends to use Solers, Inc., Schafer Corporation, SET Corporation, and Computer Assist, Inc. personnel as special resources to assist with the logistics of administering proposal evaluation, and to provide advice on specific technical areas. Personnel of this contractor are restricted by their contracts from disclosing proposal information for any purpose other than these administrative or advisory tasks. Contractor personnel are required to sign the Conflict of Interest and Non-Disclosure Agreement. By submission of its proposal, each Offeror agrees that proposal information may be disclosed to those selected contractors for the limited purpose stated above. Any information not intended for limited release to this contractor must be clearly marked and segregated from other submitted proposal material. This FedBizOps notice itself, combined with the Proposal Information Pamphlet at http://www.darpa.mil/ixo/solicitations/e3d/pip.htm, constitutes the Broad Agency Announcement as contemplated by FAR 6.102(d)(2). No portion of this BAA will be set aside for Historically Black Colleges and Universities (HBCU) and Minority Institutions (MI) participation due to the impracticality of reserving discrete or severable tasks, however HBCUs and MIs are encouraged to apply. In cases where evaluation of proposals is substantially equal, preference for award will be given to those proposals, which include HBCUs and MIs as participants over those, which do not include HBCUs and MIs. No additional information will be made available, nor will a formal RFP or other solicitation regarding this announcement be issued. All proposals, including technical and cost, shall be delivered electronically according to instructions in the Proposal Information Pamphlet.  Telephone inquiries are strongly discouraged; written inquiries may be sent by e-mail to baa02-13@darpa.mil.  Answers to pertinent questions shall be posted in the form of a Frequently Asked Questions (FAQ) file accessible at URL: http://www.darpa.mil/ixo/solicitations/e3d/faq.htm.  This BAA and the PIP constitute the Exploitation of 3D Data Solicitation.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+September 8, 2003_x000D_
+The purposes of this modification to BAA 03-36 are to:_x000D_
+1) Extend the proposal submission deadline from November 10, 2003 to November 24, 2003_x000D_
+_x000D_
+2) Allow up to 10 additional pages in Volume I of the proposal if optional hardware demonstrations are proposed.  Bidders not proposing optional hardware demonstrations are limited to 40 pages total._x000D_
+_x000D_
+In addition, all questions received to date regarding proposal instructions for BAA03-36 have been posted on the ISIS website: https://dtsn.darpa.mil/isis .   Additional questions will be answered and posted on the site as received.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+February 25, 2005_x000D_
+The Defense Advanced Research Projects Agency (DARPA) is soliciting innovative research proposals in the area of linear photonic radio frequency (RF) front-ends supporting the need for extremely high dynamic range microwave receivers.  Proposed research should investigate innovative microwave photonic transmission approaches that enable revolutionary advances in science, devices or systems.  Specifically excluded is research that primarily results in evolutionary improvement to the existing state of practice._x000D_
+The objective of PHOR-FRONT is to develop and demonstrate intrinsically linear, high sensitivity optical transmission techniques which can serve as the analog front-end of a digital microwave receiver.  A key objective is to replace conventional electronic low-noise amplifiers, mixers and copper cables with highly linear microwave photonic links providing RF gain, low Noise Figure (NF), frequency down-conversion to Intermediate Frequency (IF) or baseband, and most importantly, extremely high two-tone Spurious-Free Dynamic Range (SFDR).  With the understanding that processing wideband RF antenna signals into High Dynamic Range (HDR) digital bit streams is an important military thrust, this development serves to provide the critical optoelectronic (OE) infrastructure allowing a universal RF front-end that enables remote HDR digital processing.  This solicitation specifically addresses the development of the OE modules deemed most critical to achieving the targeted bandwidth, SFDR and NF requirements for transmission and down-conversion of microwave antenna signals.  The use of 1550 nm wavelength coherent optical transmission techniques incorporating LINEAR Phase Modulation (PM) and LINEAR phase demodulation is highly desirable and considered an attractive approach in achieving the required NF and SFDR.  As such, the 1550 nm coherent optical oscillator and the linear phase demodulator, e.g. a balanced optical mixer phase-locked-loop discriminator, are considered the most critical modules necessary to achieve this goal.  Optical phase modulation at the transmitter side, although necessary, is considered a lower risk element of the photonic front-end and not considered part of this solicitation.  The back-end analog-to-digital converter (ADC) is also not addressed in this solicitation; however, the proposed photonic RF front-end approaches should be fully compatible with HDR ADC back-end implementations.  In fact, the OE module flow-down requirements have been aligned with projected (less than 10 year) ADC performance levels for bandwidth and resolution._x000D_
+_x000D_
+The targeted end-of-program performance goal is to provide at least 90 dB of 2-tone SFDR in a 500 MHz Instantaneous Bandwidth (IBW), at any center frequency within the desired operating frequency range of 0.5-18 GHz.  This multi-octave range of RF signals will result from multiple antenna outputs, and it can be assumed that the frequency band of each antenna covers less than an octave.  A photonic RF front-end NF of 3 dB is targeted in association with the SFDR goal.   It is envisioned that PHOR-FRONT will enable a dramatic leap in performance for applications such as channelized Electronic Warfare (EW) receivers.  In this example application, each antenna feed would be applied to individual PHOR-FRONT links, which in turn provide input signals for individual receiver systems._x000D_
+_x000D_
+For the development of the PHOR-FRONT modules, DARPA seeks innovative proposals in the following device areas:_x000D_
+_x000D_
+I.	1550 nm Coherent Optical Oscillator_x000D_
+The first major interest of the PHOR-FRONT program is the development and demonstration of a narrow-linewidth, low-noise, high power, frequency-stabilized coherent optical oscillator.  The spectral region of interest for this single frequency laser is the 1550 nm communications band, where a wealth of supporting optoelectronic component infrastructure exists.  In addition to supporting highly linear analog photonic links, the challenging performance specification goals targeted for the laser have been chosen to meet other coherent oscillator application needs.  Innovative semiconductor, solid-state and fiber laser approaches to producing compact laser modules that can meet these challenging performance specifications are solicited.  This area of interest has four sub-tasks:_x000D_
+_x000D_
+A.	Develop and demonstrate a narrow-linewidth (less than 10 Hz) single-mode laser design at 1550 nm wavelength that can readily scale in output power (greater than 1 W) and show a path to high wall plug efficiency (greater than 20 percent);_x000D_
+_x000D_
+B.	Incorporate Amplitude Modulation (AM) &amp; Frequency Modulation (FM) laser noise reduction techniques into the laser design enabling shot-noise-limited performance to be obtained at small frequency offsets from the optical carrier (less than 1 MHz);_x000D_
+_x000D_
+C.	Develop and demonstrate a precise high-resolution frequency stabilization method for realizing long-term absolute wavelength stability (less than 100 kHz total excursion); and_x000D_
+_x000D_
+D.	Demonstrate and deliver the laser performance required to realize the photonic RF front-end receiver NF and SFDR to be demonstrated in conjunction with the second area of interest below._x000D_
+_x000D_
+The goal at the end of Phase I of the program (see Program Scope below) is to fabricate and demonstrate a functional coherent optical oscillator, and to demonstrate a design path to increased performance levels.  The Program goal, at the end of Phase II, is to fabricate and demonstrate the optical oscillator with full performance specifications enabling the targeted photonic link SNR, NF and SFDR goals to be achieved in conjunction with the second area of interest below._x000D_
+_x000D_
+II.	Linear Optical Phase Demodulator_x000D_
+The second major area of interest is the design, fabrication and demonstration of a strictly linear optical phase demodulator to be used in conjunction with a linear optical PM transmitter.  Phase demodulation techniques that produce intrinsically linear receiver transfer characteristics, as opposed to relying principally on intermodulation distortion (IMD) cancellation methods, are central to this task.  One possible example of a coherent receiver that falls within the scope of this task area is a balanced mixer optical phase-locked-loop (OPLL) discriminator.  In this case, the OPLL output error signal can be configured to instantaneously track the phase of the input signal, i.e. a linear PM demodulator.  Coherent receivers for 0.5-18 GHz phase modulated optical signals with 500 MHz IBW providing greater than90 dB SFDR are of interest.  Coherent phase-tracking/phase-nulling approaches as well as other novel approaches for achieving strictly linear coherent phase demodulation and downconversion will be considered, provided that detailed analyses and simulations support the RF link performance claims._x000D_
+_x000D_
+It is important to note a few considerations pertaining to the envisioned military applications.  The targeted RF antenna applications for space-based, air-borne, maritime or ground-based military platforms dictate that the signal laser (1550 nm coherent optical oscillator) can be remotely co-located with the receiver optoelectronics, providing several local oscillator and feedback implementation options that can be explored.  In addition, the use of polarization-maintaining fiber can be assumed for the short antenna/processor fiber runs, eliminating the need for polarization diversity receiver techniques to be considered.  These considerations should simplify the coherent receiver implementation required for this task area._x000D_
+_x000D_
+This area of interest has four general sub-tasks:_x000D_
+_x000D_
+A.	Develop and demonstrate a phase demodulator design at a wavelength of 1550 nm that provides highly linear (OIP3 greater than +75 dBm) performance in conjunction with a large 1 dB compression-point dynamic range (greater than 175 dB);_x000D_
+_x000D_
+B.	Develop receiver and link models to simulate and predict both receiver and link performance levels for given laser and modulator parameters;_x000D_
+_x000D_
+C.  	Identify/analyze major sources of noise and nonlinearities in the coherent link that are related to the receiver and incorporate mitigation techniques; and_x000D_
+_x000D_
+D.	Demonstrate and deliver the coherent optical receiver performance required to realize the photonic RF front-end receiver NF and SFDR to be demonstrated in conjunction with the first area of interest above._x000D_
+_x000D_
+For all proposed approaches and implementations, fully functional linear phase demodulation chips/modules are to be developed and demonstrated.  The proposal should provide simulation and analysis depicting the expected link linearity of the proposed approach using 1550 nm laser specifications similar to that being developed in Area I of this solicitation.  Proposals should clearly describe all major parametric dependencies of the link linearity in the system, including system components not addressed in this solicitation (e.g. front-end optical modulator).  The goal at the end of Phase I of the program (see Program Scope below) is to fabricate and demonstrate a functional linear optical phase discriminator, and to demonstrate a design and integration path to increased performance levels.  The Program goal, at the end of Phase II, is to fabricate and demonstrate the optical phase discriminator with full performance specifications enabling the targeted photonic link bandwidth, NF and SFDR goals to be achieved._x000D_
+_x000D_
+PHOR-FRONT offerors are encouraged to submit innovative proposals that address either or both of the areas of interest, as proposers are not required to address both topics.  Although not a requirement, teaming is encouraged where warranted, especially under Area II which would necessitate integration of various photonic and electronic technologies._x000D_
+_x000D_
+The selected performers will be required to deliver individual devices and groups of devices (subsystems) that form analog photonic RF front-end building blocks at appropriate intervals within the program to a DARPA-designated facility.  Offerors are also asked to submit a list and timetable of deliverables._x000D_
+_x000D_
+Additional information on these technology areas is provided in the Areas of Interest section of the BAA 05-20 Proposer Information Pamphlet referenced below._x000D_
+_x000D_
+PROGRAM SCOPE_x000D_
+_x000D_
+The PHOR-FRONT program will consist of a 15 month Phase I effort with contractor defined Go Ahead critical milestones at the end of 12 months.  This will be followed by a 15-month Phase II option to achieve the full performance targets if not achievable in Phase I.  Clearly stated, quantitative milestones at 12, 21 and 30 months into the program are required.  Offerors are strongly encouraged (Evaluation Criteria (3)) to pursue aggressive development schedules towards meeting the program goals in a most timely manner.  Organizations wishing to participate in Phase II should include it as an option in their proposal.  Multiple awards are anticipated.  Collaborative efforts/teaming including different expertise such as, but not limited to, design, fabrication, integration and packaging are encouraged, but not required.  Cost sharing is not required and is not an evaluation criterion, but is encouraged where there is a reasonable probability of a potential commercial application related to the proposed research and development effort.  Questions concerning this BAA may be directed to the technical POC for this effort, Dr. Steve Pappert, phone: (571) 218-4679, fax: (703) 696-2206, electronic mail: spappert@darpa.mil ._x000D_
+_x000D_
+GENERAL INFORMATION_x000D_
+_x000D_
+Proposers must obtain a pamphlet entitled “BAA 05-20, Linear Photonic RF Front-End Technology (PHOR-FRONT), Proposer Information Pamphlet” which provides further information on the objectives of the PHOR-FRONT BAA, the submission, evaluation, and funding processes, proposal formats, and other general information.  This pamphlet may be obtained from the FedBizOpps website: http://www.fedbizopps.gov/, the World Wide Web (WWW) at URL http://www.darpa.mil/ or by fax, electronic mail, or mail request to the administrative contact address given below.   Proposals not meeting the format described in the pamphlet may not be reviewed.  An original and nine (9) copies of the full proposal as specified in the Proposer Information Pamphlet, along with two (2) electronic copies (i.e., two separate disks) must be submitted to DARPA/MTO, 3701 North Fairfax Drive, Arlington, VA 22203-1714 (Attn.: BAA 05-20) on or before 4:00 p.m., local time, Friday, April 29, 2005, in order to be considered during the initial round of selections; however, proposals received after this deadline may be received and evaluated up to one year from date of posting on FedBizOpps.  File formats for the electronic copies shall be PDF and MS-Word-readable.  Media for each copy may be a single CD-ROM, a single 100 Megabyte Iomega Zip (registered) disk, or a single 3.5-inch High Density MS-DOS formatted 1.44 Megabyte diskette.  Each disk must be clearly labeled with BAA 05-20, proposer organization, proposal title (short title recommended), and Copy number __ of 2.  Full proposals submitted after the due date specified in the BAA may be selected contingent upon the availability of funds.  This notice, in conjunction with the BAA 05-20 Proposer Information Pamphlet, constitutes the total BAA.  No additional information is available, nor will a formal RFP or other solicitation regarding this announcement be issued. Requests for the same will be disregarded.  The Government reserves the right to select for award all, some, or none of the proposals received, and to make award without discussions.  All responsible sources capable of satisfying the Government's needs may submit a proposal which shall be considered by DARPA.  Input on technical aspects of the proposals may be solicited by DARPA from non-Government consultants /experts who are bound by appropriate non-disclosure requirements.  Non-Government technical consultants/experts will not have access to proposals that are labeled by their offerors as “Government Only”.  Historically Black Colleges and Universities (HBCUs), Minority Institutions (MIs), and Small and Small Disadvantaged Business Concerns are encouraged to submit proposals and join others in submitting proposals; however, no portion of this BAA will be set aside for these organizations' participation due to the impracticality of reserving discrete or severable areas of research in Linear Photonic RF Front-End Technology (PHOR-FRONT)._x000D_
+_x000D_
+All administrative correspondence and questions on this solicitation, including requests for information on how to submit a proposal abstract or full proposal to this BAA, should be directed to one of the administrative addresses below; e-mail or fax is preferred.  DARPA intends to use electronic mail and fax for correspondence regarding BAA 05-20.  Proposals and proposal abstracts may not be submitted by fax or e-mail; any so sent will be disregarded.  DARPA encourages use of the WWW for retrieving the Proposer Information Pamphlet and any other related information that may subsequently be provided._x000D_
+_x000D_
+_x000D_
+EVALUATION CRITERIA_x000D_
+_x000D_
+Evaluation of full proposals will be accomplished through a technical review of each proposal using the following criteria, which are listed in descending order of relative importance: (l) overall scientific and technical merit, (2) potential contribution and relevance to DARPA mission, (3) offeror's ability and aggressiveness to propose and execute a challenging development schedule with ambitious performance metrics, (4) plans and capability to accomplish technology transition, (5) offeror's capabilities and related experience, and (6) cost realism. Note: cost realism will only be significant in proposals which have significantly under or over-estimated the cost to complete their effort._x000D_
+_x000D_
+The administrative addresses for this BAA are:_x000D_
+_x000D_
+Fax:  (703) 696-2206 (Addressed to: DARPA/MTO, BAA 05-20),_x000D_
+_x000D_
+Electronic Mail:  BAA05-20@darpa.mil_x000D_
+_x000D_
+Mail: 	DARPA/MTO, ATTN: BAA 05-20_x000D_
+3701 North Fairfax Drive_x000D_
+Arlington, VA 22203-1714_x000D_
+_x000D_
+This announcement and the Proposer Information Pamphlet may be retrieved via the WWW at URL http://www.darpa.mil/ in the solicitations area.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+August 11, 2006_x000D_
+The purpose of Modification 01 to BAA 06-42 is to change the initial response due date for full proposals from Tuesday, November 21, 2006 to Friday, January 5, 2007.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+August 3, 2007_x000D_
+This BAA announces an opportunity for research in optical and Radio Frequency (RF) communications to provide a high data rate gateway network capability to warfighters.  This includes airborne nodes; on-the-move (OTM) and on-the-halt (OTH) ground vehicles; and Global Information Grid (GIG) Points of Presence. In this capability, the ground vehicles will act as stub networks.  To ensure technical maturity of what is being developed, there will be a series of demonstrations and experiments throughout this effort.  The program duration and funding recommendations will be provided by the proposers in their submission.  The proposer is encouraged to outline the least possible time and funding to complete these tasks.  No information on expected timeline or funding will be provided in this BAA.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 26, 2008_x000D_
+DARPA is soliciting innovative research and development proposals in the area of Quantum Entanglement Science and Technology (QuEST). The goal of this program is to investigate innovative approaches that enable revolutionary advances in the fundamental understanding of quantum information science related to ?small? quantum systems.  See atttached Broad Agency Announcement (BAA).</t>
+  </si>
+  <si>
+    <t>Added: Apr 03, 2008 7:27 am_x000D_
+		_x000D_
+TECHNICAL POC: Dr. Judah Goldwasser, DARPA/DSO, Email: ; URL: _x000D_
+ _x000D_
+In anticipation of a potential program on the topic of_x000D_
+Reactive Material Structures (RMS), DARPA is hosting a Proposer’s Workshop that_x000D_
+will provide critical information regarding the program vision, milestones, and_x000D_
+opportunities associated with the development of an interdisciplinary team to_x000D_
+respond to a Broad Agency Announcement (BAA). _x000D_
+ _x000D_
+The_x000D_
+RMS program goal is to develop and demonstrate materials/material systems that_x000D_
+can serve both as high strength structural materials – i.e., capable of_x000D_
+withstanding high stresses – and which can also be controllably stimulated to_x000D_
+produce substantial blast energy.  The_x000D_
+vision is to replace the inert structural materials currently used in munition_x000D_
+cases with reactive material structures that provide both structural integrity_x000D_
+and energy within the same material system, including the ability to rapidly_x000D_
+release the energy upon demand.  Specific technical challenges for the_x000D_
+program include development and demonstration of: (i) high strength, high_x000D_
+density materials/material systems that incorporate large enthalpy, reactive_x000D_
+ingredients; (ii) the capability to tailor the microstructure/architecture so_x000D_
+that the material/composite can be induced to undergo rapid and massive failure_x000D_
+to produce combustible ingredients with very large surface areas; and (iii) the_x000D_
+mechanism(s) to convert consolidated structural material into large surface_x000D_
+area powder, disperse, and ignite the powder to produce a high intensity_x000D_
+blast.  Further program details and_x000D_
+milestones will be specified in a forthcoming BAA.  _x000D_
+ _x000D_
+The RMS Proposer’s Workshop will be held at The_x000D_
+Executive Conference Center,_x000D_
+3601 Wilson Blvd Suite 600, Arlington, VA 22201, 8:30am-4:00pm ET, May 1-2, 2008; and will consist of information, poster, and_x000D_
+discussion sessions.  In the information_x000D_
+session overview presentations will be given by Government personnel to: (a)_x000D_
+introduce the research community to the RMS program vision and goals; (b)_x000D_
+explain the mechanics of a DARPA program and the milestones and metrics of this_x000D_
+particular effort; and (c) encourage and promote teaming.  This will be followed by a poster session to_x000D_
+facilitate interaction and team building among the session participants.  There will also be an open discussion session_x000D_
+to provide the opportunity for participants to interact with Government_x000D_
+personnel and have their questions answered.  The latter part of the first day and all of_x000D_
+the second day has been reserved for individual sidebar discussions with the_x000D_
+Program Manager.  Further details are_x000D_
+available on the registration website listed below._x000D_
+ _x000D_
+Potential_x000D_
+participants should note that formation of teams with sufficient expertise, facilities, and capabilities to address all of the RMS_x000D_
+program’s technical challenges will be crucial to its success.  The multidisciplinary nature of this program_x000D_
+will require diverse sets of skills and expertise to develop total solutions to_x000D_
+the program objectives and achieve all of the program goals and milestones.  DARPA will_x000D_
+not be funding the development of component technologies that address only a_x000D_
+subset of the program goals that will be described in the anticipated BAA. Since_x000D_
+an important element of the RMS Proposer’s Workshop is to facilitate the_x000D_
+formation of teams with the necessary expertise to respond to the BAA, participants are encouraged to prepare posters describing_x000D_
+areas of capabilities to facilitate communications, interactions, and teaming_x000D_
+discussions during the poster session.  In addition, an information and teaming_x000D_
+website, ,_x000D_
+has been established to aid in the process.  _x000D_
+ _x000D_
+Workshop details including registration, poster session, meeting_x000D_
+location, and lodging are given on the registration website at: _x000D_
+ _x000D_
+There is no fee for the RMS Proposer’s Day Workshop._x000D_
+Registration is limited (maximum_x000D_
+100 people; 2 people per organization) by the venue_x000D_
+capacity and early registration is highly recommended.  The registration cutoff date is 4:00PM ET, April_x000D_
+24, 2008. Further administrative information is available_x000D_
+from Ms. Kathryn Cullen ().  Additional_x000D_
+technical information can be obtained from Dr. Judah Goldwasser ()._x000D_
+ Please refer to the RMS Proposer’s Day Workshop_x000D_
+(SN 08-25) in all correspondence.  This_x000D_
+announcement is not a request for proposals; any so sent will be returned._x000D_
+ _x000D_
+_x000D_
+Dr. Judah Goldwasser, Program_x000D_
+Manager, DARPA/DSO; Email:_x000D_
+		Added: Apr 03, 2008 2:39 pm_x000D_
+		The purpose of this modification is to add the "Response Date and Archive Date"</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 04, 2008 2:44 pm_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) often selects its research efforts through the Broad Agency Announcement (BAA) process. This request for information (RFI) is intended to provide details about a possible future DARPA program so that industry feedback can be considered prior to the issuance of a BAA. Responders are invited to provide comment on any or all of the content of this announcement to include suggestions for improving the scope of a possible solicitation in order to ensure that every effort is made to address this important problem. Responses to this request may be used to support development of and, subsequently, be incorporated within a future DARPA Program BAA, to the extent any such information is available for public distribution._x000D_
+_x000D_
+The following sections of this announcement contain details of the scope of technical efforts._x000D_
+_x000D_
+_x000D_
+Phased array antennas are crucial to current and future military systems operating from radio frequencies, to microwave, to millimeter-wave frequencies._x000D_
+_x000D_
+This RFI takes both a top-down and bottom-up approach to the technologies and components needed to enable the next generation of phased arrays, which for this RFI includes correlation arrays and interferometers._x000D_
+_x000D_
+In particular, this RFI concentrates on two aspects of the phased array antennas: 1) in light of envisioned phased array capabilities and applications, what technologies or components are needed; and 2) assessing and advancing the state of beamforming for RF systems._x000D_
+_x000D_
+This RFI solicits respondents to submit ideas related to either or both aspects keeping in mind, however, that any resulting DARPA program would be looking beyond research that primarily results in evolutionary improvements to the existing state of practice._x000D_
+_x000D_
+The first aspect of this RFI pertains to system level needs for phased array performance and capabilities._x000D_
+_x000D_
+Here DARPA seeks examples of revolutionary approaches, architectures and applications._x000D_
+_x000D_
+Respondents should clearly articulate the deficiency or new capability being addressed._x000D_
+_x000D_
+A flow down of system level requirements to the component or module level is preferred, but not required._x000D_
+_x000D_
+The goal of this first aspect is to present and illustrate the need being addressed or new capability being enabled by the development and demonstration of new technologies, components, and modules._x000D_
+_x000D_
+DARPA's vision is to stimulate technology innovations that would culminate in module-level proof-of-concept demonstrations._x000D_
+_x000D_
+The second aspect of this RFI deals with beamforming. To truly harness the power of phased arrays, and enable the very broad bandwidth potential, it is imperative to employ best-in-class beamforming architectures for any given application._x000D_
+_x000D_
+_x000D_
+In this context, true-time delay (TTD) based beamformers are far superior when compared to their phase shifter based counterparts. Through this RFI, DARPA is soliciting ideas for developing component and module level technologies to support compact and ultra-compact beamforming architectures for phased array antenna systems operating in frequency bands within the range 1 to 100 GHz. Of particular interest to DARPA are technologies and solutions that afford multi-octave bandwidth operation while concurrently enabling multiple beams in different frequency bands from the same aperture. DARPA has significant interest in considering novel beamforming modules and architectures that substantially reduce the size, weight, and power (SWAP) of phased array antenna systems._x000D_
+_x000D_
+Technologies that significantly reduce precious aperture wall-plug power are particularly attractive. Approaches to address this problem may include the processing of received signals at a location that is remote from the antenna aperture._x000D_
+_x000D_
+DARPA solicits respondents to submit ideas related to this topic for use by the Government in formulating a potential program. DARPA requests that submittals briefly and clearly describe the potential approach or concept, outline critical technical issues, and comment on the expected performance, robustness, affordability, weight, size and power requirements of the proposed approach. The Government does not intend to award a contract on the basis of this RFI or to otherwise pay for the information solicited, nor is the Government obligated to issue a solicitation based on responses received._x000D_
+_x000D_
+Responses should be limited to three pages for any given concept. Any proprietary concepts or information should be clearly identified as such._x000D_
+_x000D_
+Input on technical aspects of the responses may be solicited by DARPA from non-Government consultants/experts who are bound by appropriate non-disclosure requirements. For all RFI responses, an additional, non-proprietary cover page is also requested identifying your company name, technical point of contact and contact information. In order to comply with scheduling priorities, responders are asked to provide feedback by no later than 2:00pm (Eastern) April 18, 2008._x000D_
+_x000D_
+RFI Responses should be submitted in a commonly used electronic format and may be e-mailed or mailed on a CD-ROM to: Dr. Ronald Esman, Program Manager (Primary RFI Technical Point of Contact), DARPA/MTO, 3701 N Fairfax Dr. Arlington, VA 22203. E-mail:_x000D_
+Phone (571) 218-4691, Fax (703) 248-1817.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 11, 2008 12:27 pm_x000D_
+INDUSTRY DAY CONFERENCE:_x000D_
+DARPA/TTO will host a classified (secret-level) industry day conference in support of the Joint DARPA/ONR Long Range Anti-Ship Missile Demonstration (LR-ASM) program (BAA 08-41) on May 6, 2008 at Schafer Corporation, 3811 N. Fairfax Drive, Suite 400, Arlington, Virginia, 22203 from 9:00 a.m. to 4:00 p.m..  Registration begins at 8:00 a.m. and the conference will start promptly at 9:00 a.m.  The purpose of this conference is to provide information on the LR-ASM program; promote additional discussion on this topic; address questions from potential proposers; and provide a forum for potential proposers to meet to discuss teaming opportunities.  Any questions related to this announcement should be sent to BAA08-41@darpa.mil._x000D_
+_x000D_
+PROGRAM OBJECTIVE AND DESCRIPTION:_x000D_
+The Long Range Anti-Ship Missile Demonstration program is a joint DARPA/ONR effort to rapidly develop and demonstrate a ship launched standoff anti-ship strike weapon capable of achieving mission kill against selective surface targets at significant standoff ranges.  The program will develop technologies that enable U.S. surface platforms to engage other surface units from well outside counter-fire ranges, with inherent capability to ensure weapon survivability against advanced defensive systems.  The program should achieve robust integrated flight test of a prototype system no later than three years after contract award.  Proposers will be encouraged to provide best performance solutions based on innovative application of technologies that can realistically achieve flight status within this timeframe.  Consideration should be given to innovative terminal survivability and lethality approaches that are effective against current and projected ship defensive systems._x000D_
+_x000D_
+The Government envisions a two phase development program.  Phase 1 will fully develop system concepts, generate preliminary system designs, estimate procurement and lifecycle costs, and support government analytical evaluation of design effectiveness.  This phase, approximately nine (9) months in duration, will culminate in a preliminary design review (PDR) and independent technical assessment.  Phase 2 will progress through detail design, component maturation and testing, system integration including subsystem verification testing, flight test planning, long lead procurement, and a critical design review (CDR).  Upon successful completion of a CDR, Phase 2 will continue with final system fabrication, integration, and testing as required to achieve a full-scale flight test and integrated demonstration of kinematic performance, guidance, target discrimination and acquisition, terminal survivability techniques, and warhead lethality.  It is strongly desired that the full effort, including the integrated demonstration, be completed within thirty-six (36) months from contract award._x000D_
+_x000D_
+REGISTRATION INFORMATION:_x000D_
+Participants must register no later than April 30, 2008 at the following website: www.schafertmd.com/conference/LRASM.  Directions to the facility and other materials are also available on the website.  There is no registration fee for attending this conference.  If space limitations are approached, organizations may be asked to limit attendance._x000D_
+_x000D_
+The May 6th industry day conference will be classified at the DoD secret level.  Visitors must check in at Schafer reception in Suite 400.  Visitors will not be admitted without proper photo identification and a current visit request on file.  Please see the security link on the registration website for details._x000D_
+_x000D_
+The latter portion of the industry day will be set aside to allow attendees to present company overviews, discuss their technology expertise, and discuss teaming opportunities with the industry audience.  Upon arrival, the attendees will receive their scheduled time for presenting.  The opportunity to present will be afforded on a first come, first served basis.  It is the presenter’s responsibility to ensure that all proposed material, whether unclassified, classified, or otherwise sensitive, is reviewed prior to being displayed at the conference by the organization that funded the effort.  Presentations will be limited to ten (10) minutes each._x000D_
+_x000D_
+Proposers desiring to present at the industry day conference should send an electronic copy of all unclassified material to be presented to BAA08-41@darpa.mil as soon as possible, but no later than May 2, 2008.  Submissions should identify which functional area is applicable to their presentation (e.g. seeker, guidance, warhead, propulsion, system integration, etc.).  In the case of classified presentations, material handling details are outlined on the registration website under the security link.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 23, 2008 2:38 pm_x000D_
+DARPA Urban Propagation Workshop_x000D_
+15-16 July 2008_x000D_
+Booz Allen Hamilton, Arlington, VA_x000D_
+_x000D_
+_x000D_
+Sponsors:_x000D_
+Dr. Edward Baranoski, Strategic Technology Office, DARPA_x000D_
+Dr. Joseph Durek, Strategic Technology Office, DARPA_x000D_
+Dr. Mark McClure, Information Processing Techniques Office, DARPA_x000D_
+Dr. Stefanie Tompkins, Strategic Technology Office, DARPA_x000D_
+_x000D_
+This is a preliminary announcement for the DARPA Urban Propagation Workshop.   Urban operations are increasingly important to the military.  The urban environment poses extreme challenges to communications, intelligence, surveillance, reconnaissance, geolocation, and navigation.  This workshop will examine and report on the most recent technological advancements in the understanding and application of wave-propagation in the urban environment.  The workshop will conclude with roundtable discussions to foster concept development and future planning for research in the area of urban sensing.  Main topics will include:_x000D_
+_x000D_
+•	Propagation simulations in urban environments_x000D_
+•	Analytical and data-derived modeling_x000D_
+•	Urban environment measurement studies_x000D_
+•	Sensor technologies_x000D_
+•	Data analysis_x000D_
+•	Applications: Sensing, Communications, Geolocation, Navigation, ISR, MASINT_x000D_
+_x000D_
+Abstract Submission:_x000D_
+Potential participants can submit abstracts no longer than 1 page via email to upw@darpa.mil.  Abstracts must be received by 19 May 2008._x000D_
+_x000D_
+Attendance:_x000D_
+Attendance to the Urban Propagation Workshop will be limited to individuals who are presenting material, and their collaborators (up to three per presenter).  Attendance is limited to U.S. Citizens._x000D_
+_x000D_
+Registration:_x000D_
+https://www.enstg.com/Signup_x000D_
+The conference code is DAR29813_x000D_
+_x000D_
+_x000D_
+Schedule:_x000D_
+Deadline for abstracts:		19 May 2008_x000D_
+Notification of submitters:		9 Jun 2008_x000D_
+Deadline for registration:		28 Jun 2008_x000D_
+Deadline for final presentations:	11 Jul 2008_x000D_
+_x000D_
+Information:_x000D_
+If you have any questions or require additional information about the workshop program, please send an email to upw@darpa.mil.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 29, 2008 5:13 pm_x000D_
+DARPA-SN08-33 NATIONAL CYBER RANGE PROPOSERS’ DAY WORKSHOP_x000D_
+_x000D_
+DARPA will host a Proposers’ Day Workshop in support of the DARPA-BAA-08-43, the National Cyber Range (NCR) program on May 13-14, 2008 from 7:00 AM to 4:00 PM, local Arlington, VA time at the Hilton Washington Dulles.  Additionally, the classified materials to DARPA-BAA-08-43 will be available to review at the Schafer Corporation Arlington Building on May 12, 2008.  The purpose of this conference is to provide information on the National Cyber Range program; promote additional discussion on this topic; address questions from potential proposers; and provide a forum for potential proposers to present their capabilities for teaming opportunities._x000D_
+_x000D_
+Attendance is not required to propose to any associated BAA.  The Performers’ Day materials (unclassified and classified) will be made available to qualified proposers who are not able to attend the Proposers’ Day (see DARPA-BAA-08-43)._x000D_
+_x000D_
+PROGRAM OBJECTIVE AND DESCRIPTION:  The National Cyber Range (NCR) will enable a revolution in the Nation’s ability to conduct cyber operations by providing a persistent cyber range that will:_x000D_
+•	Conduct unbiased, quantitative and qualitative assessment of information assurance and survivability tools in a representative network environment._x000D_
+•	Replicate complex, large-scale, heterogeneous networks and users in current and future Department of Defense (DoD) weapon systems and operations._x000D_
+•	Enable multiple, independent, simultaneous experiments on the same infrastructure._x000D_
+•	Enable realistic testing of Internet/Global-Information-Grid (GIG) scale research._x000D_
+•	Develop and deploy revolutionary cyber testing capabilities._x000D_
+•	Enable the use of the scientific method for rigorous cyber testing._x000D_
+_x000D_
+DARPA-BAA-08-43 is pending release.  When released, the BAA will be found on the FedBizOpps website, http://www.fedbizopps.gov/._x000D_
+_x000D_
+REGISTRATION INFORMATION:  Information concerning registering for this conference, hotel and reviewing the Classified Addendum can be found at: 	https://www.enstg.com/signup/passthru.cfm?ConferenceCode=NAT22571_x000D_
+_x000D_
+Participants must register NLT May 6, 2008.  There is no registration fee for attending this conference.  Due to space limitations of the conference facility, attendance will be limited to the first 500 registrants, and no more than 4 representatives per organization.  The Proposers’ Day will be unclassified and open to the general public.  All attendees will be required to present government issued photo identification upon entry to the event.  Additionally, all US Citizens are required to submit a US Citizenship Verification form in order to attend this conference.  Non-US citizens are required to submit a DARPA Form 60 “Foreign National Visit Request”.  The completed Citizenship Form or DARPA Form 60 must be faxed to DARPA-BAA-08-43, (703)-807-1762, no later than May 6, 2008.  Both documents are available for download at the registration website._x000D_
+_x000D_
+Please refer to the registration website referenced above for instructions for passing clearances in order to review the classified materials to DARPA-BAA-08-43._x000D_
+_x000D_
+Additionally, attendees who would like to pursue teaming opportunities during day-two of the workshop may request to do so during registration.  Teaming introductions will contain no slides and are limited to five (5) minutes each.  Proposers desiring to reserve a time to present during the Teaming Portion of the Proposers’ Day Conference will indicate their intent during the registration process.   It is the presenter’s responsibility to ensure that all material they plan to discuss at the Proposers’ Day Conference has been approved by the funding organization in advance._x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+May 06, 2008 12:29 pm_x000D_
+Registration for attendance to the National Cyber Range Proposers' Day in support of the DARPA-BAA-08-43, the National Cyber Range (NCR) program, has been extended to 4:00 PM Eastern, May 8, 2008.  This extension applies to registration for reviewing classified information on May 12, and the unclassified Proposers' Day May 13-14.  More information on reviewing the classified information and the Proposers' Day is available at https://www.fbo.gov/spg/ODA/DARPA/CMO/DARPASN0833/listing.html._x000D_
+_x000D_
+Attendance is not required to propose to any associated BAA. The Proposers' Day materials (unclassified and classified) will be made available to qualified proposers who are not able to attend the Proposers’ Day (see DARPA-BAA-08-43 https://www.fbo.gov/spg/ODA/DARPA/CMO/DARPA-BAA08-43/listing.html).</t>
+  </si>
+  <si>
+    <t>Added: May 16, 2008 11:33 am_x000D_
+		 _x000D_
+VULCAN is a propulsion system demonstration program to_x000D_
+design, build and ground test an engine capable of accelerating a full scale hypersonic_x000D_
+vehicle from rest to Mach 4+.  The VULCAN_x000D_
+engine will consist of an integrated Constant Volume Combustion (CVC) engine_x000D_
+and a full scale turbine engine.   CVC_x000D_
+engine architectures could include Pulsed Detonation Engines (PDE’s),_x000D_
+Continuous Detonation Engines (CDE’s) or other unsteady CVC engine architectures._x000D_
+ The CVC engine would operate from below_x000D_
+the upper Mach limit of the turbine engine to Mach 4+.  The turbine engine will be a current production_x000D_
+engine capable of operating above Mach 2 and may be based on any of the_x000D_
+following engines, the F100-229, F110-129, F119 or F414 engines.  A key objective of the program is to_x000D_
+integrate the turbine engine into the VULCAN engine with minimal modification to_x000D_
+the turbine engine, to operate the turbine engine from rest to its upper Mach_x000D_
+limit and to cocoon the turbine engine when it is not in use.  It desired that both the turbine and the CVC_x000D_
+engines share a common inlet and nozzle. It is envisioned that developing the_x000D_
+VULCAN engine will enable full scale hypersonic cruise vehicles for_x000D_
+intelligence, surveillance, reconnaissance, strike or other critical national_x000D_
+missions._x000D_
+ _x000D_
+The initial dissemination of information on this initiative_x000D_
+will be the VULCAN Program Industry Dayon June 10, 2008.  The goals of this meeting are threefold: 1) to familiarize participants with_x000D_
+DARPA’s interest in combining turbine engines with constant volume combustion_x000D_
+engine cycles, 2) to identify potential Offerors and promote understanding of_x000D_
+the BAA proposal requirements, and 3) to promote discussion of synergistic_x000D_
+capabilities among potential program participants.  It is our desire to facilitate the formation_x000D_
+of strong teams and business relationships in order to develop comprehensive,_x000D_
+quality responses to any potential DARPA solicitation._x000D_
+ _x000D_
+The Industry Day will be held at 3811 N. Fairfax Drive, Ste_x000D_
+400, Arlington VA 22203.  This announcement_x000D_
+serves as a pre-solicitation notice and is issued solely for information and_x000D_
+program planning purposes.  The Industry_x000D_
+Day does not constitute a formal solicitation for proposals or proposal_x000D_
+abstracts.  In accordance with FAR_x000D_
+15.201(e), responses to this notice are not offers and cannot be accepted by_x000D_
+the Government to form a binding contract.  Attendance at the Industry Day is voluntary and is not required to_x000D_
+propose to subsequent Broad Agency Announcements (if any) or research_x000D_
+solicitations (if any) on this topic.  DARPA will not provide reimbursement for costs incurred to participate_x000D_
+in this Industry Day.  _x000D_
+ _x000D_
+Pre-registration is required NO_x000D_
+LATER THAN 3:00 PM EST on June 3, 2008.  The Industry Day will be UNCLASSIFIED with information that is ITAR_x000D_
+restricted and therefore attendance is limited to individuals who are U.S._x000D_
+Citizens or U.S. Permanent Residents (Green card holders).  Attendance is limited to three representatives_x000D_
+per organization.  Check-in for the Industry_x000D_
+Day begins at 8:00 AM, followed by presentations beginning at 8:30 AM.  These presentations will include an overview_x000D_
+of the DARPA VULCAN Program vision, goals and objectives, technical information_x000D_
+on state-of-the-art of the foundational technologies; and planned acquisition_x000D_
+strategy, program schedule and contracting details.  Following the presentations, the room will be_x000D_
+available for a networking session to promote communications among potential_x000D_
+program participants.  _x000D_
+ _x000D_
+REGISTRATION INFORMATION: If interested in attending the Industry_x000D_
+Day, please send an e-mail, with the Subject line “VULCAN Industry Day Request_x000D_
+for Information”, to Matt Bringman at .  In reply to your email, you will receive_x000D_
+information detailing the registration process and logistics of the Industry_x000D_
+Day.   _x000D_
+ _x000D_
+INVITEE INFORMATION:  Registration is restricted to U.S. citizens_x000D_
+and U.S. Permanent Residents only.  Proof of U.S. Citizenship or U.S. Permanent Resident Status must be provided_x000D_
+at least five (5) business days prior to this meeting.  Additionally, Permanent Residents must complete_x000D_
+DARPA Form 60, "U.S. Permanent Resident and Foreign National Visit_x000D_
+Request" (found here, )_x000D_
+and this completed form must be provided to the Administrative Point of Contact_x000D_
+below.  U.S. citizens should have their_x000D_
+Facility Security Officer or Personnel Officer send a letter to verify their_x000D_
+citizenship status.  U.S. permanent_x000D_
+residents should send a copy of their Alien Registration Card (green card)_x000D_
+along with a completed Form 60.  In_x000D_
+addition, U.S. Permanent Residents must bring their green cards to the Industry_x000D_
+Day for verification.  There will be no exceptions!                                              _x000D_
+ _x000D_
+Administrative Point_x000D_
+of Contact:   Mr. Matt Bringman, _x000D_
+email:  bringmanm@centratechnology.com, 703-276-7702 x_x000D_
+112_x000D_
+                                                            _x000D_
+Technical Point of_x000D_
+Contact:   Dr. Thomas Bussing, _x000D_
+email:  _x000D_
+ _x000D_
+Contracting Point of Contact: Mr. Chris Glista, DARPA_x000D_
+Contracting Officer,_x000D_
+email: Christopher.glista@darpa.mil</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 21, 2008 4:00 pm_x000D_
+_x000D_
+The purpose of this amendment is to revise the proposal_x000D_
+instructions provided at Section III “Detailed Proposal Information” of the_x000D_
+Broad Agency Announcement (BAA)._x000D_
+_x000D_
+Accordingly, the following applies:_x000D_
+_x000D_
+1) Section III “Detailed Proposal Information” is hereby deleted in its_x000D_
+entirety and replaced with the language provided below (language as found in_x000D_
+attached conformed BAA dated 28 July 2008 shall take precedence in the case of_x000D_
+a conflict) and 2) the due date for receipt of proposals is extended to 12:00 PM_x000D_
+local time (noon) on August 13, 2008._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+Section III. Detailed Proposal Information_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+·_x000D_
+A general description of the objective (for each_x000D_
+defined task/activity);_x000D_
+_x000D_
+·_x000D_
+A detailed description of the approach to be_x000D_
+taken to accomplish each defined task/activity);_x000D_
+_x000D_
+·_x000D_
+Identification of the primary organization_x000D_
+responsible for task execution (prime, sub, team member, by name, etc.);_x000D_
+_x000D_
+·_x000D_
+The exit criteria for each task/activity - a_x000D_
+product, event or milestone that defines its completion._x000D_
+_x000D_
+·_x000D_
+Define all deliverables (reporting, data,_x000D_
+reports, software, etc.) to be provided to the Government in support of the_x000D_
+proposed research tasks/activities._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+Original Solicitation Notice Below._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+DARPA is soliciting innovative research proposals in the area of integrated micro primary atomic clock technology.  DARPA seeks innovative proposals in developing Integrated Micro Primary Atomic Clock Technology (IMPACT) to ultimately realize a primary atomic clock with drastically reduced size, weight, and power (SWAP) over state-of-the-art primary clocks. Proposed research should investigate innovative approaches that enable revolutionary advances in science, devices, or systems.  Specifically excluded is research that primarily results in evolutionary improvements to the existing state of practice.  Note:  Proposal Abstract Due Date is 5 June 2008.  Proposal Due Date is 6 August 2008.  See attached Broad Agency Announcement DARPA-BAA-08-32)</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 31, 2008 4:48 pm_x000D_
+Request for Information (RFI) SN08-45: STATION KEEPING BUOY ENERGY HARVESTING/HARNESSING_x000D_
+The Defense Advanced Research Projects Agency's (DARPA) Strategic Technology Office (STO) Persistent Ocean Surveillance – Station Keeping program (POS-SK) is developing advanced concepts for a new tactical ocean surveillance buoy capable of extracting energy from the local environment for station keeping and long-term persistence._x000D_
+_x000D_
+Based on program at-sea testing, two primary challenges for small station keeping buoys (SKBs) that require novel technologies and concepts are:_x000D_
+•	Maintaining a positive energy balance and operating for long periods of time on the open ocean.  Technologies that improve the SKB energy balance problem can be categorized as:  (1) technologies that more effectively enable the SKB to harvest / harness the available energy; (2) technologies that allow the SKB to operate more efficiently (use less energy); and (3) technologies that allow the SKB to store more energy._x000D_
+•	Surviving high wind and high sea state conditions. Technologies that could improve the SKB operational survivability can be categorized as:  (1) technologies for short-term weather event survivability that could improve the chance of the SKB surviving extreme weather events that might otherwise damage or capsize the SKB; and (2) technologies for long term operational reliability._x000D_
+_x000D_
+DARPA desires to investigate component technologies that enable a positive energy balance over an extended period and can survive variable and extreme maritime environments; or system concepts with alternative energy harvesting technologies that maintain a positive energy balance, are robust enough to sustain  when ocean conditions are not favorable for an energy harvesting modality (limited solar radiation, no wind, or no waves), and can survive extreme environments.  SKB system attributes include:_x000D_
+•	SKB endurance: minimum 4 weeks_x000D_
+•	Station keeping watch circle: smallest possible while maintaining positive energy balance_x000D_
+•	Operate up to Beaufort scale 6 (22 – 27 kts wind; 10 ft waves)_x000D_
+•	Survive up to Beaufort scale 10 (48 – 55 kts wind; 30 ft waves)_x000D_
+•	Size when stored:  Not greater than 1-foot diameter and 8.5 feet long)_x000D_
+•	Ocean sensing at depths of 100-400 feet_x000D_
+_x000D_
+DARPA is interested in assessing new ideas and concepts in the above areas to support persistence ocean surveillance with station-keeping buoys in anticipation of future investments.  Technologies should represent a fundamental change vice incremental improvements over the status quo, based on an appropriate figure of merit.  Organizations are invited to submit a white paper (including 1 page with Executive Summary and Key Idea, 1-slide briefing chart with concept graphic, and 3-4 pages with supporting technical discussion) to the contracting office as early as possible, but not later than 21 August 2008.  Rough order of magnitude (ROM) cost and development schedule estimates are also suggested._x000D_
+_x000D_
+The government shall use the information provided by the white papers to determine the ultimate scope of the program.  White papers will not be returned and no feedback will be provided.  White papers should be marked with appropriate proprietary markings and will be maintained for review and then destroyed.   The information contained herein is for planning purposes and does not constitute an invitation for bids or a request for proposal.  The Government does not intend to award a contract based on this notification or otherwise pay for the information provided._x000D_
+_x000D_
+The government is contemplating holding a workshop to present the progress to date on the current program and provide an opportunity for participants to present technologies that may potentially contribute to addressing the challenges expressed in this RFI.  Please indicate in your response if you might be interested in participating in a workshop._x000D_
+_x000D_
+INSTRUCTIONS TO RESPONDENTS_x000D_
+_x000D_
+DARPA appreciates responses from all capable and qualified sources.  DARPA will employ an electronic upload submission system for responses to this RFI.  To respond to this RFI, interested parties must complete an online RFI Cover Sheet for each response, which will include the submitter’s name, organization and contact information, as well as the title of their paper.   Cover Sheet submissions are made by accessing the URL below:_x000D_
+https://www.tfims.darpa.mil/baa_x000D_
+After finalizing the Cover Sheet, a Confirmation screen will appear, along with instructions for uploading your position paper.  Submissions must be in Microsoft Word or Adobe PDF and encrypted using Winzip or PKZip with 256-bit AES encryption.  An encryption password must be emailed to SN08-45@darpa.mil at the time of submission.  See https://www.tfims.darpa.mil/baa/proposer_instructions.pdf for additional encryption information.  Note:  the word, “PASSWORD”, must appear in the subject line of the above email and there are minimum security requirements for establishing the encryption password.  Failure to provide the encryption password will result in the submission not being read.  Since respondents may encounter heavy traffic on the web server, they SHOULD NOT wait until the day the submissions are due to fill out a coversheet and upload their position paper._x000D_
+_x000D_
+Position papers are limited to six (6) pages in length (not including the cover page).   Format specifications include 12-point font, single spaced, single-sided, 8.5” by 11”paper, with 1-inch margins. Each response should address the questions posed above (on page 1) and should be as succinct as possible while at the same time providing actionable insight.  Graphics and citations are highly encouraged._x000D_
+_x000D_
+Failure to comply with these submission procedures may result in the position paper not being reviewed._x000D_
+_x000D_
+DISCLAIMERS AND IMPORTANT NOTES_x000D_
+_x000D_
+This is an RFI issued solely for information and program planning purposes; this RFI does not constitute a formal solicitation for proposals or proposal abstracts.  In accordance with FAR 15.201(e), responses to this notice are not offers and cannot be accepted by the Government to form a binding contract.  Submission of a position paper, and/or attendance at any subsequent Workshop, is strictly voluntary and is not required to propose to subsequent Broad Agency Announcements (if any) or research solicitations (if any) on this topic.  DARPA will not provide reimbursement for costs incurred in responding to this RFI or participating in any subsequent Workshop.  NO CLASSIFIED INFORMATION SHOULD BE INCLUDED IN THE RFI RESPONSE.  Respondents are advised that DARPA is under no obligation to acknowledge receipt of the information received or provide feedback to respondents with respect to any information submitted under this RFI.  Responses to this RFI do not bind DARPA to any further actions, to include hosting a Workshop or requesting follow-on proposals from vendors responding to this RFI._x000D_
+_x000D_
+Submissions may be reviewed by: the Government (DARPA and partners) and Systems Engineering and Technical Assistance (SETA) contractors (such as Solers, Inc.)._x000D_
+_x000D_
+Technical POC: Ms. Khine Latt_x000D_
+Addressed to:  DARPA/STO, Attn:  SN 08-45_x000D_
+Electronic Mail:  SN08-45@darpa.mil_x000D_
+Website:  http://www.darpa.mil/sto/solicitations/index.html_x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+Aug 20, 2008 6:07 pm_x000D_
+AM0001 to the Station Keeping Buoy Energy Harvesting/Harnessing RFI SN08-45_x000D_
+_x000D_
+The purpose of this amendment is to extend the deadline for white papers from 21 August 2008 to 4 September 2008 and to provide the attached clarifications.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Sep 04, 2008 8:04 am_x000D_
+The Defense Advanced Research Projects Agency, Tactical Technology Office (TTO), intends to award a Sole Source contract to The Boeing Company, Philadelphia, PA for continuation (Phase 1) of DiscRotor Program. The DiscRotor concept is an aircraft with a relatively small hub-mounted disc that can extend rotor blades to affect vertical flight. The Boeing Company conducted a “Phase 0” (DARPA Seedling/Concept Study) DiscRotor research effort under Contract No. HR0011-07-C-0076. The Boeing Company’s Phase 0 effort was competitively selected in response to DARPA BAA 06-15 “Tactical Technology Office” (Office-wide).  Under this Phase 0 contract, The Boeing Company, teamed with Virginia Polytechnical Institute, conducted DiscRotor trade studies, design refinement, mechanical systems conceptual layout, wind tunnel testing, hover rig testing, computational fluid dynamics (CFD) analysis and risk reduction planning, providing an initial assessment of performance and flying qualities. The proposed DiscRotor Phase I Program effort is a logical follow-on to the prior effort conducted by The Boeing Company and the Virginia Polytechnical Institute and will also lean on lessons learned from The Boeing Company’s earlier Canard Rotor Wing (CRW) program. Phase I will conduct enabling technology demonstrations – including wind tunnel testing of a small scale (manually) extendable rotor system and, subsequently, a large scale (automatically) extendable rotor system – in order to establish critical feasibility of the DiscRotor concept. Additionally, the Boeing Company team will conduct DiscRotor configuration and performance refinement, consider mission survivability issues, and develop options for a flying DiscRotor demonstrator. The proposed contract action is for supplies or services for which the Government intends to solicit and negotiate with only one source under authority of FAR 6.302-1 “Only one responsible source and no other supplies or services will satisfy agency requirements.”  As the developer of the DiscRotor concept, The Boeing Company team possesses unique knowledge, capabilities and proprietary intellectual property/data required to carry out the required research effort.  This notice of intent is not a request for competitive proposals and no solicitation is currently available.  However, interested parties may identify their interest and capability to respond to the requirement.  Responses/proposals received within forty-five (45) days after date of publication of this notice will be considered by the Government.  Information received will be considered solely for the purpose of determining whether to conduct a competitive procurement.  A determination by the Government not to compete this proposed effort on a full and open basis is solely within the discretion of the Government.  Interested parties may identify their interest and capability to meet the requirements by submitting a white paper and past performance data by no later than 20 October 2008 to The Defense Advanced Research Projects Agency, Attn: Mr. Michael Blackstone, Contracts Management Office (CMO), 3701 North Fairfax Drive, Arlington, VA 22203-1714 or via email to michael.blackstone@darpa.mil. Questions shall be submitted to the above email address.  Please refer to Numbered Note 22._x000D_
+It is noted that DARPA’s Tactical Technology Office (TTO) maintains an annual Office-wide Broad Agency Announcement (BAA) seeking system and subsystem level technologies that enable revolutionary improvements to the efficiency and effectiveness of the military.  The “Land, Air, Sea and Space Platforms” mission thrust area under this BAA specifically seeks proposals for innovative technologies and design approaches for vertical flight aircraft rotors and rotor systems such as The Boeing Company’s DiscRotor concept/program.  Parties wishing to respond to this notice are invited, as an alternative, to submit a white paper against DARPA BAA 08-31.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 06, 2011 5:03 pm_x000D_
+_x000D_
+Component, Context, and Manufacturing Model Library (C2M2L-1) - For a detailed description of this opportunity please see the attached file "DARPA-BAA-11-47.pdf"._x000D_
+_x000D_
+Added:_x000D_
+Jun 22, 2011 3:17 pm_x000D_
+The purpose of this amendment is to clarify that this announcement represents the FINAL solicitation for the C2M2L-1 effort._x000D_
+Added:_x000D_
+Jul 08, 2011 4:51 pm_x000D_
+This amendment provides a list of questions and answers (Q&amp;As) related to the solicitation.  Please see the attachment. _x000D_
+Added:_x000D_
+Jul 22, 2011 12:48 pm_x000D_
+The purpose of this amendment is to incorporate C2M2L-1 Questions and Answers (Round 2; dated July 22, 2011) to DARPA-BAA-11-47.  Please see the attached file "C2M2L-1 Q&amp;A - Round 2.pdf"._x000D_
+Added:_x000D_
+Jul 29, 2011 4:28 pm_x000D_
+_x000D_
+The purpose of this amendment is to provide C2M2L-1 Questions and Answers (Round 3; dated July 28, 2011) for DARPA-BAA-11-47. Please see the attached file "2011-07-28 C2M2L-1 QA3.pdf".</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 22, 2011 12:14 pm_x000D_
+DARPA is soliciting innovative research proposals in the area of Multifunction RF (MFRF) systems for helicopter operations that will enhance the survivability of aircraft in degraded visual environments (DVE) while enhancing platform lethality and minimizing size, weight, and power (SWAP).  Proposed research should investigate innovative approaches that enable revolutionary advances in science, devices, or systems.  Specifically excluded is research that primarily results in evolutionary improvements to the existing state of practice._x000D_
+Added:_x000D_
+May 11, 2011 2:09 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Nov 15, 2011 2:45 pm_x000D_
+DARPA will host a virtual Proposers' Day to provide information on progress within the System F6 program to date and to introduce the System F6 Tech Package Broad Agency Announcement (BAA) which will be released in draft form for public comment prior to the Proposers' Day. The virtual Proposers' Day will be held on Tuesday, November 22, 2011 starting at 11:00 am Eastern Time. This will be a webcast with an interactive chat capability for near-real time questions and answers. The registration deadline is Sunday, November 20, 2011, 11:59 pm Eastern Time. Refer to the attached file, "DARPA-SN-12-15.pdf," for complete details of the subject Special Notice.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Dec 01, 2011 4:29 pm_x000D_
+The Defense Advanced Research Projects Agency (DARPA) will conduct an Industry Day for the potential proposer community for a planned Broad Agency Announcement (BAA) for Phases 2 through 4 of the Anti-Submarine Warfare (ASW) Continuous Trail Unmanned Vessel (ACTUV) program. The Industry Day will be classified and will be held at the Johns Hopkins University Applied Physics Laboratory – Kossiakoff Center at 11100 Johns Hopkins Road, Laurel, MD 20723 from 8:00am – 5:30pm on Tuesday, 20 December 2011.  The purpose of this briefing is to provide information on the ACTUV program, address questions from potential proposers, and to provide a forum for potential proposers to present their capabilities and explore teaming opportunities with one another._x000D_
+_x000D_
+Please see the attachment for additional details and registration instructions.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Mar 01, 2013 3:09 pm_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Tactical Technology Office (TTO) is sponsoring a Proposers' Day to provide information to potential proposers on the objectives of the TERN program, in advance of a planned Broad Agency Announcement (BAA). The Proposers' Day will be held on Wednesday, March 20, 2013 at the DARPA Conference Center, 675 North Randolph Street, Arlington, VA from 9:00 AM to 4:00 PM. Advance registration is mandatory. See the attached announcement for additional details and registration instructions.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Dec 19, 2012 1:28 pm_x000D_
+_x000D_
+DARPA is soliciting innovative research proposals for the design, development and demonstration of a Video Synthetic Aperture Radar (ViSAR) system that enables US aircraft to engage maneuvering ground targets through clouds dust and other obscurants. Proposed research should investigate innovative approaches that enable revolutionary advances in science, devices, or systems. Specifically excluded is research that primarily results in evolutionary improvements to the existing state of practice._x000D_
+_x000D_
+Added:_x000D_
+Dec 19, 2012 1:44 pm_x000D_
+_x000D_
+DARPA-BAA-13-06 ViSAR System Design &amp; Development follows DARPA-SN-13-06 Video Synthetic Aperture Radar (ViSAR) Proposers Day Announcement, which can be seen at the following link:_x000D_
+https://www.fbo.gov/spg/ODA/DARPA/CMO/DARPA-SN-13-06/listing.html</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 22, 2013 9:20 am_x000D_
+The Hydra program will develop and demonstrate an unmanned undersea system, providing a novel delivery mechanism for insertion of unmanned air and underwater vehicles into operational environments. Situated underwater, Hydra will use modular payloads within a standardized enclosure to enable scalable, cost-effective deployment of rapid response assets and will integrate existing and emerging technologies in new ways to create an alternate means of delivering a variety of payloads close to the point of use. The Hydra program seeks to develop and demonstrate initial examples of air and undersea payloads while leaving open the potential for accommodating additional payloads in the future._x000D_
+_x000D_
+The rising number of ungoverned states, piracy, and proliferation of sophisticated defenses severely stretches current resources and impacts the nation's ability to conduct special operations and contingency missions. The Hydra program represents a cost effective way to add undersea capacity that can be tailored to support each mission. Hydra's communications suite could allow synergistic function with manned platforms, thus increasing their effectiveness, or could allow remote control from over-the-horizon. Technologies are intended to be adaptable to multiple delivery options, including airborne, surface, and subsurface. The Hydra program will enable other new capabilities not currently performed from undersea._x000D_
+_x000D_
+See the attached BAA for complete program details and proposal submission instructions._x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+Sep 10, 2013 10:32 am_x000D_
+This amendment incorporates Hydra DD Form 254 (Revised September 9, 2013), which supersedes the previous version attached on August 22, 2013._x000D_
+Added:_x000D_
+Sep 23, 2013 11:56 am_x000D_
+The revised BAA (Rev 1) makes the following changes:_x000D_
+_x000D_
+1.  This amendment changes the description of the Phase 1 program plan for Technical Area 1 by deleting the words "provide energy to a payload" in the Technical Area 1 description on page 7.  For purposes of Phase 1 proposals, the payloads described in Technical Areas 2 and 3 will provide their own power._x000D_
+_x000D_
+2.  This amendment clarifies the level of detail required for labor hours as part of the basis of estimate requested in Volume 1 of the Proposal, described in Section III,D.iv. on page 23 of the BAA.  Although Volume 1 should provide a basis of estimate for labor expressed in both labor hours and dollars, a composite hourly rate can be used, and this section does not need to break labor rates into components of direct, overhead, G&amp;A, and fee; those details should be provided in Volume 2._x000D_
+_x000D_
+Rev 1, provided as an attachment to this amendment,  replaces the previous version of the BAA in its entirety._x000D_
+_x000D_
+Added:_x000D_
+Sep 27, 2013 4:46 pm_x000D_
+See attached for a copy of the Hydra FAQ.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Dec 22, 2011 1:16 pm_x000D_
+_x000D_
+Added:_x000D_
+Jan 20, 2012 3:35 pm_x000D_
+_x000D_
+Under BAA12-02 Amendment 1, the following changes are made:_x000D_
+1) Page 13: Reference to "Appendix 3" corrected to read "Appendix 1"_x000D_
+2) Page 40: Addition of conditional statement "and where cost share is required" to paragraph on OTA proposals to specify applicability of said proposals._x000D_
+3) Page 60: Position Accuracy measurement of "+/- 0.02m" corrected to read "+/- 0.002m"_x000D_
+_x000D_
+Added:_x000D_
+Oct 08, 2013 12:12 pm_x000D_
+Phoenix Technologies Phase 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Feb 25, 2013 12:12 pm_x000D_
+The DARPA Tactical Technology Office is soliciting proposals on the design, development and demonstration of a vertical takeoff and landing (VTOL) experimental aircraft (X-Plane) with exceptional performance in vertical and cruise flight, and operational capability through transition from vertical to forward flight. The purpose of the program is to champion the design and development of sub-system technologies and integrated air vehicle configurations that will enable radical improvements in VTOL flight. The program will demonstrate an aircraft capable of sustained flight at high speeds, improved hover and cruise efficiencies that are significantly greater than contemporary rotary-wing aircraft, and increased useful load fractions and aircraft functionality._x000D_
+_x000D_
+See the attached file "DARPA-BAA-13-19" for the full text of the solicitation.  The attached Broad Agency Announcement (BAA) is not a draft and represents the FINAL solicitation for the VTOL X-Plane effort._x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+Feb 26, 2013 12:52 pm_x000D_
+This amendment provides a revised version of DARPA-BAA-13-19 (Revision 1) in order to correct formatting errors on p. 11 and p. 17 of the previous version. No other changes were made to the original announcement. Revision 1 supersedes the original version in its entirety._x000D_
+Added:_x000D_
+Mar 15, 2013 2:55 pm_x000D_
+This amendment: 1) extends the BAA initial proposal submission deadline to 4:00 PM Eastern Daylight Time on June 4, 2013; 2) extends the due date for the submission of questions to March 31, 2013; 3) clarifies the level of cost detail required for Phases II and III and the purpose for which this data will be utilized (see page 19), and 4) provides Q&amp;A Round 4._x000D_
+Added:_x000D_
+Apr 05, 2013 1:44 pm_x000D_
+This amendment provides a revised version of DARPA-BAA-13-19 (Revision 3).  Specifically, Section 5.1 (Detailed Cost Breakdown) has been revised.  No other changes have been made.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 10, 2012 8:59 am_x000D_
+The primary goal of the DARPA Robotics Challenge program is to develop ground robotic capabilities to execute complex tasks in dangerous, degraded, human-engineered environments. The program will focus on robots that can utilize available human tools, ranging from hand tools to vehicles. The program aims to advance the key robotic technologies of supervised autonomy, mounted mobility, dismounted mobility, dexterity, strength, and platform endurance. Supervised autonomy will be developed to allow robot control by non-expert operators, to lower operator workload, and to allow effective operation despite low fidelity (low bandwidth, high latency, intermittent) communications._x000D_
+_x000D_
+See the attached file "DARPA-BAA-12-39 Robotics Challenge" for the full text of the solicitation. The attached Broad Agency Announcement (BAA) is not a draft and represents the FINAL solicitation for the DARPA Robotics Challenge program._x000D_
+_x000D_
+Added:_x000D_
+Apr 30, 2012 4:37 pm_x000D_
+This amendment deletes thre following language that appeared on page 14 and page 15 of the original BAA:_x000D_
+_x000D_
+DARPA desires Unlimited Rights, as defined in DFARS 252.227-7013 and -7014,12 to all deliverables generated by the DARPA Robotics Challenge performer under this effort except clearly-identified, widely-available, commercial software tools, with their commercial availability described and substantiated in the proposal._x000D_
+_x000D_
+This amendment also adds a final report deliverable - see highlighted text on page 28 and page 39._x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+Apr 30, 2012 4:55 pm_x000D_
+This update makes available the initial round of BAA questions &amp; answers. It also provides notification that all Proposers' Day materials may be accessed at the following URL:_x000D_
+_x000D_
+http://www.darpa.mil/Our_Work/TTO/Programs/DARPA_Robotics_Challenge.aspx_x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+May 09, 2012 5:37 pm_x000D_
+_x000D_
+The BAA is amended to change the total page count for Section 2.7 - Schedule and Milestones (see BAA p. 28) from 6 to 8 pages._x000D_
+_x000D_
+Additionally, the second round of BAA questions &amp; answers is provided._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+May 17, 2012 10:26 am_x000D_
+This update makes available the third round of BAA questions &amp;amp; answers.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Mar 25, 2014 9:11 am_x000D_
+DARPA-BAA-14-24 Tactical Boost Glide</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Nov 06, 2014 1:14 pm_x000D_
+This announcement seeks revolutionary research ideas for topics not being addressed by ongoing BTO programs or other published solicitations. See the full DARPA-BAA-15-05 document attached hereto._x000D_
+Added:_x000D_
+Nov 25, 2014 12:54 pm_x000D_
+The purpose of this amendment (Amendment No. 01) is to: 1) revise the instructions at paragraph 6.2.4 pertaining to registration in the System for Award Management (SAM), 2) revise the instructions at paragraph 6.2 to provide additional clarification regarding when each of the administrative and national policy requirements stipulated therein applies to each of the available award instrument types, and 3) other associated administrative changes. All changes made to the BAA document have been highlighted therein (see attached Amendment No. 01 BAA document)._x000D_
+See the conformed DARPA-BAA-15-05 attached.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Dec 18, 2014 3:34 pm_x000D_
+DARPA is soliciting innovative research proposals in the area of tactical Radio Frequency (RF) situational awareness employing a heterogeneous sensor network whose constituent devices include RF receiver/transmitters deployed for other purposes, to support small unit operations, spectrum management and other Electromagnetic Spectrum Operations (EMSO)._x000D_
+Added:_x000D_
+Jan 16, 2015 3:47 pm_x000D_
+Amendment 1 makes the following changes to the BAA:_x000D_
+• Defines the preferred strategy for proposing linked Task 1 and Task 2 work,_x000D_
+• Defines "unavailability" as used in the program metrics for Radio Frequency Mapping,_x000D_
+• Provides a time period over which data rates are averaged when computing Wireless and Large Scale Distributed Operations (WALDO) infrastructure metrics,_x000D_
+• Clarifies the meaning of "amount of data transferred" when computing WALDO metrics,_x000D_
+• Clarifies the meaning of "software" that will be provided as Government-Furnished Information,_x000D_
+• Describes support that will be provided by DARPA to the Task 1 performer to facilitate demonstrations and exercises with the Marine Corps, and_x000D_
+• Increases the maximum length of Task 1 proposals._x000D_
+_x000D_
+Please refer to the attached amendment document for further details. Amendment 1 also provides DARPA's response to questions submitted. See the attached Q&amp;A document for further details.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jan 23, 2015 3:10 pm_x000D_
+DARPA seeks to transform the energy efficiency of unattended sensors through elimination or substantial reduction of the stand-by power consumed by the sensors while they await a signature of interest. The improved energy efficiency is expected to result in an increase in the sensor mission lifetime from months to years. The Near Zero Power RF and Sensor Operations (N-ZERO) program aims to create intelligent sensors that can process and detect RF and physical sensor signatures, consume less than 10 nW of power, and attain a low false alarm rate of 1 per hour or better in an urban environment._x000D_
+_x000D_
+See the full DARPA-BAA-15-14 document attached.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Dec 11, 2014 1:05 pm_x000D_
+_x000D_
+_x000D_
+The DARPA ElectRx program seeks innovative research proposals for creating closed-loop neuromodulation systems that utilize innate neurophysiological circuits to achieve therapeutic benefits. To achieve this goal, ElectRx will simultaneously drive biological understanding and technology development. Specifically, ElectRx is looking to develop and leverage fundamental understanding of the anatomy and physiology of neural circuits in the spinal cord or peripheral nerves that mediate health status._x000D_
+_x000D_
+This knowledge will be leveraged to design and demonstrate feedback-controlled neuromodulation systems for the direct regulation of immune system functions and CNS disorders. In parallel, technology development focused on next-generation minimally-invasive neural interfaces and biosensors will enable interaction with the neurophysiology of interest at unmatched spatiotemporal resolution, precision, and specificity. These neuromodulation treatments will be tuned automatically and continuously to the unique physiology of each individual and will produce no off-target effects.  Additional information set forth in attached BAA._x000D_
+_x000D_
+Added:_x000D_
+Jan 28, 2015 4:11 pm_x000D_
+MODIFICATION 1 - The purpose of Modification 1 to DARPA-BAA-15-06, the Electrical Prescriptions (ElectRx) Broad Agency Announcement, is to clarify the FAQ location._x000D_
+_x000D_
+DARPA will post a consolidated question and answer document (FAQ) to_x000D_
+. Submit your question/s by E-mail to_x000D_
+. In order to receive a response, send your question/s by 13 February 2015.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jan 08, 2015 10:59 am_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Contracts Management Office (CMO) intends to award a sole source contract to Mr. David M. Breen, Sole Proprietor, for a period of one (1) twelve-month base period, and four (4) twelve-month option periods.  This is a sole source synopsis for the acquisition of commercial items in accordance with Federal Acquisition Regulation (FAR) Subpart 13.5 "Test Program for Certain Commercial Items".  The applicable NAICS code is 541611, with a size standard of $15 million.  The dollar value for this contract action is estimated at approximately $611,638 including options.  This will be a Labor Hour type contract to provide services on a part-time basis in support of business systems for DARPA's CMO to include the following: Standard Procurement System, Procurement Desktop Defense 2, eTriever, and Broad Agency Announcement Maker.  Other Direct Costs (ODCs) will be accounted for with a time and materials (T&amp;M) type contract line item (CLIN).  The contractor will oversee the design, development, testing, documentation, implementation, support, and maintenance of DARPA's contract writing and administration software tools.  The contractor will support the planning and implementation of electronic interfaces with other DARPA and Department of Defense business systems.  The contractor will assist with the planning, testing, and implementation of new contract writing tool upgrades and versions._x000D_
+_x000D_
+This is a special notice for commercial items prepared in accordance with the format in FAR Part 12.  The proposed contract action is for services for which the Government intends to solicit and negotiate with only one source under the authority of FAR 6.302-1 "Only one responsible source and no other supplies or services will satisfy agency requirements".  Mr. Breen has over 26 years of systems implementation experience and has been supporting the implementation of CMO Business Systems since 2001.  Prior to supporting CMO, he was the project manager for the DARPA Comptroller implementation of the financial management system called Momentum, and the Momentum executive information system called Momentum Monitor.  Mr. Breen's knowledge of DARPA specific financial systems coupled with his institutional knowledge of CMO's business systems uniquely qualifies him to meet the Government's requirement for business systems support services._x000D_
+This notice of intent is not a request for competitive proposals and no solicitation for this specific requirement is currently available.  In accordance with FAR 5.207(c)(16)(ii), all responsible sources may submit a capability statement, which shall be considered by DARPA.  Capability statements may be submitted to Contracting Officer, Jimmy Hupalar, at jimmy.hupalar@darpa.mil, no later than 3:00 PM EST January 23, 2015.  A determination by the Government not to compete the requirement based upon responses to this notice is solely at the discretion of the Government.  Questions related to this proposed contract action should be directed to jimmy.hupalar@darpa.mil.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Feb 24, 2015 4:04 pm_x000D_
+DARPA is soliciting innovative research proposals in the area of novel Arctic sensor systems.  In particular, DARPA is interested in concepts for low-cost, rapidly-deployable, environmentally friendly, unmanned sensor systems, including deployment and data reach-back from above the Arctic Circle that can detect, track and identify air, surface and subsurface targets.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 05, 2015 1:14 pm_x000D_
+DARPA is soliciting innovative research proposals for a program to develop lightweight (less than 2 pounds) and low-average-power (less than 3watts) inter-satellite communications links. The links are intended to provide the highest data-rate between microsatellites, consistent with their small size and limited power consumption.  Proposed research should investigate innovative approaches that enable revolutionary advances in the capabilities available for inter-satellite communications.  Specifically excluded is research that primarily results in incremental improvement to the existing state of practice.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 09, 2015 2:24 pm_x000D_
+The Make-It program in the Defense Advanced Research Projects Agency DARPA Defense Sciences Office (DSO) is soliciting innovative research proposals in the area of research related to the development of an automated chemical synthesizer that can produce, purify, characterize and scale a wide range of small molecules.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+May 29, 2015 4:20 pm_x000D_
+The DARPA Microsystems Technology Office is soliciting research proposals in the development of novel technologies for high-performance miniature inertial sensors.  The PRIGM:AIMS program will address the challenge of precise navigation of guided munitions in the absence of external navigation aids, such as GPS.  This BAA is particularly interested in inertial sensors that enable precision navigation of gun-launched spin-stabilized munitions, as well as the navigation of highly dynamic, long-range munitions.  PRIGM:AIMS will investigate and demonstrate new sensing modalities for low-Cost, Size, Weight and Power (CSWaP) inertial sensors including, but not limited to: rate-integrating gyroscopes, integrated photonic waveguide optical gyroscopes, and optically-interrogated MEMS gyroscopes and accelerometers. See the full DARPA-BAA-15-38 document  attached._x000D_
+Added:_x000D_
+Jun 15, 2015 2:42 pm_x000D_
+Amendment 01: The purpose of this amendment is to revise/clarify the travel related funding restrictions, and to correct a Coriolis Vibratory Gyroscopes (CVG) Class typo.  All changes made to the BAA are highlighted in yellow. See the attached DARPA-BAA-15-38 document through Amendment 01.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 18, 2015 11:31 am_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency_x000D_
+DARPA) Strategic Technologies Office (STO) will host an Industry Meeting July 28_x000D_
+-29_x000D_
+at the DARPA Conference Center located at 675 N. Randolph St. Arlington, VA 22203. Meeting times and additional details are available at the registration website below._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+The purpose of this meeting is to present STO's progress and future strategy for program development and describe its areas of interest, including System of Systems for both Maritime and Air Domains, Battle Management, Command and Control (BMC2), Communications and Networks, Electronic Warfare, Intelligence, Surveillance, and Reconnaissance (ISR), and Positioning, Navigation, and Timing (PNT), and Undersea._x000D_
+_x000D_
+The areas of interest covered by these presentations form the basis of the current STO Office-wide BAA-14-48, and may form the basis for future solicitations issued on behalf of DARPA STO._x000D_
+_x000D_
+_x000D_
+_x000D_
+The event will be conducted at the SECRET collateral security level._x000D_
+_x000D_
+All participants will require a SECRET personnel security clearance._x000D_
+_x000D_
+See the registration website for participation eligibility requirements._x000D_
+_x000D_
+_x000D_
+_x000D_
+The information presented at the General Sessions on July 28_x000D_
+and 29_x000D_
+will be the same. Attendees are only permitted to attend one General Session. Participants in either session will have the opportunity for private sidebar meetings with STO Program Managers on July 29_x000D_
+and July 30_x000D_
+._x000D_
+_x000D_
+_x000D_
+_x000D_
+_x000D_
+Due to space limitations of the conference facility, attendance for each day will be limited to the first 150 registrants.  Further, of the 300 attendee spaces available (150 each day), no more than two representatives per organization (business unit), with a_x000D_
+maximum of five attendees from any one corporation, may attend. Attendees are encouraged to coordinate attendance internally within their organizations prior to registration. The registration site is as follows: www.sa-meetings.com/2015STOIndustryDay.  Registration opens Wednesday, June 24, 2015 at 11 AM EDT.  Registration will close when capacity is reached but not later than Wednesday, July 8, 2015 at 5 PM EDT.  Participants may also register for sidebar meetings with STO Program Managers through the registration site.  Attendees will receive notification regarding acceptance on or before Wednesday, July 15, 2015.  Directions to the facility and additional information regarding agenda and security requirements_x000D_
+are also available on the website.  There is no registration fee for attending this meeting._x000D_
+_x000D_
+The Industry Meeting does not constitute a formal solicitation for proposals or proposal abstracts._x000D_
+_x000D_
+Attendance is voluntary and is not required to propose to any potential subsequent Broad Agency Announcements or potential research solicitations._x000D_
+_x000D_
+DARPA will not provide reimbursement for any costs incurred to participate in this Industry Meeting.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 12, 2015 2:37 pm_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Defense Sciences Office (DSO) is sponsoring a two-day Proposers Day event to provide information to potential proposers on the objectives of an anticipated DSO Office-wide Broad Agency Announcement (BAA). The event will be held on Tuesday and Wednesday, July 21-22, 2015 from at the DARPA Conference Center (675 North Randolph Street, Arlington, VA 22203). The event will be webcast for those who would like to participate remotely. Advance registration is required for both the physical meeting and the webcast. Registration for the physical meeting and webcast participants will include an opportunity to schedule a sidebar meeting with a DSO Program Manager._x000D_
+_x000D_
+See attached DARPA-SN-15-41._x000D_
+_x000D_
+_x000D_
+_x000D_
+Added:_x000D_
+Jun 22, 2015 8:20 am_x000D_
+Special Notice (SN) DARPA-SN-15-41 is hereby amended to clarify the Proposers Day registration/sidebar request due dates and wait list option._x000D_
+_x000D_
+See attached Amendment 1 to DARPA-SN-15-41.</t>
+  </si>
+  <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=609d9473f9acde0ca577aae2774fb185&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
@@ -238,6 +1578,159 @@
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=7610634cc3cbcbb826407a0d208c2515&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=25bbb2c4f581be6a13ddc748be0c3f11&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5750d0ae702ac06dccc5566aae4ff5e1&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=670baf043d025fb6a8e62042e9af5fbf&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=3214cb24e85857d0c2972c3c637a1347&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=af2d4b77009cc0f207c81632058a4e23&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=9787bfe46edab65ace878327b1bdbfbd&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=c27738be04b570d8e983382f0e8e0760&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=03a4ea98cb49cb67bf648396d80047d5&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=0eb3e5efe90ac2a06b17f7c31959944a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5cf5ebae89ad5108a54d21a5a82a7172&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=770a710f9d1eb3f74609ecb6862328b5&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=6797db962e007d18615c3f2e96db42a8&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=047e7108a4aee7797fbc96e06b654d53&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=2fdc99ab17ad8b59dc0c6b0981bb4fbf&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=eb87f30f3ac6bf16807af693d149f830&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=8ffa46497e8ae7149ac8ba6789b00cbc&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=19a7c766b91a792b9cf7d2863f8396cd&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5e9fa6a7ba2754c1338fad2156b6f3b2&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e1092a41df1c6db714d1a80a11219ee6&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=7fa50ea731f2aa4529b223b7f5b38987&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=110b50769d31f9b0356cd2ba6e0d123a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=b13b33a9b82d4aff35f6b37181881fdc&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4b2f0920d8a62ffea78e7466d033f1eb&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4e17ff94388c1106c7793fddac4ca82a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=35d6599a83b4d16b755544e47174a4e0&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=6b611af479b6cc243c50f47559c79ebe&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=41cdf0d0f9853f4fa5715e16b5dc2b9a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=50b321c02533c88ee43f4dedadd59680&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=b3fae3450913b9b691190e27ba93dec9&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e9bd71694d0ca43332c8d98ca37f4d28&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4bb323a41acfd7998aa0c2e2b6f37101&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e4e25a6b0ac8a919fec0e9bc7f8cad0a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=84040676550f8a415a8b7c0550a57e8a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4af82338eb6efdf4cfafb3a21ec72004&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=62e5ae78614a71c11af81a1ae2014114&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4cc32f06144bd6f3eba18655135d6155&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=de4f0fd5e637e51358e5455b84d9c52b&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=120a4b5252f111ef02c2c35ff3041c0d&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5cf3cc1f46103cc0aba5d0f9412cab25&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=9c701fd9560b84e85924e7ddf30ea105&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=6cd1bac87ba5a9c943be62f4a4c2849a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=6467d0158f9cbcf5eba7d5758c936cba&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=44a686ffe8f65cbcdb9eeb16d47fc4b1&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=2b3daac4b1091fb40886f297013ba0ed&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=793a5caa9f03d6c47d9a7db5939193c3&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=967558694da8a917c67282a379ac6ebd&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=09ca0b003df747fea1a89d5e4e309afa&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5f57158a765fa716387d8e7ca432bd06&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=986fb025adab58b5b78d7cac3aca0aa4&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=fa73f6bed0c70bcb242b173dfd7d362d&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=aa7b1ad5cb7a2e6ccd950642ffd2485e&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
     <t>Ground X-Vehicle Technologies (GXV-T) Program Technology Development</t>
   </si>
   <si>
@@ -256,19 +1749,298 @@
     <t>Living Foundries: 1000 Molecules</t>
   </si>
   <si>
+    <t>Four month contract extension for commercial Information Technology services for the period August 01, 2015 to November 30, 2015 in support of DARPA's Mission Services Office (MSO) Information Technology Directorate (ITD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARPA Strategic Technology Office (STO) Broad Agency Announcement (BAA) </t>
+  </si>
+  <si>
+    <t>100 Gb/s RF Backbone (100G) Phase 2 and 3</t>
+  </si>
+  <si>
+    <t>Squad X Core Technologies (SXCT)</t>
+  </si>
+  <si>
+    <t>Young Faculty Award (YFA)</t>
+  </si>
+  <si>
+    <t>Precise Robust Inertial Guidance for Munitions (PRIGM): Navigation-Grade Inertial Measurement Unit (NGIMU)</t>
+  </si>
+  <si>
+    <t>Request for Information (RFI): Cyberspace Operations Research and Development</t>
+  </si>
+  <si>
+    <t>Request For Information - Technology Solutions for Passive, Sparse Aperture Imaging for Space Domain Awareness</t>
+  </si>
+  <si>
+    <t>Innovative Systems for Military Missions</t>
+  </si>
+  <si>
+    <t>Technologies for Host Resilience (THoR)</t>
+  </si>
+  <si>
+    <t>Revolutionary Enhancement of Visibility by Exploiting Active Light-fields (REVEAL)</t>
+  </si>
+  <si>
+    <t>Positioning System for Deep Ocean Navigation (POSYDON)</t>
+  </si>
+  <si>
+    <t>Notice of Intent to Award a Sole Source Contract for AWARE Wide Field of View (WFOV)</t>
+  </si>
+  <si>
+    <t>Seeker Cost Transformation (SECTR)</t>
+  </si>
+  <si>
+    <t>A -- Exploitation of 3-D Data (E3D)</t>
+  </si>
+  <si>
+    <t>A -- Intent to issue BAA for the Integrated System is Structure (ISIS) Program.</t>
+  </si>
+  <si>
+    <t>A -- Linear Photonic RF Front-End Technology (PHOR-FRONT)</t>
+  </si>
+  <si>
+    <t>A -- Nanoscale Architectures for Coherent Hyper-Optic Sources (NACHOS)</t>
+  </si>
+  <si>
+    <t>A -- Optical RF Communications Adjunct (ORCA) Effort</t>
+  </si>
+  <si>
+    <t>A -- Quantum Entanglement Science and Technology (QuEST)</t>
+  </si>
+  <si>
+    <t>Reactive Material Structures (RMS) Proposer's Workshop</t>
+  </si>
+  <si>
+    <t>Request for Information (RFI): Advanced Technologies &amp; Architectures for Phases Array Antenna Systems</t>
+  </si>
+  <si>
+    <t>DARPA/ONR Long Range Anti-Ship Missile Demonstration Industry Day</t>
+  </si>
+  <si>
+    <t>Urban Propagation Workshop</t>
+  </si>
+  <si>
+    <t>National Cyber Range Proposers' Day Workshop</t>
+  </si>
+  <si>
+    <t>DARPA TTO VULCAN Industry Day</t>
+  </si>
+  <si>
+    <t>Integrated Micro Primary Atomic Clock Technology (IMPACT)</t>
+  </si>
+  <si>
+    <t>STATION KEEPING BUOY ENERGY HARVESTING/HARNESSING</t>
+  </si>
+  <si>
+    <t>Sole Source Notice for DiscRotor Program (Phase 1)</t>
+  </si>
+  <si>
+    <t>Component, Context, and Manufacturing Model Library 1 (C2M2L-1)</t>
+  </si>
+  <si>
+    <t>Multifunction RF</t>
+  </si>
+  <si>
+    <t>System F6 Tech Package (F6TP) Proposers' Day Announcement</t>
+  </si>
+  <si>
+    <t>Anti-Submarine Warfare Continuous Trail Unmanned Vessel (ACTUV) Industry Day</t>
+  </si>
+  <si>
+    <t>Tactically Exploited Reconnaissance Node (TERN) Proposers' Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Synthetic Aperture Radar (ViSAR) System Design and Development </t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Phoenix Technologies</t>
+  </si>
+  <si>
+    <t>Vertical Take-Off and Landing Experimental Aircraft (VTOL X-Plane)</t>
+  </si>
+  <si>
+    <t>DARPA Robotics Challenge - Track C</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-24 Tactical Boost Glide</t>
+  </si>
+  <si>
+    <t>Biological Technologies EZ BAA</t>
+  </si>
+  <si>
+    <t>Advanced RF Mapping (RadioMap) Phase 3</t>
+  </si>
+  <si>
+    <t>Near Zero Power RF and Sensor Operations</t>
+  </si>
+  <si>
+    <t>Electrical Prescriptions (ElectRx)</t>
+  </si>
+  <si>
+    <t>Business Systems Support Services</t>
+  </si>
+  <si>
+    <t>Future Arctic Sensing Technologies</t>
+  </si>
+  <si>
+    <t>Inter-Satellite Communications Links</t>
+  </si>
+  <si>
+    <t>Make-It</t>
+  </si>
+  <si>
+    <t>Precise Robust Inertial Guidance for Munitions: Advanced Inertial Micro Sensors (PRIGM:AIMS)</t>
+  </si>
+  <si>
+    <t>Strategic Technologies Office (STO) Industry Meeting</t>
+  </si>
+  <si>
+    <t>Defense Sciences Office Proposers Day</t>
+  </si>
+  <si>
     <t>DARPA-BAA-14-42</t>
   </si>
   <si>
     <t>DARPA-SN-15-33</t>
   </si>
   <si>
-    <t>Microsystems Technology Office</t>
+    <t>DARPA-BAA-14-25</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-02</t>
+  </si>
+  <si>
+    <t>Reference-Number-SN03-16</t>
+  </si>
+  <si>
+    <t>Reference-Number-IBDEMO-SS</t>
+  </si>
+  <si>
+    <t>SN-0416</t>
+  </si>
+  <si>
+    <t>Reference-Number-RFI04-40SN</t>
+  </si>
+  <si>
+    <t>BAA03-14</t>
+  </si>
+  <si>
+    <t>Reference-Number-SN-05-08</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>PS05-01</t>
+  </si>
+  <si>
+    <t>HR0011-05-R-0003</t>
+  </si>
+  <si>
+    <t>BAA05-22</t>
+  </si>
+  <si>
+    <t>SN08-22</t>
+  </si>
+  <si>
+    <t>SN08-23</t>
+  </si>
+  <si>
+    <t>SN08-24</t>
+  </si>
+  <si>
+    <t>Reference-Number-SN08-27</t>
+  </si>
+  <si>
+    <t>SN08-29</t>
+  </si>
+  <si>
+    <t>DARPA-SN08-21</t>
+  </si>
+  <si>
+    <t>BAA07-18</t>
+  </si>
+  <si>
+    <t>baa07-20</t>
+  </si>
+  <si>
+    <t>BAA08-21</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-12-25</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-01</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-39</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-02</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-03</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-53</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-48</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-46</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-14-45</t>
+  </si>
+  <si>
+    <t>Information Innovation Office</t>
   </si>
   <si>
     <t>09/09/2016</t>
   </si>
   <si>
     <t>u'-'</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>08/31/2004</t>
+  </si>
+  <si>
+    <t>03/31/2005</t>
+  </si>
+  <si>
+    <t>02/16/2006</t>
+  </si>
+  <si>
+    <t>05/30/2008</t>
+  </si>
+  <si>
+    <t>01/14/2009</t>
+  </si>
+  <si>
+    <t>05/29/2009</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Sources Sought</t>
+  </si>
+  <si>
+    <t>Special Notice / Cancelled</t>
   </si>
   <si>
     <t>Added:_x000D_
@@ -301,16 +2073,871 @@
 Proposers' Day will include overview presentations and a poster session where participants will be provided an opportunity to present their research. The meeting will also facilitate team building among the participants.</t>
   </si>
   <si>
+    <t>Added:_x000D_
+May 12, 2015 2:11 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 05, 2015 8:08 am_x000D_
+DARPA-BAA-15-02 DAHI Electronics for Next Generation EW Support</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 24, 2003_x000D_
+DARPA INDUSTRY DAY WORKSHOP ANNOUNCEMENT -Networking in Extreme Environments (NETEX) - The Defense Advanced Research Projects Agency (DARPA) Advanced Technology Office (ATO) will be hosting an Industry Day Workshop on the topic of Networking in Extreme Environments (NETEX) for solicitation information.  Reference BAA03-20 posted 14 March 2003 for program overview and technical background.  Industry Day—Location, Contacts, Registration and Information: The Industry Day Workshop will be held at the George Mason University, Arlington Campus Professional Center, Ste 329, 3401 N. Fairfax Drive, Arlington, VA  22201 on 7 April 2003 from 9:00 am to 4:00 pm.  The objectives of this workshop are to: (1) release technical information relating to the DARPA NETEX program, (2) present current work and future needs related to NETEX, and (3) to promote technical exchange among government, commercial, academic, and other interested parties.  Participants in the workshop are encouraged to explore teaming arrangements that might bring different skill sets to the table to enable integrated solutions to this problem.  The workshop will be unclassified and open.  Time will be allocated for invited presentations on UWB implementations and performer background; expect 10 minute speaking blocks.  If interested in presenting, indicate your desire to present and submit your presentation by sending an email to Sharlene Kane, SYColeman Corporation: Sharlene.Kane@sycoleman.com.  Proprietary, classified, or sensitive information shall not be included in the workshop presentations.  DARPA reserves the right to screen and edit the material before it is presented at the workshop.  There will be an opportunity at the workshop to sign up for short one-on-one meetings with the PM on the following day.  Due to limited seating, attendance may be limited to two representatives per organization, preferably one business and one technical representative, where applicable.  Please declare your citizenship in the remarks block.  Foreign nationals must complete and return a DARPA Foreign National Visitor Request (DARPA Form 60) not later than 26 March 2003 if they wish to attend the workshop.  Foreign nationals must declare their citizenship in the remarks section of the registration page to prompt the DARPA Form 60 to be sent.  Attendees at the workshop are responsible for providing registration cost fees of $40, travel arrangements, and hotel reservations.  The Government will not reimburse the attendees for any costs associated with its participation and is under no obligation to award any related contract associated with this event.  Participation in Industry Day is totally voluntary.  Attendance at the workshop is not required to reply to BAA03-20.  Points of Contact: Technical questions can be addressed to Stephen Griggs, DARPA Advanced Technology Office, Email sgriggs@darpa.mil.  Alternate POC: Dan Erndle, 703-247-7715, dan.erndle@sycoleman.com.  Pre-registration is required by COB 1 April 2003 for workshop attendance.  A web site has been established at http://www.darpa.mil/ato/solicit/NETEX/index.htm that provides registration information, agenda, and information to be presented during the Industry Day.  Participants are required to register for this event by sending an email to Sharlene Kane, SYColeman Corporation email: Sharlene.Kane@sycoleman.com, with the following information: (1) Name (2) Company Name (3) Mailing Address (4) Phone Number (5) Email address (6) Citizenship. You may contact Sharlene Kane via telephone at (703)247-7700 if you have any questions about the registration process.  Questions on the workshop may be directed to Dan Erndle, SYColeman Corporation, at dan.erndle@sycoleman.com 703-247-7715.  Questions of a contractual nature should be addressed to Anthony E. Cicala, Contracting Officer, DARPA/CMO, email: acicala@darpa.mil.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+August 1, 2003_x000D_
+With this announcement, DARPA is providing advance notice of a potential Research and Development (R&amp;D) program for the design, build, installation, and demonstration of an operational "Immune Building." This effort will represent the last phase of DARPA’s Immune Building program. The Immune Building Demonstration (IB Demonstration) will use a combination of active and passive countermeasures to validate, in a controlled test environment, the ability to protect inhabitants of buildings from covert or overt releases of aerosolized chemical or biological warfare agents. The availability of funds for this phase of the program is subject to Congressional approval; no proposals will be solicited until such time as funding is appropriated.  The actions outlined in this Notice are intended solely to enable potential sources to gain an understanding of the IB Demonstration R&amp;D program and an opportunity to submit information which will permit evaluation of their capabilities, thereby allowing for a rapid transition when/if Congressional approval is provided.  It is DARPA's intention to release a "Draft" Request for Proposals (RFP) on or about 22 August 2003 for the Demonstration phase of the Immune Building program.  The RFP (Draft and Formal) will be unclassified; however, some of the design details will be contained in a "SECRET" appendix. To help foster the broadest possible competition, DARPA will sponsor two informational meetings, both in the Washington, DC, area.  The first meeting is a "Program Brief" and will take place approximately one week before the Draft RFP is to be released.  The Program Brief will have the format of a tutorial, describing the lessons learned to date in the Immune Building program, and providing the rational for the system-design specifications and guidelines that will be identified in the Draft/Formal RFP.  Attendance at this meeting is voluntary and will be limited to organizations that can demonstrate a reasonable expectation of having expertise that might contribute to the success of the IB Demonstration.   Such an expectation is likely to be met by organizations with experience in the fields of architecture and engineering (A&amp;E); heating, ventilation and air conditioning (HVAC); chemical and/or biological warfare defense; filtration, neutralization, and decontamination; contamination transport modeling; chemical and/or biological sensors; building control systems; and/or the integration of complex systems.  Other areas of expertise may also qualify; in all cases qualification will be determined by DARPA.  Prior participation in the Immune Building program is not a prerequisite.  The individuals who wish to attend the Program Brief must have current US clearances at the SECRET level. Organizations and individuals interested in attending the Program Brief are required to register by 11 August 2003 following the instructions provided at https://dtsn.darpa.mil/ibdemo. Following the Program Brief, the IB Demonstration Draft RFP will be released to those sources deemed qualified by DARPA.  These individuals/organizations are encouraged to review the Draft RFP and provide written feedback to DARPA prior to the second meeting.  The second meeting is a "Bidders Brief" that will follow the Program Brief by approximately 3 weeks, allowing potential offerors time to digest the material from the tutorial and to identify aspects for which they would like additional clarification.  Attendance at this meeting is also voluntary and limited to organizations that can demonstrate a reasonable expectation of having expertise that might contribute to the success of the IB Demonstration.  However, attendance is not required in order to be deemed eligible to propose on this program.  The Bidders Brief will be divided into two parts.  The first part will cover only unclassified material and will be open to all registered/qualified offerors.  The second part will include classified (SECRET) information, so attendance will require a current US clearance. Instructions for registration will be provided at https://dtsn.darpa.mil/ibdemo following release of the Draft RFP.  This website will be updated to announce any changes in dates for the Information Briefings and/or Draft RFP release. Subject to Congressional approval/funding, a Formal RFP will be released to those sources deemed technically qualified to perform the IB Demonstration.  DARPA intends to award a single contract to a prime contractor (system integrator) to carry out the Immune Building Demonstration. This work will require substantial collaboration with DARPA, the operators and occupants of the operational building, members of the tri-service civil engineering community, and other Government personnel responsible for the installation, operation, training, and maintenance of these types of protective architectures.  The anticipated scope of work to be covered under the IB Demonstration includes:  a preliminary design of the protection (countermeasure) system for the building to be protected meeting the guidelines identified in the RFP; a (mathematical) model that predicts the contaminant fate and transport around the building, as well as the effects of the elements of and the usage (CONOPS) of the protective architecture; a trade study that uses the predictive model to refine the preliminary design; a full-scale physical model (testbed) that is configured to represent the floor plan and flow pathways within the building of interest (operational building), as well as the planned protective architecture for that building; a testbed-based proof of the effectiveness of the protective architecture; a finalized design, including fine-tuning in the hardware, software, and CONOPS as a result of the testbed measurements; installation of the finalized protective architecture into the operational building; and the test and evaluation of the effectiveness of the protective architecture in the operational building. The IB Demonstration is research and development that represents the last phase of DARPA's Immune Building program, which has been conducted over the past 3 years.  Research reports containing findings to date will not be made available for public release.  The Government will not reimburse attendees for any costs associated with either of the briefings discussed in this announcement.   All questions regarding this announcement and/or the Immune Building Demonstration Program, in general, are to be sent from the IM Demo website.  The Point of Contact for this announcement is Michael D. Blackstone, Contracting Officer, DARPA/CMO, email: mblackstone@darpa.mil. This announcement does not impose any obligation on the Government or signify a firm intention to enter into a contract.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+February 11, 2004_x000D_
+RFI for Geolocation and Navigation Via Signals of Opportunity. Please see posted RFI attachment.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+June 11, 2004_x000D_
+This is a Request for Information (RFI) by the Defense Advanced Research Projects Agency (DARPA), regarding a non-invasive method to stop bleeding in wounds to the femoral artery, abdominal vessels and large vessels of the arms.  These potentially exsanguinating wounds (deep bleeders) cause fatalities and amputations in combat situations.  The system should utilize non-invasive technologies to both locate and coagulate deep bleeders.  It is required that the system be operable by minimally trained military personnel in the combat environment and allow them to rapidly stop the bleeding.  The envisioned solution is a conformal array of ultrasound transducers that is capable of localizing the bleeding using Doppler ultrasound and coagulating the blood around the vessel using high intensity focused ultrasound; however other approaches are also encouraged._x000D_
+DARPA solicits potential performers to submit ideas related to this topic for use by the government in formulating the intended formal solicitation.  DARPA requests that submittals briefly and clearly describe the potential approach or concept, outline critical technical issues, estimate potential system performance (minimum detectable blood velocity, maximum coagulatable blood velocity and speed to coagulation), and comment on the expected robustness, affordability, weight, size and power requirements of the proposed approach.  In addition, DARPA requests that submittals briefly and clearly describe the potential commercial market for such a device or related technologies and the plan to develop the device for this market including the steps needed to obtain the necessary approvals to field such a device._x000D_
+_x000D_
+The Government does not intend to award a contract on the basis of this RFI or to otherwise pay for the information solicited.   The Government intends to issue a formal solicitation during the third quarter of calendar year 2004 for design and development of functional prototype systems that will enable the location and treatment of deep bleeders on the battlefield._x000D_
+_x000D_
+Responses should be limited to five pages for any given concept.  Any proprietary concepts or information should be clearly identified as such.  Input on technical aspects of the responses may be solicited by DARPA from non-Government consultants/experts who are bound by appropriate non-disclosure requirements.  For all RFI responses, an additional, non-proprietary cover page is also requested identifying your company name, technical point of contact and contact information.  RFI responses should be received no later than COB July 9, 2004._x000D_
+_x000D_
+RFI Responses should be submitted in a commonly used electronic format and may be e-mailed or mailed on a CD-ROM to:_x000D_
+Mr. Thomas McCreery, Program Manager_x000D_
+DARPA/SPO_x000D_
+3701 N Fairfax Dr._x000D_
+Arlington, VA 22203_x000D_
+tmccreery@darpa.mil</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+April 23, 2003_x000D_
+The purpose of this amendment is to extend the date for responses to DARPA SPO Office-Wide BAA03-14.  The response date is revised from July 30, 2004 to August 31, 2004.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+November 2, 2004_x000D_
+The Defense Advanced Research Projects Agency’s Special Projects Office (DARPA/SPO) is issuing this Request for Information (RFI) on technologies enabling a large-optical system with an electronically scanned instantaneous field-of-view (FOV) over a field-of-regard (FOR) many times greater. For traditional optical designs, the FOV is inversely proportional to the optic size given a constant focal plane array. As the optic size increases for better sensitivity and/or resolution, the FOV narrows and the increased optic weight severely impacts the mechanical slew rates—with a commensurate reduction in area coverage rate._x000D_
+In a large-optic system, the average time per beam position is dominated by the time required to slew and settle the optic. The current state-of-the-art for a 0.5-m optic with a 4 FOV is approximately 0.5 seconds of average time per beam position – primarily slew/settle with negligible integration time and the focal plane array (FPA) read time occurring during repositioning. This number grows to 10 seconds or more as either the optic or the FOR grows. DARPA is looking for a 20dB improvement in the average time per beam position while maintaining the sensitivity and resolution of the large-optic with the affordability of a small EO/IR focal plane. Such a system would enable a ≥90° FOR day/night wide-area optical GMTI search-while-track design producing high-resolution images for target identification while providing high area coverage rates for search-while-track on thousands of targets and high-revisit rates for precision tracks on tens of targets. To achieve this performance, the average time per beam position falls to approximately 5 milliseconds and is now dominated by the integration and FPA read times._x000D_
+_x000D_
+Enabling technologies may include: innovative compact optical designs; light-weight mirrors; novel electronic shutters/baffles; high-lambda, wide-bandwidth deformable mirrors; electrically or optically addressed surface coatings (i.e. suspended particle devices or phase-change materials); large/curved/inexpensive focal plane arrays; micro-mechanical cryocoolers; and novel mechanically-steered optics (silicone elastomers, carbon nanotube “muscles.”)_x000D_
+_x000D_
+DARPA/SPO requests potential performers submit concepts and technologies to be considered during the formulation of the planned solicitation. DARPA does not intend to award a contract on the basis of this RFI or to provide compensation for the information solicited. DARPA does intend to issue a formal solicitation in FY05. Responses should be concise and clearly describe the technologies as applied to this particular problem. All submissions should be clearly marked to ensure proprietary or competition sensitive information is appropriately identified. DARPA/SPO expects all responses to be unclassified, but will accept classified responses with prior coordination. All submissions should be provided in MSWord (.doc) or Adobe Acrobat (.pdf) format either by e-mail or CD-ROM to DARPA, 3701 North Fairfax Drive, Arlington, VA 22203, Attn: Tim Clark, SPO, telephone: 703-812-1975, tclark@darpa.mil. Responses are requested by close of business on 1 December 2004.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+May 13, 2005_x000D_
+DARPA’s Special Projects Office intends to enter into sole source negotiations with Swiftwater Group for the purpose of obtaining training services. Swiftwater is the only known source with the in-depth knowledge and experience in the pharmaceutical industry required for this effort and with a course curriculum directed towards a Government Research and Development audience. Swiftwater is also the only company who will be able to accomplish this effort within the Government’s cost and schedule constraints. This announcement is not a request for proposals or an RFP of any kind. See Note No. 22.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+January 26, 2005_x000D_
+No Description Provided</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+October 17, 2005_x000D_
+With this Presolicitation Notice, the Defense Advanced Research Projects Agency (DARPA) Information Resources Directorate (IRD), through the Contracts Management Office (CMO), announces its intent to issue a formal Request for Proposals (RFP) No. HR0011-05-R-0003, on or about 01 NOV 05, or 15 days from date of publication of this Presolicitation Notice, for “Red Team” Information Technology (IT) Support and Services.  All qualified and capable sources, consistent with the terms and conditions of the RFP, are encouraged to respond.  Offerors, however, are notified that nothing promulgated herein obligates the Government to take any further action associated with this announcement._x000D_
+With respect to the anticipated RFP to be released on or about 01 NOV 05, or 15 days from date of publication of this Presolicitation Notice, interested offerors are notified that any questions, answers, clarifications, and/or comments that are deemed necessary by the DARPA Contracting Officer are anticipated to be promulgated via amendment to the solicitation._x000D_
+_x000D_
+Interested parties are hereby notified that DARPA held a Proposer’s Day Conference regarding the subject topic item on 1 AUG 05 in Arlington, VA.  This Proposer’s Day Conference was posted in FedBizOpps on 14 JUL 05 as Special Notice (SN)05-31.  Parties interested in reviewing SN05-31, and other information related to the subject topic item may access this information by going to http://www.darpa.mil/rfp/index.html.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+February 16, 2005_x000D_
+No Description Provided</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 10, 2008_x000D_
+The Defense Advanced Research Projects Agency, Tactical Technology Office (TTO), intends to award a Sole Source contract to Lockheed Martin Space Systems Company, Sunnyvale, CA for continuation of the Aero-Adaptive/Aero-Optic Beam Control (ABC) Program under a 27-month Phase 1B (Option 1) and 16 month Phase 2 (Option 2) contract.  A Sole Source announcement relating to the award of a 15 month Phase 1A (base) contract for ABC activities was previously announced on 17 December 2007 (SN08-12); however, this announcement inadvertently did not announce the Government's intention to negotiate all three phases (1A, 1B and 2) of the follow-on research program as a single contract action.  Previous Phase 0 ABC activities were completed by Lockheed Martin under contract FA9550-04-C-0142. Under the Phase 0 contract, Lockheed Martin investigated the utility of a high energy laser, integrated into a high-speed tactical aircraft for self-defense, and explored experimental techniques to characterize and influence aero-optic beam quality.  The proposed Phase 1B and Phase 2 efforts are logical follow-ons to the Phase 0 effort conducted by Lockheed Martin under contract FA9550-04-C-0142 and Phase 1A effort previously announced to demonstrate a turbulence control method in order to improve power flux on target in high speed flight, particularly in the lateral and aft field of regard. Specifically, under Phase 1B, Lockheed Martin will conduct a full scale test of a turret using representative optical paths, a full scale turret model, and representative flow control actuators with an adaptive optics system in the loop.  Under Phase 2, Lockheed Martin will undertake a preliminary design effort for a flight test turret incorporating flow control approaches identified in the full scale wind tunnel test.  The proposed contract action is for supplies or services for which the Government intends to solicit and negotiate with only one source under authority of FAR 6.302-1 "Only one responsible source and no other supplies or services will satisfy agency requirements."  As the developer of the ABC concept, Lockheed Martin possesses unique knowledge, capabilities and proprietary intellectual property/data required to carry out the required research effort.  This notice of intent is not a request for competitive proposals and no solicitation is currently available.  However, interested parties may identify their interest and capability to respond to the requirement.  Responses/proposals received within forty-five (45) days after date of publication of this notice will be considered by the Government.  Information received will be considered solely for the purpose of determining whether to conduct a competitive procurement.  A determination by the Government not to compete this proposed effort on a full and open basis is solely within the discretion of the Government.  Interested parties may identify their interest and capability to meet the requirements by submitting a white paper and past performance data by no later than 23 April 2008 to Defense Advanced Research Projects Agency, Attn: Mr. Michael D. Blackstone, Contracts Management Office (CMO), 3701 North Fairfax Drive, Arlington, VA 22203-1714 or via email to michael.blackstone@darpa.mil. Questions shall be submitted to the above email address. Please refer to Numbered Note 22.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 19, 2008_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Information Processing Techniques Office (IPTO) is requesting information on technology areas for the creation of micro- and nano-scale display technologies for the purpose of creating displays that could be worn as transparent contact lenses._x000D_
+A limiting factor to un-tethered augmented and/or mixed reality applications is the bulkiness, power consumption, cost, limited resolution, and limited field of view of head-mounted displays.  DARPA seeks to leap beyond incremental, evolutionary enhancement of head-mounted display technologies to a see-through contact lens on which images can be displayed.  This information might be command-and-control information, not unlike information provided to players of first-person, shooter-type video games or synthetic entities and effects in a live training environment._x000D_
+_x000D_
+As a first step in solving this problem, DARPA/IPTO is soliciting brief white papers describing technologies in this area.  Specifically, these white papers should address the following questions._x000D_
+1.	What are the basic technologies needed to develop a see-through display of this size and form factor, in a way that would be safe for humans to wear for extended periods of time (comparable to normal contact lenses)?  These should include:_x000D_
+-display technologies used, such as LED's, lasers, OLED's, etc.,_x000D_
+-antennas and radios with which to send the signal to the device to display, and_x000D_
+-other electronic circuitry._x000D_
+2.	How such a small display could be practically manufactured on flexible substrates?_x000D_
+3.	How images could be sent safely and wirelessly to the contact lens display?_x000D_
+4.	How power could be sent safely and wirelessly to the contact lens display?_x000D_
+5.	What display resolutions and fields of view could be achieved in three to five years, and how will the near-field images could be created that would be comparable to the resolution, frame rate, and color palette of head mounted displays?_x000D_
+_x000D_
+Interested parties should submit brief white papers per the instructions below no later than 1200 Noon ET, 02 April 2008._x000D_
+_x000D_
+INSTRUCTIONS TO RESPONDENTS_x000D_
+_x000D_
+DARPA appreciates responses from all capable and qualified sources.  DARPA will employ an electronic upload submission system for responses to this RFI.  To respond to this RFI, interested parties must complete an online RFI Cover Sheet for each response, which will include the submitter's name, organization and contact information, as well as the title of their paper.   Cover Sheet submissions are made by accessing the URL below:_x000D_
+www.csc-ballston.com/rfi/rfiindex.asp?RFIid=08-23_x000D_
+After finalizing the Cover Sheet, a Confirmation screen will appear, along with instructions for uploading your position paper.  Submissions must be in Microsoft Word or Adobe PDF and encrypted using Winzip or PKZip with 256-bit AES encryption.  An encryption password must be emailed to RFI08-23@darpa.mil at the time of submission.  See https://www.CSC-Ballston.com/baa/Encryption_Instructions.htm for additional encryption information.  Note:  the word, "PASSWORD", must appear in the subject line of the above email and there are minimum security requirements for establishing the encryption password.  Failure to provide the encryption password will result in the submission not being read.  Since respondents may encounter heavy traffic on the web server, they SHOULD NOT wait until the day the submissions are due to fill out a coversheet and upload their position paper._x000D_
+_x000D_
+White papers are limited to five (5) pages in length (not including the cover page).   Format specifications include 12-point font, single spaced, single-sided, 8.5" by 11" paper, with 1-inch margins. Each response should address the five questions posed above (on page 1) and should be as succinct as possible while at the same time providing actionable insight.  Graphics and citations are highly encouraged._x000D_
+_x000D_
+Failure to comply with these submission procedures may result in the position paper not being reviewed._x000D_
+_x000D_
+DISCLAIMERS AND IMPORTANT NOTES_x000D_
+_x000D_
+This is an RFI issued solely for information and program planning purposes; this RFI does not constitute a formal solicitation for proposals or proposal abstracts.  In accordance with FAR 15.201(e), responses to this notice are not offers and cannot be accepted by the Government to form a binding contract.  Submission of a white paper, and/or attendance at any subsequent Workshop, is strictly voluntary and is not required to propose to subsequent Broad Agency Announcements (if any) or research solicitations (if any) on this topic.  DARPA will not provide reimbursement for costs incurred in responding to this RFI or participating in any subsequent Workshop.  NO CLASSIFIED INFORMATION SHOULD BE INCLUDED IN THE RFI RESPONSE.  Respondents are advised that DARPA is under no obligation to acknowledge receipt of the information received or provide feedback to respondents with respect to any information submitted under this RFI.   Responses to this RFI do not bind DARPA to any further actions, to include hosting a Workshop or requesting follow-on proposals from vendors responding to this RFI._x000D_
+_x000D_
+Submissions may be reviewed by: the Government (DARPA and partners) and Systems Engineering and Technical Assistance (SETA) contractors (such as Science and Technology Associates, and CACI International)._x000D_
+_x000D_
+Technical POC: Dr. John R. "Buck" Surdu_x000D_
+Fax: 703-248-1872, Addressed to:  DARPA/IPTO, Attn:  RFI 08-23_x000D_
+Electronic Mail:  RFI08-23@darpa.mil_x000D_
+Website: http://www.darpa.mil/ipto/Solicit/solicit.asp</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 24, 2008_x000D_
+Fifteen days after publication of this notice, the Strategic Technology Office (STO) of the Defense Advanced Research Projects Agency (DARPA) intends to issue a request for proposal to Science Applications International Corporation (SAIC).  SAIC is the only known source in the case of a follow-on requirement with the in-depth knowledge and experience in Control Plane technology test support to continue into the final phase of the Control Plane program. The Control Plane testbed has evolved directly from the Control Plane program Phases 1 and 2 and has one remaining phase. The test support is provided in a large scale testbed laboratory environment for Control Plane Technologies.  This testbed environment requires a large network scalability, fiber and wireless links, real production traffic mixes and the flexibility to test new equipment with various topologies.   Using traffic generators in addition to existing production traffic, the Government will be able to continue to test and report on the following characteristics of the Control Plane solutions; multilink capabilities, fairness, streaming protocols, additional users, speed, and interoperability. (THIS NOTICE IS NOT A REQUEST FOR COMPETITIVE PROPOSALS.)  Unless otherwise stated herein, no additional written information is available.  GENERAL INFORMATION:  There is not commitment by the Government to issue a solicitation, make an award or awards, or to be responsible for any monies expended by any interested parties before award of a contract for the effort mentioned above.  Information provided herein is subject to change and in no way binds the Government to solicit for or award a contract.  Point of contact for this synopsis is Contracting Officer; Robin Swatloski; SN08-24@darpa.mil.  See Note 22.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 24, 2008_x000D_
+REQUEST FOR INFORMATION_x000D_
+_x000D_
+GENERAL INFORMATION (TBD)_x000D_
+Document Type: 	Request for Information_x000D_
+Solicitation Number:_x000D_
+Posted Date:	        March 24, 2008_x000D_
+Original Response Date:	April 7, 2008_x000D_
+Current Response Date:	April 7, 2008_x000D_
+Original Archive Date:_x000D_
+Classification Code:_x000D_
+Set Aside:_x000D_
+NAICS Code:_x000D_
+_x000D_
+_x000D_
+ISSUED BY_x000D_
+_x000D_
+Defense Advanced Research Projects Agency (DARPA)_x000D_
+3701 North Fairfax Drive_x000D_
+Arlington VA  22203-1714_x000D_
+SN08-27@darpa.mil_x000D_
+_x000D_
+_x000D_
+SERVICES:  Human Resources (HR) Recruitment -- Sourcing and Placement of DARPA Program Managers (PMs)_x000D_
+_x000D_
+_x000D_
+TERMS AND CONDITIONS_x000D_
+This is a Request for Information, a market survey for written information only.  This is not a solicitation announcement for proposals, and no contract will be awarded from this Notice.  This Notice does not restrict the Government regarding the ultimate acquisition approach that may be taken in the future.  No reimbursement will be made for any costs associated with providing information in response to this Notice or any follow-up information requests.  No telephone calls will be accepted requesting a bid package or solicitation.  There is no bid package or solicitation.  To protect the procurement integrity of any future procurement, if any, that may arise from this Notice, information regarding the technical point of contact will not be given and no appointments for presentations will be made._x000D_
+1.	The Defense Advanced Research Projects Agency (DARPA) is seeking sources to identify qualified individuals for consideration as technical program managers (PMs).  The objective is to provide DARPA with resumes of individuals with the requisite creative skills, and technical and programmatic experience in DARPA-identified science and technology areas._x000D_
+_x000D_
+2.	DARPA is the central research and development (R&amp;D) organization for the Department of Defense (DoD).  The Agency manages and directs selected basic and applied R&amp;D projects for DoD and pursues research and technology where both risk and payoff are very high and success may provide dramatic capability advances for military roles and missions._x000D_
+_x000D_
+3.	There are approximately 140 PMs at DARPA, who are hired as U.S. Government employees for term positions of 4 - 6 years, resulting in an annual personnel turnover rate of approximately 25 percent.  The PMs are hired based on their ability to develop ideas for innovative technical capabilities that are important to DoD.  DARPA has a robust personnel recruitment program, but believes there may be qualified individuals who are not aware of DARPA's unique employment opportunities._x000D_
+_x000D_
+4.	The use of a recruitment firm is to determine whether there are PM candidates about which DARPA is unaware.  The firm would identify talent that meets DARPA standards for creativity, entrepreneurship, and experience.  Sources may learn more about the Agency, its mission, and the desired traits of a prospective PM by referencing DARPA's Strategic Plan at http://www.darpa.mil/body/ mission.html and the Human Resources Directorate (HRD) website at http://www.darpa.mil/hrd._x000D_
+_x000D_
+5.	DARPA seeks sources for one base period of 3 months, with one additional 9-month option period, and two subsequent 12-month option periods, resulting in a potential contract performance time maximum up to 3 years.  The services to be provided will include:_x000D_
+- 	Identification and collection of resumes for both active job seekers and passive prospects for consideration as DARPA PMs_x000D_
+- 	Review and assessment of resumes to evaluate technical abilities, work experience, education, and personal presentation to serve as DARPA PMs_x000D_
+- 	Verification of resume content, such as stated career and educational background, degrees and certifications, statements of professional accomplishments, and references_x000D_
+- 	Verification that the candidates are U.S. citizens and eligible to obtain a SECRET clearance._x000D_
+- 	Verification the candidates would be willing to locate in Arlington, Virginia_x000D_
+- 	Prioritization and selection of resumes for submission to DARPA for consideration as PMs._x000D_
+- 	Communication and coordination with DARPA's HRD to review, discuss, and explore candidates for consideration as potential PMs_x000D_
+_x000D_
+Note: DARPA may provide the firm with additional required standards, credentials, or experience, as appropriate, during the contract period._x000D_
+_x000D_
+6.	The desired PM candidates are creative individuals who can generate ideas; possess a drive to excel; and have a willingness to integrate, innovate, and accept new ideas.  Any Candidate must also have effective communication skills to advocate his/her idea(s) to the DARPA Director and other designated individuals.  Additionally, they must have demonstrated abilities to chart a course for long-term exploration and development and manage all technical, procurement, and financial aspects of technical research projects._x000D_
+_x000D_
+7.	DARPA would have sole authority to contact submitted candidates with regard to interviews, discussions, and visits to DARPA as part of the consideration process to be a DARPA PM._x000D_
+_x000D_
+8.	This Request for Information invites sources interested in providing the activities described above to respond.  DARPA is seeking sources with current relevant qualifications, experience, personnel, and capability to engage primarily in recruitment of highly skilled scientists, engineers, and subject matter experts with significant academic, professional, and/or military expertise. Interested firms should have a nationwide network of resources from which to identify and obtain highly-qualified candidates for consideration.  The firm's experience should demonstrate a successful track record of identifying candidate sources; developing and implementing strategies for attracting qualified candidates; and aggressively recruiting, screening, and recommending highly qualified scientific, technical, professional candidates to DARPA._x000D_
+_x000D_
+9.	Interested sources are invited to respond to this Request for Information by submitting a response of no more than 7 pages.  The response should include a description of services provided within the past 3 years, to a maximum of three projects.  For each project submitted for experience, the title, location, contract value, type of contract, period of performance, and a narrative description of the product/services provided must be included.  The description should include a tailored capability statement addressing the tasks, with appropriate discussion of organizational and staff capabilities to deliver contract performance, and discuss the pricing mechanism(s) and/or fee(s) for such services._x000D_
+_x000D_
+10.	Respondents will not be notified of the results of this Request for Information.  However, DARPA will utilize the information for acquisition planning.  This Request for Information is offered on an unrestricted basis.  All data received in response to this Request for Information marked or designated as corporate or proprietary information will be fully protected from release outside the Government._x000D_
+_x000D_
+11.	Security Clearances Required:  NONE._x000D_
+_x000D_
+12.	 Questions regarding this Request for Information shall be directed only to SN08-27@darpa.mil, Contracting Officer.  (See Issued By above.)</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+March 28, 2008_x000D_
+Notice of Intent to Award a Sole Source Contract_x000D_
+Fifteen days after publication of this notice, the Tactical Technology Office (TTO) of the Defense Advanced Research Projects Agency (DARPA) intends to issue a purchase order to "The Institute for Advanced Technology (IAT) at The University of Texas Austin" under the authority of FAR 6.302-1.  IAT is the only known source in the case of a follow-on requirement with the in-depth knowledge and experience in the EM Mortar Railgun technology.  IAT possesses the unique capabilities to perform the required work such as a large laboratory facility with several railguns and capacitor banks needed to configure and test the EM Mortar railgun.  IAT has already built and tested numerous railguns over the past 30 years and has the in-house knowledge and technical expertise to perform the required tasks in a manner that will provide best value to the Government.  This technology has the capability to provide increased range and precision with mortar rounds to the warfighter.  This notice is not a request for competitive proposals.  It is not a solicitation or a request for offers.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Apr 17, 2008 2:10 pm_x000D_
+RFI, SN08-21 Continental-Scale Quantum Key Distribution_x000D_
+Responses due: May 30, 2008, 4:00pm EDT;_x000D_
+POCs: Dr. Matthew Goodman, DARPA/DSO and Dr. Adel Saleh, DARPA/STO; Email: QKD@darpa.mil_x000D_
+_x000D_
+COMPLETE SPECIAL NOTICE ATTACHED_x000D_
+_x000D_
+DESCRIPTION_x000D_
+The Defense Advanced Research Projects Agency's (DARPA) Defense Sciences Office (DSO) is requesting information from Government, academic, and commercial organizations concerning fundamental research in quantum key distribution (QKD) over fiber-optic networks of continental extent.  The requested information is sought to determine the state of the art, current capabilities, and future possibilities for continental-scale QKD.  No funding has been allocated to this effort at this time._x000D_
+_x000D_
+INTRODUCTION_x000D_
+Quantum key distribution (QKD) promises to enable the generation of ultra-secure cryptographic keys between pairs of nodes on a fiber-optic network.  Implementing QKD over a continental-scale fiber-optic network could result in high pay-off for the Department of Defense (DoD). Recently, QKD has been demonstrated, at rates of the order of tens of secret bits per second, over dedicated optical fibers approximately one to two hundred km in length. Although QKD over such distances represents an impressive achievement, continental-scale fiber-optic networks will require distances that are greater by an order of magnitude._x000D_
+_x000D_
+PURPOSE_x000D_
+DSO requests information regarding the feasibility of quantum key distribution over a fiber-optic network extending over continental distances.  A simplified model of such a network is depicted in Figure 1, featuring network nodes (large dots) connected by 1000-km fiber-optic links.  Each fiber-optic link is equipped with quantum repeaters (small dots) located every 100 km.  The network nodes – where communications are initiated, received, and switched – are assumed to be located within physically secure sites, whereas the fibers and quantum repeaters are not._x000D_
+_x000D_
+COMPLETE SPECIAL NOTICE ATTACHED_x000D_
+Added:_x000D_
+Apr 17, 2008 2:57 pm_x000D_
+Removed for further consideration_x000D_
+Added:_x000D_
+Apr 17, 2008 3:04 pm_x000D_
+Removed for further consideration</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+January 16, 2007_x000D_
+No Description Provided_x000D_
+Added:_x000D_
+Aug 11, 2008 10:06 am_x000D_
+See referenced BAA.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Dec 18, 2008 2:58 pm_x000D_
+XPASS Study</t>
+  </si>
+  <si>
+    <t>Added: May 30, 2008 3:34 pm_x000D_
+		The DARPA Strategic Technology Office (STO) is looking to develop the next generation Network Centric Radio System (NCRS), with additional capabilities and an assured affordable unit price to the user.  DARPA envisions two critical technologies for achieving these new goals:  1) a backbone radio architecture that enables a versatile Internet Protocol (IP) network and 2) a radio gateway that enables legacy analog and digital communications systems to be internetworked.  As with NCRS, the MAINGATE will enable heterogeneous groups of radios to be integrated into a heterogeneous network tolerant to high latency and packet loss.  The technologies developed for the program will permit affordable, tactical, real-time, high fidelity video, data, and voice services to be deployed in a networked environment to support tactical operations in either Maneuver or Dismounted operations.  As a result of this effort, DARPA expects a clear demonstration of advanced mobile ad hoc network (MANET) gateway technology that will incorporate a wireless IP-capable network (WIPN), which provides interconnectivity between nodes bridging heterogeneous mixtures of radio networks.  A unique characteristic of the MAINGATE program is the integration of a “default” IP radio network as part of the gateway.  
+		Added: Jun 13, 2008 11:58 am_x000D_
+		Amendment 1 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+The purpose of Amendment 1 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE) is to make the following changes:_x000D_
+_x000D_
+1.  Page 4, Part One, Overview information, change the Industry Day date from 13 June 2008 to 24 June 2008 and the PROPOSAL DUE DATE from 14 July 2008 to 28 July 2008. _x000D_
+_x000D_
+2.  Page 7, Section 1.1.1, entitled “Applications”, third sentence is changed to read as follows: _x000D_
+_x000D_
+The system must support a minimum of twenty (20) simultaneous 384 kbps video streams, as well as voice and data applications, peer-to-peer applications (e.g. CHAT), situational awareness, e.g. using FALCON View, and network management for aggregate per link data rates ranging from 6.5 Mbps up to 100 Mbps.”_x000D_
+_x000D_
+3.  Page 15, Section 1.1.7 Option 1 and Option 2 is replaced in its entirety with the following:_x000D_
+_x000D_
+1.1.7 Option 1 and Option 2: MAINGATE Limited User Testing_x000D_
+The baseline program will result in a MAINGATE node system that leads to LUTs by US and Allied Experimental Forces.  This option, if exercised, provides for a large-scale engineering evaluation of MAINGATE in a fielded environment.  The evaluation will assess MAINGATE’s ability to enable new tactics, techniques and procedures (TTPs) designed for the networked maneuver and dismounted forces.  Under the Option 1 and Option 2, the proposer shall provide a quantity of 1,000 MAINGATE nodes at the recurring production unit cost target (sell price to the government) of $60K (FY08$) per unit. Specific tasking and costs related to this event will include training, installation, testing, technical support, etc._x000D_
+_x000D_
+4.  Page 22, Section 4.3.2.2 Volume II, Cost Proposal, subparagraph 7, first paragraph, 4th sentence is changed to read as follows:_x000D_
+_x000D_
+There shall be a single master WO element structure (at a minimum of 4 level) utilized for the Prime and IWO transfers as well as Subcontractors.    _x000D_
+_x000D_
+5.  Page 25, Section 4.4.1, change the proposal date from 14 July 2008 to 28 July 2008._x000D_
+_x000D_
+6.  Page 30, Section 6.2.1 is replaced in its entirety with the following:_x000D_
+_x000D_
+6.2.1 Security_x000D_
+_x000D_
+The Government anticipates that proposals submitted under this BAA will be unclassified.   The program may involve Type 1 COMSEC material, and prime contractors must have a Facility Clearance at the Secret level for safeguarding and storage of Type 1 COMSEC material.  Prime contractors who propose work by subcontractors without an FCL and the work involves Type 1 COMSEC, the Prime Contractor must be required to sponsor the subcontractors for an FCL (be advised that the FCL process may take up to 180 days to complete).  Additionally, prime or subcontractors operating under a Special Security Agreement will require that a favorable National Interest Determination be approved by the U.S. Government prior to access to proscribed information. _x000D_
+_x000D_
+The goal of the MAINGATE program is to develop a communication system that can be readily transitioned to field testing and LUTs. A DD254 will be issued for awardee(s) for the use of COMSEC and or OPSEC equipment if required._x000D_
+_x000D_
+In the event that a proposer chooses to submit a classified proposal or submit any documentation that may be classified, the following information is applicable._x000D_
+_x000D_
+Collateral Classified Information: Use classification and marking guidance provided by previously issued security classification guides, the Information Security Regulation (DoD 5200.1-R), and the National Industrial Security Program Operating Manual (DoD 5220.22-M) when marking and transmitting information previously classified by another original classification authority. Classified information at the Confidential and Secret level may only be mailed via U.S. Postal Service (USPS) Registered Mail or U.S. Postal Service Express Mail. All classified information will be enclosed in opaque inner and outer covers and double wrapped. The inner envelope shall be sealed and plainly marked with the assigned classification and addresses of both sender and addressee. The inner envelope shall be address to:_x000D_
+_x000D_
+Defense Advanced Research Projects Agency_x000D_
+ATTN: STO_x000D_
+Reference: (BAA08-21)_x000D_
+3701 North Fairfax Drive_x000D_
+Arlington, VA 22203-1714_x000D_
+_x000D_
+The outer envelope shall be sealed with no identification as to the classification of its contents and addressed to:_x000D_
+_x000D_
+Defense Advanced Research Projects Agency_x000D_
+Security &amp; Intelligence Directorate, Attn: CDR_x000D_
+3701 North Fairfax Drive_x000D_
+Arlington, VA 22203-1714_x000D_
+_x000D_
+All Secret materials should be hand carried via an authorized, two-person courier team to the DARPA CDR._x000D_
+_x000D_
+Special Access Program (SAP) Information: Contact the DARPA Special Access Program Central Office (SAPCO) 703-526-4052 for further guidance and instructions prior to transmitting SAP information to DARPA. Top Secret SAP, must be transmitted via approved methods for such material. Consult the DoD Overprint to the National Industrial Security Program Operating Manual for further guidance. Prior to transmitting SAP material, it is strongly recommended that you coordinate your submission with the DARPA SAPCO._x000D_
+_x000D_
+Sensitive Compartmented Information (SCI) Data: Contact the DARPA Special Security Office (SSO) at 703-812-1994/1993 for the correct SCI courier address and instructions. All SCI should be transmitted through your servicing Special Security Officer (SSO). SCI data must be transmitted through SCI channels only (i.e., approved SCI Facility to SCI facility via secure fax)._x000D_
+_x000D_
+Proprietary Data: All proposals containing proprietary data should have the cover page and each page containing proprietary data clearly marked as containing proprietary data. It is the Proposers’ responsibility to clearly define to the Government what is considered proprietary data._x000D_
+_x000D_
+Proposers must have existing and in-place prior to execution of an award, approved capabilities (personnel and facilities) to perform research and development at the classification level they propose. It is the policy of DARPA to treat all proposals as competitive information, and to disclose their contents only for the purpose of evaluation. Proposals will not be returned. The original of each proposal received will be retained at DARPA and all other non-required copies destroyed. A certification of destruction may be requested, provided that the formal request is received at this office within 5 days after unsuccessful notification._x000D_
+_x000D_
+7.  Page 37, Section 7 entitled Other Information, first paragraph, last sentence.  Delete the last sentence and replace with, “In order to qualify, proposers must be eligible to receive export controlled information.  This is defined to mean:_x000D_
+_x000D_
+(a) Proposers must have existing or in-place prior to the receipt of any program documentation consisting of Government Purpose Rights (GPR) material the capability (personnel and facilities) to perform research and development involving export controlled data.  _x000D_
+_x000D_
+(b) Representatives of a qualified proposer at the MAINGATE Proposer's Day Briefings as well as representatives of the Contractor at subsequent scheduled meeting must meet the requirements of U. S. export control laws and regulations for being eligible for export controlled data.  _x000D_
+_x000D_
+c) For MAINGATE Proposer's Day Briefings or subsequent meetings where export controlled data will be present, a letter on company letterhead with the full name of the individual and a certification that the individual is a U.S. Person in accordance with U.S. export control regulations from a knowledgeable official of the company is required to be filed before the individual will be allowed to attend.   Meeting attendees must bring proof of identity in the form a government id with a picture, or a passport or permanent resident card (green card).  Permanent residents are also required to send a DARPA Form 60 prior to any DARPA sponsored meeting or event.  This information can be found at www.darpa.mil or may be posted on meeting websites by the organizers. _x000D_
+_x000D_
+(d) It is recommended that any proposer incorporating program documentation consisting of Government Purpose Rights (GPR) material in their proposal seek a review for export control issues by their security or export control officials or legal counsel before submission and that the proper steps are taken to mark and submit the proposal.”_x000D_
+_x000D_
+8.  Page 76, Appendix D, first paragraph, last sentence.  Delete the last sentence since “qualified proposers” is redefined in Section 7 via this amendment._x000D_
+_x000D_
+9.  Page 78, Appendix D, Attachment 1 to the Use and Non-Disclosure Agreement for ITAR and EAR refers to Attachment 1.  Attachment 1 was omitted from the BAA and is included herein._x000D_
+_x000D_
+10.  Page 82, Appendix D, Attachment 1 to the Use and Non-Disclosure Agreement for Technical Data and Restricted Rights is replaced in its entirety with the revised Attachment 1. _x000D_
+_x000D_
+11.  Solicitation questions and answers are attached. The deadline for all questions on BAA08-21 are due no later than 30 Jun 08._x000D_
+_x000D_
+ _x000D_
+ATTACHMENT 1_x000D_
+Use and Non-Disclosure Agreement_x000D_
+For the _x000D_
+BAA08-21 Program Documentation_x000D_
+Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+Technical Data and Restricted Rights_x000D_
+_x000D_
+_x000D_
+The recipient is authorized access to the data listed below as identified in the agreement for the sole purpose of preparing a proposal in response to DARPA Broad Agency Announcement BAA08-21 entitled Mobile Ad hoc Interoperability Network GATEway (MAINGATE)._x000D_
+_x000D_
+_x000D_
+1.	Raytheon Test Report for the DARPA Network (DNC) Experiment, 21 Feb 2006_x000D_
+2.	Raytheon Final Test Report for the Network Centric Radio System (NCRS) in the High Bandwidth – Communications On-the-Move (HB-COTM) Demonstration, 6 Feb 2007_x000D_
+3.	CenGen High Bandwith – Communications On-the-Move Test Report, 31 Jan 2007_x000D_
+4.	Raytheon Software package_x000D_
+5.	CenGen Software package_x000D_
+6.	Raytheon Technical and Electrical Drawings and Schematics_x000D_
+_x000D_
+_x000D_
+ _x000D_
+Attachment 1_x000D_
+Use and Non-Disclosure Agreement_x000D_
+For the _x000D_
+Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+BAA08-21 Program Documentation_x000D_
+_x000D_
+_x000D_
+Access to, and controls for International Traffic in Arms Regulation (ITAR) or Export Administration Regulations (EAR)_x000D_
+_x000D_
+The recipient is authorized access to the data listed below as identified in the agreement for the sole purpose of preparing a proposal in response to DARPA Broad Agency Announcement BAA08-21 entitled Mobile Ad hoc Interoperability Network GATEway (MAINGATE)._x000D_
+_x000D_
+_x000D_
+1.	Raytheon Test Report for the DARPA Network (DNC) Experiment, 21 Feb 2006_x000D_
+2.	Raytheon Final Test Report for the Network Centric Radio System (NCRS) in the High Bandwidth – Communications On-the-Move (HB-COTM) Demonstration, 6 Feb 2007_x000D_
+3.	CenGen High Bandwith – Communications On-the-Move Test Report, 31 Jan 2007_x000D_
+4.	Raytheon Software package_x000D_
+5.	CenGen Software package_x000D_
+6.	Raytheon Technical and Electrical Drawings and Schematics_x000D_
+_x000D_
+		Added: Jul 09, 2008 10:27 am_x000D_
+		Amendment 2 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+The purpose of Amendment 2 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE) is to make the following changes:_x000D_
+_x000D_
+1.  Page 10, Section 1.1.1 entitled Technical Description, under the heading “Wireless IP Network”, the sixth sentence is revised to read as follows:_x000D_
+It also is envisioned that the higher frequency bands can exploit directional antennas and thus the goal is to increase the information rate to 100 Mbps using a gateway, and a high data rate disk data link system like Common Data Link (CDL) or Tactical Common Data Link (TCDL)._x000D_
+2.  Pages 12-14, replace sections 1.1.2 through 1.1.4 in its entirety with the following:_x000D_
+ _x000D_
+1.1.2 MAINGATE Demonstration Plan Description_x000D_
+The proposer is to provide a detailed demonstration plan with the proposal.  The final demonstration will include the operation and evaluation of MAINGATE units and capabilities in simulated missions conducted by military, public safety, and coalition personnel.  The venue will be at a CONUS location such as Ft. Benning GA, or Ft. Hunter-Leggitt CA, that provides complex urban and rural tactical environments.  The proposed plan should include periods for equipment checkout and user training, estimated at 4 weeks, followed by independent user operations and assessments, estimate 4 weeks.  A one-day VIP demonstration will also be conducted following the user assessments and should be provided in the proposed plan along with sufficient time for preparation. _x000D_
+_x000D_
+The final demonstration will showcase the comprehensive capabilities of the MAINGATE units and networks.  It will include 13 MAINGATE units (mobile ground and airborne platforms) with the following characteristics providing interoperability among all specified legacy radios, SATCOM, and the GIG infrastructure:_x000D_
+•	One HQ Node_x000D_
+•	2 Airborne – include all aircraft safety and certification requirements  _x000D_
+•	10 SUVs or similar vehicles_x000D_
+•	SUVs should contain the MAINGATE node with the following expectations:_x000D_
+­	One MAINGATE system will contain the 6 radio interoperability capability_x000D_
+­	9 SUVs will contain, at a minimum, 2 radio interoperability capabilities _x000D_
+­	NOTE: specific radio types will be determined during demonstration preparation and execution.  Interoperability for each of the eighteen radio types and one pair of SATCOM radios will be required._x000D_
+•	A minimum of two additional radios for each of the eighteen radio types to be external to the MAINGATE nodes are required for experimentation and evaluation._x000D_
+•	The proposal should describe quality of service types and enhancements to be incorporated _x000D_
+•	The proposer should include procurement of the combined, coalition, first responders/public safety, and similar radios in their proposal.  _x000D_
+_x000D_
+NOTE:  The proposer should consider appropriate spare MAINGATE systems, i.e. two, in their proposal to allow the best probability of success of the 13 node demonstration._x000D_
+_x000D_
+The MAINGATE units are to provide reliable voice, video, and other data services (e.g. chat) in the range of tactical environments while under OTM and ATH conditions. They will be configured and operated by military personnel with the possibility of operation by coalition, first responder, and public safety users following a contractor-led training period._x000D_
+_x000D_
+The scenarios conducted by the users will stress-test the MAINGATE units and capabilities to evaluate their ability to meet mission goals. The users will conduct the scenario operations with no contractor interaction and utilize automated network management.  The scenarios will provide for an assessment of the interoperability of the combined, coalition, first responders/public safety, and similar types of radios described in Appendix A.  _x000D_
+_x000D_
+The MAINGATE network should be able to support advanced tactical applications critical to modern tactical battlefield needs.  It is anticipated that the transport of real-time video streams from networked analog and digital sensors to dismounted soldiers, maneuver force elements, and tactical operations centers will be a key element.   The MAINGATE network should accommodate a minimum of 20 simultaneous video streams at a rate of 384 kbps as well as other applications such as voice, chat, situational awareness (e.g. FALCON View, C2PC), and network management._x000D_
+_x000D_
+1.1.3 MAINGATE Experimentation Plan Description_x000D_
+The final product of the MAINGATE program will meet a TRL 6 prototype assessment per the guidance in Appendix B (i.e. and informal laboratory testing to a level consistent with operational environments).  The proposal should provide sufficient detail regarding how that assessment will be accomplished to ensure consistency with the guidance provided in Appendix B._x000D_
+_x000D_
+In addition to the TRL 6 assessment, proposers should provide a detailed experimentation plan for the evaluation of developed capabilities and performance.  The plan must include a minimum of two (2) interim field experiments, estimated at 2-4 weeks each, as well as a final experiment.  They are to be conducted at a CONUS location such as Ft. Benning GA, that provides complex urban and rural tactical environments.  The duration and planned activities should facilitate a test-fix-test approach to equipment field checks as the contractors are expected to assess the capabilities and performance of the MAINGATE units under operational conditions, make appropriate changes, and conduct additional experiments with the new configurations.  Each of the two requisite interim experiments will include 13 MAINGATE prototypes including two (2) units hosted on airborne platforms.  Each unit will contain a LAN, WAN, MANET, and legacy network interfaces.  Experimental scenarios will be conducted by contractor teams with some user participation.  The proposed plan must specify the quantity of field experiments to be conducted, their planned dates of occurrence, duration, purpose, and performance metrics to be achieved.  The plan should seek to achieve the final program metrics in a comprehensive scenario early in the program._x000D_
+_x000D_
+The first of the two required interim experiments should occur early in the program.  It should provide for interoperability between at least 11 legacy radios with any mix of radio types (analog and digital).  Nine (9) of the MAINGATE ground mobile units are to support at least one (1) legacy network each, and at least one (1) of the MAINGATE ground mobile units is to support at least two (2) legacy networks.  The proposed plan should include voice and data traffic types and specify the quantities of each.  The experiments should include mobility, LOS, and NLOS/BLOS networking for the MANET.  The MANET should support a mix of unicast and multicast traffic with variable data rates._x000D_
+_x000D_
+The second of the two required interim experiments should occur mid program and provide for greater scope and performance than the first experiment, approaching or matching that of the target program metrics.  It should provide for interoperability between eight (8) radio types plus SATCOM, including digital and analog radio types.  Nine (9) of the MAINGATE ground mobile units are to support at least one (1) legacy network each, and at least one (1) of the MAINGATE ground mobile units is to support at least six (6) legacy networks.  The proposed plan should include voice and data traffic types and specify the quantities of each.  The experiments should include full mobility, LOS, and NLOS/BLOS networking for the MANET as well as SATCOM networking between multiple MAINGATE units.  The MANET should support a mix of unicast, multicast, and broadcast traffic with variable data rates._x000D_
+_x000D_
+In addition to the interim experiments, a final experimentation effort must be included in the proposal that provides for the comprehensive assessment of the final MAINGATE configuration, capability, and performance.  The experiments should reflect the scenarios, legacy networks, network traffic, tactical environment, and operational characteristics specified in Appendix A and which are supportive of the TRL 6 assessment.  The experiments will include the simultaneous operation of all 13 MAINGATE units as well as the requisite legacy radios.  Nine (9) MAINGATE units will support two (2) legacy radio networks each, and one (1) MAINGATE unit will support six (6) legacy networks.  The experiments will be conducted to assess interoperability between the 18 radio types plus SATCOM and include the ground mobile, airborne, and HQ MAINGATE units.  As with all field activities, the final experimentation is to be conducted at a location such as Ft. Benning GA that provides complex environments.  The proposer should plan for sufficient time to conduct test-fix-test operations, and allow sufficient lead time for the final demonstration.  If appropriate, the proposer may plan to transition directly from the final experiments to the final demonstration efforts described above._x000D_
+1.1.4  Government and Contractor Furnished Items for Demonstrations and Experiments_x000D_
+The Government Shall Provide the Following_x000D_
+•	Operational scenario_x000D_
+•	Opposing force, as required_x000D_
+•	Spectrum survey, as required_x000D_
+•	Field facilities and logistics support as required for final demo_x000D_
+•	Allied radios, as required_x000D_
+•	Ground/Air platforms for design, as required_x000D_
+The Proposer Shall Provide the Following_x000D_
+•	Satellite access/Frequency authorization as required_x000D_
+•	Applications like FALCONVIEW, and transport layer software, documentation, integration support, laptops and ancillary equipment required to support the applications_x000D_
+•	Test applications, laptops and ancillary equipment required to support the test applications_x000D_
+•	Test Director_x000D_
+•	Application and test application integration support for lab and field tests_x000D_
+•	Flight safety certification as required_x000D_
+•	Field facilities and logistics support as required for interim demo_x000D_
+•	SATCOM and/or ISR Feed of same type, Legacy Radios, commercial radios, and First Responder Radios_x000D_
+•	Test Vehicles Ground/Air vehicles, including drivers/pilots_x000D_
+_x000D_
+3.  Page 15, section 1.1.6 Deliverables, under subtitle Reports and Documentation, replace with the following to specify the use of Earned Value Management techniques:_x000D_
+_x000D_
+Reports and Documentation: _x000D_
+•	Phase requirements and architecture description document describing the gateway design_x000D_
+•	A documented unit production cost estimate that is consistent with the final design projections and discuss the path ahead for achieving the projected unit cost_x000D_
+•	A complete project schedule including milestones_x000D_
+•	Monthly reports including monthly cost, schedule, and status reporting using commercially accepted Earned Value Management techniques._x000D_
+•	Test and evaluation plans for the two interim demonstrations, final demonstration, and _x000D_
+associated experimentation and risk reduction activities _x000D_
+•	Final test reports detailing test results_x000D_
+ _x000D_
+4.  Pages 15, replace section 1.1.8 entitled  Oral Presentation and Demonstration Expectations, in its entirety with the following: _x000D_
+_x000D_
+The proposer is requested to plan for an oral presentation in Washington, DC, which include a discussion of all testing and experimental results showing technical maturity of their proposed hardware, based on the TRL guidance in Appendix A, in support of the technical and cost proposal evaluation.  This event will occur not later than 60 days following proposal submittal, or a time negotiated between DARPA and the proposer.  The oral presentation and demonstration are limited to 6 (six) hours each.  _x000D_
+ _x000D_
+The oral presentations should address at a minimum, discussions of TRL assessments, supportive documentation, and determination of the proposed components. Test data for TRL 6 components/subsystems should be documented in sufficient detail and in a form that the review team can assess the testing methods, statistical significance of the tests, and results for each component/subsystem proposed for the MAINGATE node.  This information should follow the guidance given in Appendix A.  This oral presentation time is not for discussion or clarification of the full proposal.  However, the government may ask questions on proposals to help clarify any issues brought up during initial proposal review._x000D_
+ _x000D_
+The oral presentations and demonstrations should show that the proposer has met the basic program entry criteria to prove the proposed equipment, algorithm, network, etc. are mature enough to enter this program.  The oral presentation also shall address an initial projection of the unit production cost estimate and discuss the path ahead for achieving the projected unit cost. _x000D_
+See Appendix A for the appropriate TRL level description."_x000D_
+_x000D_
+5.  Page 22, Section 4.3.2.1 Volume I, Technical and Management Proposal, Section III, Detailed Proposal Information, G is revised as follows to address EVM:_x000D_
+_x000D_
+G.  {3}  Risk assessment and mitigation of key technical approaches and risk-based program management (i.e. EVM). _x000D_
+_x000D_
+6.  Page 27, Evaluation Section 5.1.4 entitled Proposer’s Experimentation and Demonstration Technical Approach, Schedule, Execution Plan, and Risk Description, replace in its entirety with the following to include EVM: _x000D_
+_x000D_
+5.1.4   Proposer’s Experimentation and Demonstration Technical Approach, Schedule, Execution Plan, and Risk Description._x000D_
+The proposers’ description of technical integration and system design will be analyzed with respect to demonstrated ability to execute an experiment and demonstration plan.  The plan should describe how the program metrics, schedule, documentation, and execution will lead to providing appropriate reporting.  The proposer’s abilities to aggressively pursue performance metrics in the shortest timeframe and to accurately account for that timeframe will be evaluated, as well as proposer’s ability to understand, identify, and mitigate any potential risk in schedule._x000D_
+The following will be evaluated based on contents of the proposal._x000D_
+•	The proposer’s experiment and demonstration plan, objectives, technical detail, and metrics_x000D_
+•	The proposed program schedule/milestones and the development schedule/milestones and whether they will result in a system capability that meets or exceeds the MAINGATE vision and objectives_x000D_
+•	Relationship of demonstration to transition objectives_x000D_
+•	Resource requirements and associated risk for critical items _x000D_
+•	Proposer’s ability to understand, identify, and mitigate any potential risk in cost and schedule managed by EVM techniques. _x000D_
+•	The plan to validate and demonstrate the network performance objectives (i.e., scalability, interoperability, robustness, etc.) of the network technologies_x000D_
+_x000D_
+ _x000D_
+7.  Page 43, the following replaces the “Test Site” and “Test Duration” entries in the table in Appendix A,_x000D_
+_x000D_
+Test Sites 	Interim Test Site_x000D_
+_x000D_
+Final Test Site 	Interim Test site to be proposed by performer (terrain similar to Ft. Benning) _x000D_
+Final Test Site expected to be Ft Benning/Hunter Leggitt, subject to negotiation. _x000D_
+Test Duration 	Interim: 2 x 2-4 week periods_x000D_
+Final:  10 weeks 	Inclusive of setup, personnel training, testing, and demonstrations _x000D_
+_x000D_
+_x000D_
+8.  Solicitation questions and answers are attached. _x000D_
+		Added: Jul 15, 2008 1:08 pm_x000D_
+		Amendment 3 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+The purpose of Amendment 3 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE) is to make the following change:_x000D_
+_x000D_
+1. Page 15, replace the last sentence of the first paragraph of section 1.1.8 entitled Oral Presentation and Demonstration Expectations with the following:_x000D_
+ _x000D_
+"The oral presentation is limited to 6 (six) hours total."_x000D_
+_x000D_
+2. Additional solicitation questions and answers are attached.
+		Added: Jul 23, 2008 3:58 pm_x000D_
+		Amendment 4 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+The purpose of Amendment 4 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE) is to make the following changes:_x000D_
+_x000D_
+1. Page 4, Part One, Overview information, change the PROPOSAL DUE DATE from 28 July 2008 to 26 August 2008._x000D_
+_x000D_
+2. Pages 15, replace section 1.1.8 entitled  Oral Presentation and Demonstration Expectations, in its entirety with the following: _x000D_
+_x000D_
+The proposer is requested to plan for an oral presentation in Washington, DC, which will include a discussion of all testing and experimental results showing technical maturity of their proposed hardware, based on the TRL guidance in Appendix A, in support of the technical and cost proposal evaluation.  This event will occur not later than 30 days following proposal submission, or a time negotiated between DARPA and the proposer.  The oral presentation is limited to 4 (four) hours total. _x000D_
+_x000D_
+The oral presentations should address at a minimum, discussions of TRL assessments, supportive documentation, and determination of the proposed components. Test data for TRL 6 components/subsystems should be documented in sufficient detail and in a form that the review team can assess the testing methods, statistical significance of the tests, and results for each component/subsystem proposed for the MAINGATE node.  This information should follow the guidance given in Appendix A.  This oral presentation time is not for discussion or clarification of the full proposal.  However, the government may ask questions on proposals to help clarify any issues brought up during initial proposal review._x000D_
+ _x000D_
+The oral presentations should show that the proposer has met the basic program entry criteria to prove the proposed equipment, algorithm, network, etc. are mature enough to enter this program.  The oral presentation also shall address an initial projection of the unit production cost estimate and discuss the path ahead for achieving the projected unit cost. See Appendix A for the appropriate TRL level description._x000D_
+_x000D_
+3.  Page 25, Section 4.4.1, change the proposal due date from 28 July 2008 to 26 August 2008.
+		Added: Aug 19, 2008 8:21 am_x000D_
+		Amendment 5 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+The purpose of Amendment 5 to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE) is to provide the following solicitation questions and answers:_x000D_
+_x000D_
+_x000D_
+78.  "Under option 1 and option 2, the Proposer shall provide a quantity of 1,000 MAINGATE nodes at the recurring production unit cost target of $60K per unit."_x000D_
+_x000D_
+a.  Does this statement imply the contractor bid a non-budgetary ROM, CPFF, or other for the 1000 MAINGATE Nodes in Option 1 and Option 2?   _x000D_
+_x000D_
+Answer:  The Proposer shall provide FFP options for 1000 units at $60K per unit price, plus expense for  pre-LUT equipment checkout, operator training, and on-site maintenance and fixes.  Please see the answers to earlier questions (including 9, 39, 47, and 65) on this subject._x000D_
+_x000D_
+b.  Are there any other deliverables or scope of effort associated with Options 1 and Option 2 that needs to be proposed by the contractor?  _x000D_
+_x000D_
+Answer:  See item 1.  The LUTs for the two options are projected to be on the order of a Cobra Gold exercise.  Proposers should include activities and expenses for each option as appropriate, including pre-LUT equipment checkout, operator training, and on-site maintenance and fixes.  Please see the answers to earlier questions (including 9, 39, 47, and 65) on this subject._x000D_
+_x000D_
+		Added: Dec 11, 2008 4:01 pm_x000D_
+		AMENDMENT 6 to BAA08-21_x000D_
+Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+The purpose of Amendment 06 to BAA08-21 is to provide changes to Appendix A as detailed in the attached document entitled Amendment 6 Appendix A Changes._x000D_
+_x000D_
+A revised Appendix A incorporating the Amendment 6 changes is also attached._x000D_
+		Added: Dec 18, 2008 5:22 pm_x000D_
+		Amendment 7 to BAA-08-21_x000D_
+Mobile Ad hoc Interoperability Network GATEway (MAINGATE)_x000D_
+_x000D_
+The purpose of this amendment to BAA08-21 Mobile Ad hoc Interoperability Network GATEway (MAINGATE) is to provide the following solicitation questions and answers:_x000D_
+_x000D_
+Question 79: Provide rationale regarding the Amendment 06 High Band Performance Changes (1,2,4,&amp; 5)._x000D_
+_x000D_
+Answer 79:  Amendment 6 provides Proposer’s greater flexibility in meeting the MAINGATE SWAP, cost and/or performance requirements. _x000D_
+_x000D_
+Question 80a:  Specifically, does the move of the "Above UHF (High Band) use of directional antennas" as well as the move of the Overall Informational Rate "High Band (Above UHF) of &gt; 10 Mbps (T); &gt;100 Mbps</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jan 24, 2014 11:26 am</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 27, 2014 10:43 am</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 15, 2014 2:28 pm_x000D_
+The Defense Advanced Research Projects Agency (DARPA) is soliciting innovative research proposals of interest to the Information Innovation Office (I2O). I2O explores game-changing technologies in the fields of information science and technology to anticipate and create rapid shifts in the complex national security landscape. Conflict can occur in traditional domains such as land, sea, air, and space, and in emerging domains such as cyber and other types of irregular warfare. I2O's research portfolio is focused on anticipating new modes of warfare in these emerging areas and developing the concepts and tools necessary to provide a decisive information advantage for the U.S. and its allies._x000D_
+_x000D_
+As much of the world-wide economy has moved into cyberspace, protecting and assuring information flows over these networks has become a priority. Most networks today rely on the successive discovery of vulnerabilities and deployment of patches to maintain security. Even after patching, new vulnerabilities are often introduced in successive releases, and may even be introduced by the patches themselves. The I2O defensive cyber portfolio is largely focused on changing this paradigm through a variety of methods such as heterogeneity, formal methods proofs, secure code generation, and automation. Exploration of offensive methods is essential to expand and inform defensive work. The I2O portfolio covers a broad space, investigating enterprise networks, secure communications, industrial systems, and purpose-built military systems._x000D_
+_x000D_
+I2O is also pursuing information technologies to change the way we perceive and interact with our surroundings. Exponential improvements in computing power, network bandwidth and storage density combine with ever more pervasive sensing and measurement technologies to provide new and powerful ways to gain insight into the world. Essentially all human activities that can be measured, from mercantile to military, are being quantitatively re-examined in the context of this new, "big data", capability. Early demonstrations have produced remarkable insights into human activities and enabled quantitative decision making. I2O's investment portfolio begins at the fundamental science level with programs investigating varied topics from the mathematical properties of graphs, to online correlation for societal unrest. The portfolio also addresses fundamental computational issues such as novel algorithm design, natural language processing, and architectures for efficient processing of streamed data. Closer to the customer, I2O works with the national security community on operational data to ensure continuous transition of tools as programs make progress._x000D_
+I2O is interested in submissions related to the general areas discussed above and to the following specific areas:_x000D_
+• secure cloud computing systems_x000D_
+• software code with mathematically provable security properties_x000D_
+• automated cyber security systems_x000D_
+• preserving security on untrustworthy computational infrastructure_x000D_
+• insider threat detection and response_x000D_
+• maintaining security and mission effectiveness of systems after attack, including detection, cleanup, and reconstitution_x000D_
+• computational tools and scalable algorithms_x000D_
+• advanced user interfaces_x000D_
+• pre-processing technology for data sets, including those that are corrupted, incomplete, or disaggregated_x000D_
+• processing and computational approaches (including, but not limited to, novel algorithm design, natural language processing, and architecture systems) for data sets that may be multimodal, realtime-streamed, or on a scale for which storage is infeasible_x000D_
+• algorithm development for analysis of dynamic, unlinked and scripted content_x000D_
+• tools to draw inferences, deduce relationships, make correlations or detect anomalies working solely from data sets that are weak proxies for the underlying quantities of interest_x000D_
+• fusion of data from varied modalities ranging from traditional overhead sensing to open source data_x000D_
+• automated language translation and understanding_x000D_
+• fundamental science and mathematics supporting data analytics including:_x000D_
+o mathematical properties of graphs_x000D_
+o online correlation for societal unrest_x000D_
+o virtual and blended worlds_x000D_
+o machine-to-machine internet-of-things_x000D_
+• tools to assist emerging technologies in:_x000D_
+o virtuality and immersivity_x000D_
+o ubiquitous sensing_x000D_
+o persuasion and cognitive hacking_x000D_
+o social multimedia_x000D_
+o hypercomputing_x000D_
+• environment modeling and reconstruction_x000D_
+• crowd-sourced approaches to data processing_x000D_
+• modeling of human activity and proclivities_x000D_
+• analytics of economic systems_x000D_
+• technologies for scalable education and training_x000D_
+• electronic warfare and cyber systems_x000D_
+• biometrics and provenance_x000D_
+• online information validation and evidence collection_x000D_
+• resilient command and control systems, including secure information exchange_x000D_
+• assured information access_x000D_
+• privacy science and systems_x000D_
+• semantic analysis_x000D_
+• programming languages_x000D_
+_x000D_
+I2O seeks unconventional approaches that are outside the mainstream, challenge accepted assumptions, and have the potential to radically change established practice. Proposed research should investigate innovative approaches that enable revolutionary advances in_x000D_
+science, devices, or systems. Specifically excluded is research that primarily results in evolutionary improvements to the existing state of the art._x000D_
+_x000D_
+See attached "I2O OFFICE WIDE DARPA-BAA-14-39" PDF for further details.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 28, 2014 11:16 am_x000D_
+Communications in Contested Environments (C2E)</t>
+  </si>
+  <si>
+    <t>Added: Nov 03, 2014 11:09 am_x000D_
+		 _x000D_
+_x000D_
+DATE: Tuesday, 16 December 2014_x000D_
+LOCATION:  Capital Conference Center, 3601 Wilson Boulevard, Arlington, VA, 22201_x000D_
+REGISTRATION DEADLINE: Tuesday, 9 December 2014 at 12:00pm EST_x000D_
+REGISTRATION WEBSITE:    _x000D_
+TECHNICAL POC: Dr. Doug Weber, DARPA/BTO_x000D_
+E-mail:  Ms. Margaret Rowland,    _x000D_
+_x000D_
+The Biological Technologies Office (BTO) of the Defense Advanced Research Projects Agency (DARPA) is sponsoring a Proposers' Day for the potential proposer community, in advance of a planned Broad Agency Announcement (BAA) for the Electrical Prescriptions (ElectRx) Program, DARPA-BAA-15-06.  The Proposers' Day will be held on 16 December 2014 at the Capital Conference Center in Arlington, VA.  Advanced registration is required.  DARPA-BAA-15-06 is expected to be released prior to the Proposers' Day.  The goals of the Proposers' Day are:_x000D_
+•·To introduce the science and technology community (industry, academia, and government) to the ElectRx program vision and goals;_x000D_
+•·To facilitate interaction between investigators that may have capabilities to develop elements of interest and relevance to ElectRx goals; and_x000D_
+•·To encourage and promote teaming arrangements among organizations that have the relevant expertise, research facilities and capabilities for executing research and development responsive to the ElectRx program goals._x000D_
+The Proposers' Day will include overview presentations by government personnel and invited scientists. The meeting will also facilitate team building among the participants.See Attachment (1) for Program Objective and Description. _x000D_
+ _x000D_
+There will not be a registration fee for this workshop.  Registration is limited by the venue capacity, and early registration is strongly recommended.  .  The registration cutoff date is Tuesday, 9 December 2014 at 12:00pm EST, or once attendance capacity is met, whichever comes first.  There will be no on-site registration.   _x000D_
+ An online registration form, foreign national visit request form, and various other meeting details can be found at the registration website, . _x000D_
+All attendees are required to present government-issued photo identification upon entry to the event. Non-US citizens are required to submit a DARPA Form 60 "Foreign National Visit Request," which is available on the registration website. The completed DARPA Form 60 must be uploaded to the registration website by Tuesday, 9 December 2014 at 12:00pm EST.  _x000D_
+ All administrative and technical questions should be directed to Ms. Margaret Rowland, (). Please refer to the ElectRx Special Notice number (DARPA-SN-15-03) in all correspondence. This announcement is not a request for proposals, any so sent will be disregarded._x000D_
+ This SN is issued solely for information and potential new program planning purposes; the SN does not constitute a formal solicitation for proposals or proposal abstracts. In accordance with FAR 15.201(e), responses to this notice are not offers and cannot be accepted by the Government to form a binding contract. Submission is voluntary and is not required to propose to subsequent Broad Agency Announcements (if any) or research solicitations (if any) on this topic. DARPA will not provide reimbursement for costs incurred in responding to this SN. Respondents are advised that DARPA is under no obligation to acknowledge receipt of the information received, or provide feedback to respondents with respect to any information submitted under this SN. NO CLASSIFIED INFORMATION SHOULD BE INCLUDED IN THE SN RESPONSE. _x000D_
+		Added: Dec 01, 2014 12:11 pm_x000D_
+		 _x000D_
+The purpose of  to DARPA-SN-15-03, the ElectRx Proposers' Day Workshop, ._x000D_
+ _x000D_
+_x000D_
+ _x000D_
+DATE: Tuesday, 16 December 2014_x000D_
+ _x000D_
+_x000D_
+ _x000D_
+_x000D_
+_x000D_
+REGISTRATION DEADLINE: Tuesday, 9 December 2014 at 12:00 pm ET REGISTRATION WEBSITE: _x000D_
+TECHNICAL POC: Dr. Doug Weber, DARPA/BTO_x000D_
+E-mail:  Ms. Margaret Rowland, _x000D_
+_x000D_
+The Biological Technologies Office (BTO) of the Defense Advanced Research Projects Agency (DARPA) is sponsoring a Proposers' Day for the potential proposer community, in advance of a planned Broad Agency Announcement (BAA) for the Electrical Prescriptions (ElectRx) Program, DARPA-BAA-15-06.  The Proposers' Day will be held on 16 December 2014 at the Westin Arlington Gateway in Arlington, VA. Advanced registration is required.  DARPA-BAA-15-06 is expected to be released prior to the Proposers' Day.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Mar 09, 2015 2:40 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Sep 18, 2014 1:19 pm_x000D_
+DARPA is seeking innovative ideas and disruptive technologies that offer the potential for significant capability improvement across the Strategic Technology Office focus areas. This includes technology development related to Battle Management, Command and Control (BMC2), Communications and Networks, Electronic Warfare, Intelligence, Surveillance, and Reconnaissance (ISR), Position, Navigation, and Timing (PNT), Maritime, and Foundational Strategic Technologies and Systems._x000D_
+_x000D_
+Proposed research should investigate approaches that enable revolutionary advances in science, devices, or systems. DARPA anticipates funding a limited number of proposals under this BAA. Specifically excluded are existing mature solutions and research that results in evolutionary improvements to existing technologies._x000D_
+See attachment for the full solicitation._x000D_
+_x000D_
+Added:_x000D_
+Apr 03, 2015 5:05 pm_x000D_
+_x000D_
+Under the Broad Agency Announcement No. DARPA-BAA-14-48, Sonalysts, Inc. has been awarded a new contract for the perofrmance of the Networked Operations for Undersea Dominance:  Multi-Dimensional Operational Trade-space Analysis Program.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 16, 2014 11:02 am_x000D_
+The mission of DSO is to identify and pursue high-risk/high-payoff research initiatives throughout a broad spectrum of science and engineering disciplines and to transform these initiatives into important, radically new military capabilities.  In support of this mission, DSO is soliciting innovative research concepts of interest to defense and national security._x000D_
+_x000D_
+See Attached DARPA-BAA-14-46._x000D_
+_x000D_
+Added:_x000D_
+Mar 25, 2015 8:12 am_x000D_
+Award Notice for DARPA-BAA-14-46. Contract awarded to Niitek, Inc._x000D_
+Added:_x000D_
+Apr 01, 2015 10:22 am_x000D_
+Award Notice for DARPA-BAA-14-46. Contract awarded to AMI Research &amp; Development._x000D_
+Added:_x000D_
+May 06, 2015 10:01 am_x000D_
+Award Notice for DARPA-BAA-14-46. Contract awarded to Aixxia, LLC._x000D_
+Added:_x000D_
+Jun 16, 2015 8:39 am_x000D_
+_x000D_
+The Defense Sciences Office (DSO) Office-wide Broad Agency Announcement (BAA) (DARPA-BAA-14-46) is hereby amended to extend the full proposal deadline from June 16, 2015 to July 1, 2015._x000D_
+_x000D_
+_x000D_
+_x000D_
+See Attached Amendment 1 to DARPA-BAA-14-46.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jun 22, 2015 11:48 am_x000D_
+_x000D_
+Under DARPA Broad Agency Announcement No. DARPA-BAA-14-35 Raytheon Company, Missile Sytems, has been awarded a new contract to perform the Multi Azimuth Defense Fast Intercept Round Engagement System (MAD-FIRES) program, Phase 0.</t>
+  </si>
+  <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=2a34df9e82288cdd2f04fe502dc9f99a&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=f876194c1f8c0962b7a22593ea385eaf&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=d6b256b7fbb7cf9e110b3d137cf7cf1a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=7d0818b265929e67ab7db88874de7a52&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5ae87e0e148cdc31c700d0508de0fe3e&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=a49c9fa1e58084b45ceb87f0314dad3b&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=1f67b311316f7ea7d523f79a40b779da&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e77d5e35e9a3e47b3ae85ddadacd44b7&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=9e9cb8f1a0e0c48038226f7260f582ae&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=3b2b3d9518912051abe5a579914ceaae&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4b3fe9b54fdb654caf88741c392588b8&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=33c2c5114ba45c2e55110c01f753d541&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=099d970260091992934eb8762808585f&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4880edc9580012d7395eab74e6c4e807&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=76a5fb3ec7437ddd896d8ef39927484b&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=416991b87de02bf0ed38cb32c55592fc&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=8a079a1c5a295f67cdeb45dfb12fb341&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=5872da337aa86cfe15826608f2e73804&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=cc3a6630c3673daa5bcc97e1438e13f0&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=65c0e339e237e0642bf70c4afdfdaa4c&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=9b06bbae03403de99dd15fbeb6607b01&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=a182d82d49316750e060c512c9484003&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=64757a5fd7098f3245404009f640870e&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=6a2f8245ece614eb269853a884753ca5&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=b14a117bdb24046b7d59d462cd86ca88&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=8a89dda065e5c8b5595df421cdafae8d&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=3c5aaf5400ba6f87575ae5f2b5c0e313&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=9fe9add6d22453f09c6e5c0ff7425e3e&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=2ea7c2211ac2f8aa464cf572601f0d5c&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=b7db3e961fe77f48ff3a505135a7181a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=b1eab3e7fc7ed60d13d1fa300099fe92&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e1330b7c4b9bb2450dd9245e53ac7d7a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
     <t>Microsystems Technology Office (MTO) Office-Wide Broad Agency Announcement (BAA)</t>
   </si>
   <si>
     <t>THoR Proposer's Day Workshop</t>
+  </si>
+  <si>
+    <t>DAHI Electronics for Next Generation EW Support</t>
+  </si>
+  <si>
+    <t>A -- DARPA INDUSTRY DAY WORKSHOP ANNOUNCEMENT - NETWORKING IN EXTREME ENVIRONMENTS (NETEX)</t>
+  </si>
+  <si>
+    <t>A -- IMMUNE BUILDING DEMONSTRATION: RESEARCH AND DEVELOPMENT SOURCES SOUGHT</t>
+  </si>
+  <si>
+    <t>A -- Geolocation and Navigation Via Signals of Opportunity</t>
+  </si>
+  <si>
+    <t>A -- Request for Information (RFI) for Deep Bleeder Acoustic Coagulation</t>
+  </si>
+  <si>
+    <t>A -- SPO OFFICE-WIDE BAA</t>
+  </si>
+  <si>
+    <t>A -- Request for Information (RFI) for New Optical System Technologies</t>
+  </si>
+  <si>
+    <t>A -- Chem/Bio Program Managers</t>
+  </si>
+  <si>
+    <t>A -- WALRUS - GLOBAL REACH AIR VEHICLE</t>
+  </si>
+  <si>
+    <t>D -- Red Team Information Technology (IT) Support and Services</t>
+  </si>
+  <si>
+    <t>A -- INNOVATIVE TACTICAL TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>A -- Notice of Intent to Award Sole Source Contract</t>
+  </si>
+  <si>
+    <t>A -- Request for Information (RFI):  Contact-Lens Scale See-Through Displays</t>
+  </si>
+  <si>
+    <t>A -- Intent to Sole Source</t>
+  </si>
+  <si>
+    <t>R -- Request for Information, Human Resources (HR) Recruitment ? Sourcing and Placement of DARPA Program Managers (PMs)</t>
+  </si>
+  <si>
+    <t>A -- Notice of Intent to Award a Sole Source Contract - IAT University of Texas Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continental-Scale Quantum Key Distribution </t>
+  </si>
+  <si>
+    <t>A -- Microsystems Technology Office-Wide</t>
+  </si>
+  <si>
+    <t>XPASS Study</t>
+  </si>
+  <si>
+    <t>Amendment 7 to BAA-08-21 MAINGATE</t>
+  </si>
+  <si>
+    <t>Tensioned Electronically Steerable Lens Array (TESLA)</t>
+  </si>
+  <si>
+    <t>Experimental Spaceplane (XS-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Innovation Office (I2O) Office Wide </t>
+  </si>
+  <si>
+    <t>Communications in Contested Environments (C2E)</t>
+  </si>
+  <si>
+    <t>Electrical Prescriptions (ElectRx) Proposer's Day</t>
+  </si>
+  <si>
+    <t>Advanced Scanning Technology for Imaging Radars (ASTIR) Development of Electronic Sub-Reflector Technology, Technical Area 2 (TA2)</t>
+  </si>
+  <si>
+    <t>Strategic Technologies</t>
+  </si>
+  <si>
+    <t>DSO Office-Wide</t>
+  </si>
+  <si>
+    <t>Multi Azimuth Defense Fast Intercept Round Engagement System (MAD-FIRES)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +3304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,30 +3347,30 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="b">
+        <v>67</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="b">
+        <v>72</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="b">
+        <v>248</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +3378,28 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="b">
+        <v>73</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="b">
+        <v>249</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -780,28 +3407,28 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="b">
+        <v>74</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="b">
+        <v>250</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
@@ -810,30 +3437,30 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="b">
+        <v>68</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="b">
+        <v>75</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="b">
+        <v>251</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -841,28 +3468,28 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="b">
+        <v>76</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="b">
+        <v>252</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
@@ -870,29 +3497,1535 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" t="s">
+        <v>268</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" t="s">
+        <v>269</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" t="s">
+        <v>271</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" t="s">
+        <v>273</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I36" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" t="s">
+        <v>285</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" t="s">
+        <v>293</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" t="s">
+        <v>294</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" t="s">
+        <v>295</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" t="s">
+        <v>296</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" t="s">
+        <v>299</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" t="s">
+        <v>300</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55" t="s">
+        <v>301</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I56" t="s">
+        <v>302</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" t="s">
+        <v>303</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>190</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58" t="s">
+        <v>304</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -903,6 +5036,57 @@
     <hyperlink ref="H5" r:id="rId4"/>
     <hyperlink ref="H6" r:id="rId5"/>
     <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="H30" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId32"/>
+    <hyperlink ref="H34" r:id="rId33"/>
+    <hyperlink ref="H35" r:id="rId34"/>
+    <hyperlink ref="H36" r:id="rId35"/>
+    <hyperlink ref="H37" r:id="rId36"/>
+    <hyperlink ref="H38" r:id="rId37"/>
+    <hyperlink ref="H39" r:id="rId38"/>
+    <hyperlink ref="H40" r:id="rId39"/>
+    <hyperlink ref="H41" r:id="rId40"/>
+    <hyperlink ref="H42" r:id="rId41"/>
+    <hyperlink ref="H43" r:id="rId42"/>
+    <hyperlink ref="H44" r:id="rId43"/>
+    <hyperlink ref="H45" r:id="rId44"/>
+    <hyperlink ref="H46" r:id="rId45"/>
+    <hyperlink ref="H47" r:id="rId46"/>
+    <hyperlink ref="H48" r:id="rId47"/>
+    <hyperlink ref="H49" r:id="rId48"/>
+    <hyperlink ref="H50" r:id="rId49"/>
+    <hyperlink ref="H51" r:id="rId50"/>
+    <hyperlink ref="H52" r:id="rId51"/>
+    <hyperlink ref="H53" r:id="rId52"/>
+    <hyperlink ref="H54" r:id="rId53"/>
+    <hyperlink ref="H55" r:id="rId54"/>
+    <hyperlink ref="H56" r:id="rId55"/>
+    <hyperlink ref="H57" r:id="rId56"/>
+    <hyperlink ref="H58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -910,7 +5094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -950,62 +5134,941 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="b">
+        <v>71</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="b">
+        <v>338</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>384</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" t="b">
+        <v>416</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="b">
+        <v>306</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="b">
+        <v>339</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>385</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="b">
+        <v>417</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I8" t="s">
+        <v>421</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I9" t="s">
+        <v>422</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I10" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I11" t="s">
+        <v>424</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" t="s">
+        <v>425</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>363</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I13" t="s">
+        <v>426</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>427</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>365</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" t="s">
+        <v>428</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" t="s">
+        <v>429</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I18" t="s">
+        <v>431</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>369</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I19" t="s">
+        <v>432</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I20" t="s">
+        <v>433</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>371</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" t="s">
+        <v>434</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" t="s">
+        <v>435</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I23" t="s">
+        <v>436</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I24" t="s">
+        <v>437</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I25" t="s">
+        <v>438</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I26" t="s">
+        <v>439</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" t="s">
+        <v>377</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I27" t="s">
+        <v>440</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>378</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I28" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>379</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I29" t="s">
+        <v>442</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I30" t="s">
+        <v>443</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I31" t="s">
+        <v>444</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
+        <v>382</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" t="s">
+        <v>445</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>383</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I33" t="s">
+        <v>446</v>
+      </c>
+      <c r="J33">
         <v>1</v>
       </c>
     </row>
@@ -1013,6 +6076,36 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
+    <hyperlink ref="H29" r:id="rId28"/>
+    <hyperlink ref="H30" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fbo_solicitations.xlsx
+++ b/fbo_solicitations.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="notices" sheetId="1" r:id="rId1"/>
-    <sheet name="filtered_notices" sheetId="2" r:id="rId2"/>
+    <sheet name="solicitations" sheetId="1" r:id="rId1"/>
+    <sheet name="filtered_solicitations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="451">
   <si>
     <t>office</t>
   </si>
@@ -1998,6 +1998,9 @@
     <t>DARPA-BAA-14-45</t>
   </si>
   <si>
+    <t>DARPA-BAA-15-04</t>
+  </si>
+  <si>
     <t>Information Innovation Office</t>
   </si>
   <si>
@@ -2751,6 +2754,15 @@
 Under DARPA Broad Agency Announcement No. DARPA-BAA-14-35 Raytheon Company, Missile Sytems, has been awarded a new contract to perform the Multi Azimuth Defense Fast Intercept Round Engagement System (MAD-FIRES) program, Phase 0.</t>
   </si>
   <si>
+    <t>Added:_x000D_
+Jun 30, 2015 11:59 am_x000D_
+Base Award Amount: $585,704_x000D_
+Option (1) Amount: $597,378_x000D_
+Option (2) Amount: $609,286_x000D_
+Option (3) Amount: $621,431_x000D_
+TOTAL Potential Contract Value: $2,413,799</t>
+  </si>
+  <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=2a34df9e82288cdd2f04fe502dc9f99a&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
@@ -2847,6 +2859,9 @@
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e1330b7c4b9bb2450dd9245e53ac7d7a&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=aacab890da9fd621dc0cb5e311b27ee8&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
     <t>Microsystems Technology Office (MTO) Office-Wide Broad Agency Announcement (BAA)</t>
   </si>
   <si>
@@ -2938,6 +2953,9 @@
   </si>
   <si>
     <t>Multi Azimuth Defense Fast Intercept Round Engagement System (MAD-FIRES)</t>
+  </si>
+  <si>
+    <t>Low Resource Languages for Emergent Incidents (LORELEI)</t>
   </si>
 </sst>
 </file>
@@ -5094,7 +5112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5143,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5152,13 +5170,13 @@
         <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -5172,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5181,13 +5199,13 @@
         <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5201,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5210,10 +5228,10 @@
         <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I4" t="s">
         <v>262</v>
@@ -5230,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5239,13 +5257,13 @@
         <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -5259,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5268,13 +5286,13 @@
         <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -5288,22 +5306,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -5317,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5326,13 +5344,13 @@
         <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -5346,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5355,13 +5373,13 @@
         <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -5375,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5384,13 +5402,13 @@
         <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5404,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5413,13 +5431,13 @@
         <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -5433,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5442,13 +5460,13 @@
         <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -5462,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5471,13 +5489,13 @@
         <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -5491,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5500,13 +5518,13 @@
         <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -5520,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5529,13 +5547,13 @@
         <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -5549,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5558,13 +5576,13 @@
         <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -5578,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5587,13 +5605,13 @@
         <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -5607,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5616,13 +5634,13 @@
         <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I18" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -5636,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5645,13 +5663,13 @@
         <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -5665,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5674,13 +5692,13 @@
         <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I20" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -5694,22 +5712,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I21" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -5723,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5732,13 +5750,13 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I22" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5752,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5761,13 +5779,13 @@
         <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I23" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5781,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5790,13 +5808,13 @@
         <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I24" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -5810,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5819,13 +5837,13 @@
         <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I25" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -5839,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5848,13 +5866,13 @@
         <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I26" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -5865,13 +5883,13 @@
         <v>330</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5880,13 +5898,13 @@
         <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I27" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5900,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5909,13 +5927,13 @@
         <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I28" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -5929,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5938,13 +5956,13 @@
         <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I29" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -5958,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5967,13 +5985,13 @@
         <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I30" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -5990,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5999,13 +6017,13 @@
         <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I31" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -6022,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -6031,13 +6049,13 @@
         <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I32" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6051,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6060,15 +6078,44 @@
         <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I33" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" t="s">
+        <v>385</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="I34" t="s">
+        <v>450</v>
+      </c>
+      <c r="J34">
         <v>1</v>
       </c>
     </row>
@@ -6106,6 +6153,7 @@
     <hyperlink ref="H31" r:id="rId30"/>
     <hyperlink ref="H32" r:id="rId31"/>
     <hyperlink ref="H33" r:id="rId32"/>
+    <hyperlink ref="H34" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fbo_solicitations.xlsx
+++ b/fbo_solicitations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="559">
   <si>
     <t>office</t>
   </si>
@@ -218,6 +218,69 @@
     <t>DARPA-SN-15-41</t>
   </si>
   <si>
+    <t>DARPA-SN-15-55</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-39</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-49</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-42</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-58</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-61</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-62</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-63</t>
+  </si>
+  <si>
+    <t>HR0011-15-R-0003</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-47</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-64</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-54</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-66</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-72</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-40</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-55</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-69</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-65</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-56</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-68</t>
+  </si>
+  <si>
+    <t>DARPA-BAA-15-48</t>
+  </si>
+  <si>
     <t>Tactical Technology Office</t>
   </si>
   <si>
@@ -233,6 +296,9 @@
     <t>Microsystems Technology Office</t>
   </si>
   <si>
+    <t>Information Innovation Office</t>
+  </si>
+  <si>
     <t>09/04/2015</t>
   </si>
   <si>
@@ -402,6 +468,54 @@
   </si>
   <si>
     <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
   </si>
   <si>
     <t>Presolicitation</t>
@@ -1560,6 +1674,161 @@
 See attached Amendment 1 to DARPA-SN-15-41.</t>
   </si>
   <si>
+    <t>Added:_x000D_
+Jul 02, 2015 10:46 am_x000D_
+See attached DARPA-SN-15-55 document.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 02, 2015 8:29 am_x000D_
+The mission of the Defense Advanced Research Projects Agency (DARPA) Defense Sciences Office (DSO) is to identify and pursue high-risk, high-payoff research initiatives across a broad spectrum of science and engineering disciplines and to transform these initiatives into important, radically new, game-changing technologies for U.S. national security.  In support of this mission, this DSO Office-wide BAA invites proposers to submit innovative basic or applied research concepts in one or more of the following technical areas:  Physical Systems; Mathematics, Modeling and Design; and Human-Machine Systems.  Proposed research should investigate innovative approaches that enable revolutionary advances.  DSO is explicitly not interested in approaches or technologies that primarily result in evolutionary improvements to the existing state of practice._x000D_
+Added:_x000D_
+Jul 08, 2015 10:09 am_x000D_
+DARPA-BAA-15-39, Defense Sciences Office (DSO) Office-wide Broad Agency Announcement (BAA). Amendment 1_x000D_
+_x000D_
+The Defense Sciences Office (DSO) Office-wide Broad Agency Announcement (BAA) (DARPA-BAA-15-39) is hereby amended to revise the full proposal deadline from July 2, 2016 to June 30, 2016._x000D_
+_x000D_
+The sections below are amended as follows:_x000D_
+_x000D_
+Part I: Overview Information_x000D_
+• Dates_x000D_
+o	Full Proposal Due Date:  June 30, 2016, 4:00 p.m.(Eastern Time)._x000D_
+_x000D_
+Section IV. C. 3. Full Proposal Date_x000D_
+_x000D_
+The proposal package--full proposal (Volumes 1 and 2) and, as applicable, proprietary subcontractor cost proposals, classified appendices to unclassified proposals-- must be submitted per the instructions outlined herein and received by DARPA no later than 4:00 p.m. (Eastern Time), on or before June 30, 2016.  Proposals received after this time may not be reviewed.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 13, 2015 2:45 pm_x000D_
+DARPA is soliciting innovative research proposals in the area of radio-frequency (RF) communications and sensing technologies for microsatellites. In this solicitation, "microsatellites" will be used to refer to the class of satellites with a mass of 10-100 kg.  Proposed research should investigate innovative approaches that enable revolutionary advances in performance for this class of satellite. Specifically excluded is research that primarily results in evolutionary improvements to the existing state of practice._x000D_
+_x000D_
+This BAA seeks technology demonstrations of concepts that enable high-performance RF communications and sensing on microsatellites. DARPA has identified two key technology areas of interest: lightweight deployable antennas and advanced RF processing, to be described in the subsequent sections in detail. DARPA envisions a rapid (21 month) technology demonstration for solutions in these technology areas._x000D_
+_x000D_
+_x000D_
+Please see attached DARPA-BAA-15-49 for full details.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 15, 2015 2:34 pm_x000D_
+DARPA is soliciting innovative research proposals in the area of spectrum sharing between radar and communications systems, following on prior work carried out in Phase 1 of the Shared Spectrum Access for Radar and Communications (SSPARC) program.  Proposed research should investigate innovative approaches that enable revolutionary advances in science, devices, or systems.  Specifically excluded is research that primarily results in evolutionary improvements to the existing state of practice._x000D_
+_x000D_
+This BAA solicits work on codesigned radar and communication systems. Multiple awards are anticipated. The anticipated duration of projects awarded under this BAA is 12 months.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 15, 2015 2:36 pm_x000D_
+_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) intends to award a sole source purchase order for a subscription for online access to all titles included in Aviation Week Intelligence Network's (AWIN) digital library and eBook collection for a sixteen (16) month period of performance, effective from September 1, 2015 to December 31, 2016. This is a sole source procurement for commercial items in accordance with FAR Subpart 12.1. AWIN will provide a unique, specific set of subscription services that will ensure DARPA's research efforts in the areas of Aerospace and Aviation through a comprehensive database of computing literature. This announcement constitutes the only synopsis for this requirement and is issued for notification purposes only. Any interested party should contact the primary point of contact for more information regarding this posting; all correspondence shall be received no later than July 29, 2015 at 11:00 AM EST. Award will be conducted under the provisions of FAR Subpart 13 Simplified Acquisition Procedures. All responsible sources may submit a proposal or quotation which shall be considered by the agency.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 17, 2015 9:46 am_x000D_
+_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) intends to award a sole source purchase order for a subscription for online access to all titles included in The Institute for Electrical and Electronics Engineers (IEEE) Electronic Library, IEEE-Wiley eBooks Library, and MIT Press eBooks collection for a twenty-four month period of performance effective from October 1, 2015 to September 30, 2017. This is a sole source procurement for commercial items in accordance with FAR Subpart 12.1. IEEE will provide a unique, specific set of subscription services that will ensure DARPA’s research efforts in the areas of Engineering and Computing through a comprehensive database of computing literature. This announcement constitutes the only synopsis for this requirement and is issued for notification purposes only. Any interested party should contact the primary point of contact for more information regarding this posting; all correspondence shall be received no later than July 31, 2015 at 11:00 AM EST. Award will be conducted under the provisions of FAR Subpart 13 Simplified Acquisition Procedures. All responsible sources may submit a proposal or quotation which shall be considered by the agency.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 17, 2015 10:13 am_x000D_
+_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) intends to award a sole source purchase order for a subscription for online access to all titles included in The Optical Society (OSA) Optics InfoBase collection for a twelve month period of performance effective from January 1, 2016 to December 31, 2016. This is a sole source procurement for commercial items in accordance with FAR Subpart 12.1. OSA will provide a unique, specific set of subscription services that will ensure DARPA’s research efforts in the areas of Optics and Photonics through a comprehensive database of computing literature. This announcement constitutes the only synopsis for this requirement and is issued for notification purposes only. Any interested party should contact the primary point of contact for more information regarding this posting; all correspondence shall be received no later than July 31, 2015 at 11:00 AM EST. Award will be conducted under the provisions of FAR Subpart 13 Simplified Acquisition Procedures. All responsible sources may submit a proposal or quotation which shall be considered by the agency.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 17, 2015 10:55 am_x000D_
+_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) intends to award a sole source purchase order for a subscription for online access to all titles included in The Society of Photo-Optical Instrumentation Engineers, Inc. (SPIE) digital library and eBook collection for a twelve month period of performance effective from January 1, 2016 to December 31, 2016. This is a sole source procurement for commercial items in accordance with FAR Subpart 12.1. SPIE will provide a unique, specific set of subscription services that will ensure DARPA’s research efforts in the area of Photo-Optical Instrumentation through a comprehensive database of computing literature. This announcement constitutes the only synopsis for this requirement and is issued for notification purposes only. Any interested party should contact the primary point of contact for more information regarding this posting; all correspondence shall be received no later than July 31, 2015 at 11:00 AM EST. Award will be conducted under the provisions of FAR Subpart 13 Simplified Acquisition Procedures. All responsible sources may submit a proposal or quotation which shall be considered by the agency.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 17, 2015 1:53 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 17, 2015 3:24 pm_x000D_
+_x000D_
+DARPA is soliciting research proposals for a comprehensive exploration of the effects of extreme physical stresses on wear-out and aging mechanisms in CMOS FETs at 28nm and/or 14nm lithography node. The objective of the IRIS Program Phase III is to explore aging effects in both transistors and transistor interconnects to create predictive models and to test how precisely and rapidly specific wear-out mechanisms can be asserted, for the purposes of accelerating burn-in, aging, and wear-out._x000D_
+_x000D_
+See the full DARPA-BAA-15-47 document attached.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 23, 2015 8:39 am_x000D_
+See attached DARPA-SN-15-64, Request for Information.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 23, 2015 5:41 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 24, 2015 1:50 pm_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA) will host a "Wait, What? A Future Technology Forum" on September 9 through 11, 2015, at the America's Center Convention Complex located at 701 Convention Plaza, St. Louis, MO 63101.   Meeting times, speakers and additional details are available at the Forum website below._x000D_
+DARPA's "Wait, What? A Future Technology Forum" is an important component of DARPA's broad effort to be aware of emerging and pending technologies relevant to its mission of investing in and developing breakthrough technologies for national security. Wait, What? will feature:_x000D_
+The purpose of the Future Technology Forum is to foster discussions among leaders on the forward edge of change-to learn from them about emerging technologies worthy of attention or support, and to inspire them to consider applying their expertise to the important and rewarding worlds of public service and national security. DARPA is bringing together forward-thinking scientists, engineers and other innovators interested in sharing ideas within and across some of the most exciting areas of research and technology today._x000D_
+The idea is to look beyond today's products and businesses to the next generation of emerging and pending technologies and capabilities that could reshape our world within the next decade or more from now. Presentations and demonstrations will include new ways to meld minds and machines, tame atoms and photons in real time, program microbes and more with synthetic DNA, use topology to make sense of big data, and many other topics._x000D_
+DARPA's goal is to engage and connect scientists and technologists not just in one field, as at most meetings, but across many fast-moving fields-to blend ideas and to inspire the attendees to focus their considerable talents on some of our Nation's most pressing challenges. This kind of engagement with the research and technical community is central to DARPA's mission of breakthrough technologies for national security._x000D_
+The Future Technology Forum will be unclassified._x000D_
+Details about the meeting agenda, speakers, venue and registration can be found here: www.darpawaitwhat.com. Registration is currently open and will close when capacity is reached but not later than Friday, July 31, 2015, at 11:59 PM EDT. The registration fee for the Forum is $400 per person._x000D_
+This announcement does not constitute a formal solicitation for proposals or proposal abstracts.  Attendance is voluntary and is not required to propose to any potential subsequent Broad Agency Announcements or potential research solicitations. DARPA will not provide reimbursement for any costs incurred to participate in this Future Technology Forum.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 28, 2015 10:00 am_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Tactical Technology Office (TTO) is sponsoring a Proposers Day to provide information to potential proposers on the objectives of the Gremlins program in association with a planned Broad Agency Announcement (BAA). The Proposers Day will be held on Thursday, September 24, 2015 at the DARPA Conference Center from 12:45PM to 5:00PM (EDT), and will continue on Friday, September 25, 2015. Check-in begins at 12:00PM on Thursday, September 24, 2015. Advance registration is required.  Registration closes on Friday, September 18, 2015 at 2:00PM (EDT). Refer to the attachment, "DARPA-SN-15-72," for complete details of this Special Notice.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 11, 2015 2:01 pm_x000D_
+The DARPA Microsystems Technology Office is soliciting fundamental research proposals in the area of vacuum electronics science and technology. Proposed research should investigate innovative approaches to modeling, advanced manufacturing, theory and design of components, and other focus areas that enable revolutionary advances in vacuum electron devices at millimeter wave (mm-wave) frequencies above 75 GHz. Specifically excluded are efforts that primarily result in evolutionary improvements to the existing state of the practice.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 17, 2015 10:25 am_x000D_
+DARPA seeks to develop a custom integrated circuit design flow and methodology that will: 1) sharply reduce the amount of effort required to design a high performance custom integrated circuit, 2) greatly facilitate porting of integrated circuit designs to secondary foundries and/or more advanced technology nodes, and 3) strongly increase reuse of integrated circuit elements (IP).</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 18, 2015 3:29 pm_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Defense Sciences Office (DSO) is requesting information concerning extreme challenge problems in optics and imaging. For the purposes of this RFI, extreme challenges encompass systems, components, devices, processing schemes, or design/optimization tools that drastically outperform the current state of the art, and expand the limits of what is typically deemed possible using conventional design methodologies. Responses should completely alter the current design paradigm of a given extreme challenge, and pave the way for fundamentally unique solutions; incremental, evolutionary advances are not of interest to this RFI._x000D_
+See attached DARPA-SN-15-69.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 31, 2015 12:12 pm_x000D_
+The Defense Advanced Research Projects Agency (DARPA) Information Innovation Office (I2O) is sponsoring a Proposers Day, to provide information to potential proposers on the objectives of the anticipated Extreme Distributed Denial of Service (DDoS) Defense (XD3) Broad Agency Announcement (BAA). If released, the BAA will be posted on the Federal Business Opportunities (FBO) website (http://www.fedbizopps.gov) and the Grants.gov website (http://www.grants.gov). This Proposers Day is unclassified._x000D_
+_x000D_
+The Proposers Day will be held on Wednesday, September 2, 2015, from 1:00 PM to 4:30 PM (ET) at the DARPA Conference Center, located at 675 N. Randolph Street, Arlington, Virginia, 22203. Advance registration is required. Attendance at the XD3 Proposers Day is voluntary and is not required to propose to subsequent solicitations (if any) on this topic._x000D_
+The Proposers Day does not constitute a formal solicitation for proposals or abstracts. This announcement is issued solely for information and program planning purposes, and is not a Request for Information (RFI). Since this is not an RFI, no submissions against this notice will be accepted by DARPA. DARPA will not provide reimbursement for costs incurred to participate in this Proposers Day. Interested parties to this notice are cautioned that nothing herein obligates DARPA to issue a solicitation._x000D_
+Following the Proposers Day, DARPA anticipates posting additional information regarding the XD3 program (e.g., DARPA materials presented at the Proposers Day and a frequently asked questions [FAQ] document) to http://www.darpa.mil/work‐with‐us/opportunities._x000D_
+_x000D_
+Added:_x000D_
+Aug 25, 2015 1:52 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 14, 2015 8:03 am_x000D_
+DARPA is soliciting innovative research proposals in the area of resilient defenses against distributed denial of service (DDoS) attacks on computer networks.  The XD3 program aims to thwart DDoS attacks by dispersing cyber assets (physically and/or logically), disguising the characteristics and behaviors of those assets, and mitigating the attacks (especially low&amp;#8208;volume attacks) that still penetrate the targeted environment.  For further details see attached PDF, "DARPA-BAA-15-56 (XD3 BAA)"_x000D_
+Added:_x000D_
+Aug 26, 2015 9:08 am_x000D_
+Amendment 1:  The purpose of this amendment is to extend the Proposers Day registration deadline to August 28, 2015, and to clarify for those proposing against Technical Area 5 to include the Security POC on the cover sheet of the Volume 1 proposal.  For further details see attached PDF, "DARPA-BAA-15-56 (XD3 BAA) Amendment 1" as the changes are highlighted in yellow.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 27, 2015 10:38 am_x000D_
+See the attached DARPA-SN-15-68 document.</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Aug 28, 2015 9:19 am_x000D_
+The goal of the Distributed Battle Management program is to develop and demonstrate software decision aids to assist airborne battle managers and pilots with managing air-to-air and air-to-ground combat.</t>
+  </si>
+  <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=609d9473f9acde0ca577aae2774fb185&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
@@ -1731,6 +2000,69 @@
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=aa7b1ad5cb7a2e6ccd950642ffd2485e&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e4ad935db2a03d2c181b9df4dafcc103&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=64107942364d8485a262b9056c25acd2&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=7ee6bf8e31168fc1655470ef4262c8d5&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=0a5f005dfcf23211144ab8af492d0657&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=c859eaffeabc8c803686034d526702d3&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=44352a9b6f499222cbcd1c4525821be9&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=0d162c26fca06e7d6e5915bf4e0a8b81&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=fd88494f2d00f1d1dd552cf45195dedd&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=23d6ef546e7a7885dcc5a9df1208fab6&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=c6aba0cc858f262fca9e4c06dbddcf9a&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4e18e5fb6870129887ff22cece5522d1&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=b8334134ee199c4bd4325852f49741b4&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e2dee4826d99f1a09864622a3f27ced2&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=98ddbeb9af0d27f36424ffe84e894088&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=8bafa9a7da1d927fa91cc6031ab1cd9b&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=e14b38f379e96657c435887d70a43105&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=dc0f5e99441421af64f2048f696c5168&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=378faf67770a4eb05da5f1ab45db9cd3&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=90adebdc1ca6076cd48b62bee1e20332&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4f91d6c286b7977634f0388ca3997503&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=70779217fb6869d7c86255558f02a73d&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
     <t>Ground X-Vehicle Technologies (GXV-T) Program Technology Development</t>
   </si>
   <si>
@@ -1902,6 +2234,69 @@
     <t>Defense Sciences Office Proposers Day</t>
   </si>
   <si>
+    <t>Integrity and Reliability of Integrated CircuitS (IRIS) Phase III Proposers Day</t>
+  </si>
+  <si>
+    <t>Defense Sciences Research and Technology</t>
+  </si>
+  <si>
+    <t>Radio Frequency Microsatellite Risk Reduction Technology</t>
+  </si>
+  <si>
+    <t>Shared Spectrum Access for Radar and Communications (SSPARC) Codesign Phase 2</t>
+  </si>
+  <si>
+    <t>2016 Aviation Week Intelligence Network Digital Subscription</t>
+  </si>
+  <si>
+    <t>The Institute for Electrical and Electronics Engineers (IEEE) Digital Library Subscription</t>
+  </si>
+  <si>
+    <t>2016 The Optical Society (OSA) Digital Subscription</t>
+  </si>
+  <si>
+    <t>2016 The Society of Photo-Optical Instrumentation Engineers (SPIE) Digital Subscription</t>
+  </si>
+  <si>
+    <t>Classified Network Support Services for the Defense Advanced Research Projects Agency (DARPA) Mission Services Office (MSO).</t>
+  </si>
+  <si>
+    <t>Integrity and Reliability of Integrated CircuitS (IRIS), Phase III</t>
+  </si>
+  <si>
+    <t>High Energy &amp; Wide Bandwidth Infrared Lasers Request for Information</t>
+  </si>
+  <si>
+    <t>Self-evolving and Adapting Therapeutics (ADAPT) RFI, DARPA-SN-15-54</t>
+  </si>
+  <si>
+    <t>DARPA's "Wait, What? A Future Technology Forum</t>
+  </si>
+  <si>
+    <t>Proposers Day for Gremlins</t>
+  </si>
+  <si>
+    <t>Innovative Vacuum Electronics Science and Technology (INVEST)</t>
+  </si>
+  <si>
+    <t>Circuit Realization At Faster Timescales (CRAFT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extreme Challenges in Optics and Imaging Request for Information (RFI) </t>
+  </si>
+  <si>
+    <t>Extreme DDoS Defense (XD3) Proposers Day</t>
+  </si>
+  <si>
+    <t>Extreme DDoS Defense (XD3)</t>
+  </si>
+  <si>
+    <t>SPECIAL NOTICE -  HAVOC – High power Amplifier using Vacuum electronics for Overmatch Capability Proposers Day</t>
+  </si>
+  <si>
+    <t>Distributed Battle Management (DBM) Phase 2</t>
+  </si>
+  <si>
     <t>DARPA-BAA-14-42</t>
   </si>
   <si>
@@ -2001,7 +2396,10 @@
     <t>DARPA-BAA-15-04</t>
   </si>
   <si>
-    <t>Information Innovation Office</t>
+    <t>DARPA-BAA-14-49</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-56</t>
   </si>
   <si>
     <t>09/09/2016</t>
@@ -2763,6 +3161,28 @@
 TOTAL Potential Contract Value: $2,413,799</t>
   </si>
   <si>
+    <t>Added:_x000D_
+Jul 08, 2015 3:04 pm</t>
+  </si>
+  <si>
+    <t>Added:_x000D_
+Jul 16, 2015 10:08 am_x000D_
+_x000D_
+DARPA-SN-15-56 Sole Source Notice for STO Multifunction RF (MFRF) Program_x000D_
+_x000D_
+The Defense Advanced Research Projects Agency (DARPA), Contracts Management Office (CMO),intends to award a sole source contract to Honeywell International Inc, 9201 San Mateo Blvd, NE,Albuquerque, NM 67113, under the authority of FAR 6.302-1, Only One Responsible Source and No Other Supplies or Services Will Satisfy Agency Requirements, 10 U.S.C. 2304(c) (1)._x000D_
+_x000D_
+The intended award to Honeywell will provide the interface updates and support to fully integrate its Synthetic Vision Avionics Backbone (SVAB) solution from the completed DARPA Broad Agency Announcement (BAA) No. 11-46, technical area (TA) 2, efforts with the ongoing Multifunction RF (MFRF) Advanced Rotary Multifunction Sensor (ARMS) TA1 efforts for tower and flight tests. TA1 is producing a state-of-the-art, millimeter-wave radar to enable U.S. rotary wing aircraft to fight effectively in all forms of degraded visual environments (DVEs). Final demonstration of the ARMS in flight will require an SVAB in order to present sensor data to the pilots. The original SVAB was developed to interact with a radar sensor significantly less capable than ARMS and modifications to the original SVAB are required to accommodate the enhanced capabilities ARMS provides. Specific tasks include Interface Control Document Updates to define sensor-specific interfaces/modes to be fully compatible with the sensor developed, specific hardware and software updates, and the engineering support for setup of hardware and software for Government purposes._x000D_
+_x000D_
+This announcement constitutes the only notice; a written solicitation will not be issued._x000D_
+_x000D_
+Interested persons may identify their interest and capability to perform by responding to this notice by the specified closing date. This notice of intent is not a request for competitive proposals. However, the Government will consider all proposals received by the closing date specified in this notice. A determination by the Government not to compete this proposed contract based upon responses to this notice is solely within the discretion of the Government. Information received will normally be considered solely for the purpose of determining whether to conduct a competitive procurement._x000D_
+_x000D_
+Contract Contracting Office Address: 675 N. Randolph Street, Arlington, VA 22203-2114._x000D_
+_x000D_
+Primary Point of Contact: Tina Stuard, Contracting Officer, Tina.Stuard@darpa.mil.</t>
+  </si>
+  <si>
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=2a34df9e82288cdd2f04fe502dc9f99a&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
@@ -2862,6 +3282,12 @@
     <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=aacab890da9fd621dc0cb5e311b27ee8&amp;tab=core&amp;_cview=1</t>
   </si>
   <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=72c4ec6e715938bdcaeba252f5e83ddc&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
+    <t>https://www.fbo.gov/index?s=opportunity&amp;mode=form&amp;id=4772d2d3838a2c09cce5ca492394fc38&amp;tab=core&amp;_cview=1</t>
+  </si>
+  <si>
     <t>Microsystems Technology Office (MTO) Office-Wide Broad Agency Announcement (BAA)</t>
   </si>
   <si>
@@ -2956,6 +3382,12 @@
   </si>
   <si>
     <t>Low Resource Languages for Emergent Incidents (LORELEI)</t>
+  </si>
+  <si>
+    <t>Control of Bee Behavior by Stably Engineered Gut Microbial Communities</t>
+  </si>
+  <si>
+    <t>DARPA-SN-15-56 Multifunction RF (MFRF)</t>
   </si>
 </sst>
 </file>
@@ -3322,7 +3754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3365,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3400,22 +3832,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3429,22 +3861,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="I4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3455,28 +3887,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3490,22 +3922,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3519,22 +3951,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3548,22 +3980,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3577,22 +4009,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="I9" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3606,22 +4038,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3635,22 +4067,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="I11" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3664,22 +4096,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3693,22 +4125,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3722,22 +4154,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3748,28 +4180,28 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="I15" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3780,28 +4212,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3815,22 +4247,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="I17" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3841,28 +4273,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="I18" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3876,22 +4308,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3905,22 +4337,22 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="I20" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3934,22 +4366,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="I21" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3963,22 +4395,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="I22" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3992,22 +4424,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="I23" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4021,22 +4453,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="I24" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4050,22 +4482,22 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4079,22 +4511,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4108,22 +4540,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4137,22 +4569,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -4166,22 +4598,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4195,22 +4627,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4224,22 +4656,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4253,22 +4685,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4282,22 +4714,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4311,22 +4743,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4340,22 +4772,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4369,22 +4801,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="I36" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4398,22 +4830,22 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="I37" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4427,22 +4859,22 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="I38" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4456,22 +4888,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="I39" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4485,22 +4917,22 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4514,22 +4946,22 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="I41" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4543,22 +4975,22 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4572,22 +5004,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4601,22 +5033,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -4630,22 +5062,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="I45" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -4659,22 +5091,22 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="I46" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -4688,22 +5120,22 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G47" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="I47" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -4714,28 +5146,28 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="I48" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -4749,22 +5181,22 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="I49" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -4778,22 +5210,22 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4807,22 +5239,22 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G51" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="I51" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -4836,22 +5268,22 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4865,22 +5297,22 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="I53" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4891,28 +5323,28 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="I54" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4923,28 +5355,28 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="I55" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4955,28 +5387,28 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="I56" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4987,28 +5419,28 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="I57" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -5019,30 +5451,669 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" t="s">
-        <v>190</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I61" t="s">
+        <v>387</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I62" t="s">
+        <v>388</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I63" t="s">
+        <v>389</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G64" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I64" t="s">
+        <v>390</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I65" t="s">
+        <v>391</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I66" t="s">
+        <v>392</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I67" t="s">
+        <v>393</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I68" t="s">
+        <v>394</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" t="s">
+        <v>239</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" t="s">
+        <v>395</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" t="s">
+        <v>240</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I70" t="s">
+        <v>396</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" t="s">
+        <v>241</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I71" t="s">
+        <v>397</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I72" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" t="s">
+        <v>243</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I73" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>167</v>
+      </c>
+      <c r="G74" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I75" t="s">
+        <v>401</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I76" t="s">
+        <v>402</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" t="s">
         <v>247</v>
       </c>
-      <c r="I58" t="s">
-        <v>304</v>
-      </c>
-      <c r="J58">
+      <c r="H77" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I77" t="s">
+        <v>403</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>168</v>
+      </c>
+      <c r="G78" t="s">
+        <v>248</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I78" t="s">
+        <v>404</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79" t="s">
+        <v>249</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I79" t="s">
+        <v>405</v>
+      </c>
+      <c r="J79">
         <v>0</v>
       </c>
     </row>
@@ -5105,6 +6176,27 @@
     <hyperlink ref="H56" r:id="rId55"/>
     <hyperlink ref="H57" r:id="rId56"/>
     <hyperlink ref="H58" r:id="rId57"/>
+    <hyperlink ref="H59" r:id="rId58"/>
+    <hyperlink ref="H60" r:id="rId59"/>
+    <hyperlink ref="H61" r:id="rId60"/>
+    <hyperlink ref="H62" r:id="rId61"/>
+    <hyperlink ref="H63" r:id="rId62"/>
+    <hyperlink ref="H64" r:id="rId63"/>
+    <hyperlink ref="H65" r:id="rId64"/>
+    <hyperlink ref="H66" r:id="rId65"/>
+    <hyperlink ref="H67" r:id="rId66"/>
+    <hyperlink ref="H68" r:id="rId67"/>
+    <hyperlink ref="H69" r:id="rId68"/>
+    <hyperlink ref="H70" r:id="rId69"/>
+    <hyperlink ref="H71" r:id="rId70"/>
+    <hyperlink ref="H72" r:id="rId71"/>
+    <hyperlink ref="H73" r:id="rId72"/>
+    <hyperlink ref="H74" r:id="rId73"/>
+    <hyperlink ref="H75" r:id="rId74"/>
+    <hyperlink ref="H76" r:id="rId75"/>
+    <hyperlink ref="H77" r:id="rId76"/>
+    <hyperlink ref="H78" r:id="rId77"/>
+    <hyperlink ref="H79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5112,7 +6204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5152,31 +6244,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>441</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="I2" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -5184,28 +6276,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>387</v>
+        <v>491</v>
       </c>
       <c r="I3" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5213,28 +6305,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>457</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>388</v>
+        <v>492</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -5242,28 +6334,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>458</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>389</v>
+        <v>493</v>
       </c>
       <c r="I5" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -5271,28 +6363,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>357</v>
+        <v>459</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="I6" t="s">
-        <v>422</v>
+        <v>528</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -5300,28 +6392,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="G7" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
       <c r="I7" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -5329,28 +6421,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>359</v>
+        <v>461</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>392</v>
+        <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -5358,28 +6450,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>360</v>
+        <v>462</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="I9" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -5387,28 +6479,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>444</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>361</v>
+        <v>463</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="I10" t="s">
-        <v>426</v>
+        <v>532</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5416,28 +6508,28 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>464</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="I11" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -5445,28 +6537,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
       <c r="I12" t="s">
-        <v>428</v>
+        <v>534</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -5474,28 +6566,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>445</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>364</v>
+        <v>466</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
       <c r="I13" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -5503,28 +6595,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>365</v>
+        <v>467</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>398</v>
+        <v>502</v>
       </c>
       <c r="I14" t="s">
-        <v>430</v>
+        <v>536</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -5532,28 +6624,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>446</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>399</v>
+        <v>503</v>
       </c>
       <c r="I15" t="s">
-        <v>431</v>
+        <v>537</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -5561,28 +6653,28 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="I16" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -5590,28 +6682,28 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>368</v>
+        <v>470</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>401</v>
+        <v>505</v>
       </c>
       <c r="I17" t="s">
-        <v>433</v>
+        <v>539</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -5619,28 +6711,28 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>402</v>
+        <v>506</v>
       </c>
       <c r="I18" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -5648,28 +6740,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>322</v>
+        <v>423</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>435</v>
+        <v>541</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -5677,28 +6769,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="I20" t="s">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -5706,28 +6798,28 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>324</v>
+        <v>425</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="G21" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="I21" t="s">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -5735,28 +6827,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>373</v>
+        <v>475</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="I22" t="s">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5764,28 +6856,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>407</v>
+        <v>511</v>
       </c>
       <c r="I23" t="s">
-        <v>439</v>
+        <v>545</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5793,28 +6885,28 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>375</v>
+        <v>477</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>408</v>
+        <v>512</v>
       </c>
       <c r="I24" t="s">
-        <v>440</v>
+        <v>546</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -5822,28 +6914,28 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>328</v>
+        <v>429</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>409</v>
+        <v>513</v>
       </c>
       <c r="I25" t="s">
-        <v>441</v>
+        <v>547</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -5851,28 +6943,28 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="I26" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -5880,31 +6972,31 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>330</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>411</v>
+        <v>515</v>
       </c>
       <c r="I27" t="s">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5912,28 +7004,28 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>379</v>
+        <v>481</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>412</v>
+        <v>516</v>
       </c>
       <c r="I28" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -5941,28 +7033,28 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
       <c r="I29" t="s">
-        <v>445</v>
+        <v>551</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -5970,28 +7062,28 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>414</v>
+        <v>518</v>
       </c>
       <c r="I30" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -5999,31 +7091,31 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>334</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>382</v>
+        <v>484</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="I31" t="s">
-        <v>447</v>
+        <v>553</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -6031,31 +7123,31 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
       <c r="I32" t="s">
-        <v>448</v>
+        <v>554</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6063,28 +7155,28 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>336</v>
+        <v>437</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>417</v>
+        <v>521</v>
       </c>
       <c r="I33" t="s">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -6092,30 +7184,88 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>385</v>
+        <v>487</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>418</v>
+        <v>522</v>
       </c>
       <c r="I34" t="s">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>443</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>488</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I35" t="s">
+        <v>557</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>443</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
+        <v>489</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I36" t="s">
+        <v>558</v>
+      </c>
+      <c r="J36">
         <v>1</v>
       </c>
     </row>
@@ -6154,6 +7304,8 @@
     <hyperlink ref="H32" r:id="rId31"/>
     <hyperlink ref="H33" r:id="rId32"/>
     <hyperlink ref="H34" r:id="rId33"/>
+    <hyperlink ref="H35" r:id="rId34"/>
+    <hyperlink ref="H36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
